--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AD$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AD$98</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="601">
   <si>
     <t>p.id</t>
   </si>
@@ -2451,12 +2451,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C49">
         <v>2011</v>
@@ -5660,31 +5660,31 @@
         <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H49" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s">
-        <v>416</v>
+        <v>254</v>
       </c>
       <c r="M49" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N49" t="s">
-        <v>584</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P49" t="s">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="Q49" t="s">
         <v>30</v>
@@ -5699,16 +5699,10 @@
         <v>32</v>
       </c>
       <c r="W49" t="s">
-        <v>301</v>
-      </c>
-      <c r="X49" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Y49" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="AD49" t="s">
         <v>25</v>
@@ -5716,25 +5710,28 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" t="s">
-        <v>305</v>
+        <v>298</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C50">
         <v>2011</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
         <v>411</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
-      </c>
-      <c r="G50" t="s">
-        <v>307</v>
+        <v>73</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H50" t="s">
+        <v>537</v>
       </c>
       <c r="J50" t="s">
         <v>413</v>
@@ -5746,34 +5743,40 @@
         <v>416</v>
       </c>
       <c r="M50" t="s">
-        <v>73</v>
+        <v>571</v>
       </c>
       <c r="N50" t="s">
-        <v>73</v>
+        <v>584</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="P50" t="s">
         <v>73</v>
       </c>
       <c r="Q50" t="s">
-        <v>210</v>
-      </c>
-      <c r="R50" t="s">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="S50" t="s">
         <v>25</v>
       </c>
       <c r="U50" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="V50" t="s">
         <v>32</v>
       </c>
+      <c r="W50" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" t="s">
+        <v>302</v>
+      </c>
       <c r="Y50" t="s">
-        <v>97</v>
+        <v>303</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>47</v>
       </c>
       <c r="AD50" t="s">
         <v>25</v>
@@ -5802,13 +5805,13 @@
         <v>307</v>
       </c>
       <c r="J51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s">
         <v>73</v>
@@ -5837,11 +5840,8 @@
       <c r="V51" t="s">
         <v>32</v>
       </c>
-      <c r="Z51" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>310</v>
+      <c r="Y51" t="s">
+        <v>97</v>
       </c>
       <c r="AD51" t="s">
         <v>25</v>
@@ -5849,25 +5849,25 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C52">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E52" t="s">
         <v>411</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="J52" t="s">
         <v>414</v>
@@ -5876,31 +5876,31 @@
         <v>226</v>
       </c>
       <c r="L52" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="M52" t="s">
-        <v>572</v>
+        <v>73</v>
       </c>
       <c r="N52" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="O52" t="s">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="Q52" t="s">
         <v>210</v>
       </c>
       <c r="R52" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="S52" t="s">
         <v>25</v>
       </c>
       <c r="U52" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="V52" t="s">
         <v>32</v>
@@ -5908,8 +5908,8 @@
       <c r="Z52" t="s">
         <v>312</v>
       </c>
-      <c r="AC52" t="s">
-        <v>322</v>
+      <c r="AA52" t="s">
+        <v>310</v>
       </c>
       <c r="AD52" t="s">
         <v>25</v>
@@ -5941,10 +5941,10 @@
         <v>414</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s">
         <v>572</v>
@@ -5973,8 +5973,8 @@
       <c r="V53" t="s">
         <v>32</v>
       </c>
-      <c r="AB53" t="s">
-        <v>321</v>
+      <c r="Z53" t="s">
+        <v>312</v>
       </c>
       <c r="AC53" t="s">
         <v>322</v>
@@ -5985,49 +5985,52 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C54">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
         <v>411</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="J54" t="s">
         <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s">
         <v>572</v>
       </c>
       <c r="N54" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O54" t="s">
-        <v>578</v>
+        <v>318</v>
       </c>
       <c r="P54" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="Q54" t="s">
-        <v>325</v>
+        <v>210</v>
+      </c>
+      <c r="R54" t="s">
+        <v>320</v>
       </c>
       <c r="S54" t="s">
         <v>25</v>
@@ -6038,14 +6041,11 @@
       <c r="V54" t="s">
         <v>32</v>
       </c>
-      <c r="Z54" t="s">
-        <v>330</v>
-      </c>
       <c r="AB54" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AC54" t="s">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c r="AD54" t="s">
         <v>25</v>
@@ -6053,58 +6053,52 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="B55" t="s">
+        <v>327</v>
       </c>
       <c r="C55">
         <v>2013</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>332</v>
       </c>
       <c r="E55" t="s">
         <v>411</v>
       </c>
       <c r="F55" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G55" t="s">
-        <v>341</v>
-      </c>
-      <c r="I55" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>246</v>
       </c>
       <c r="M55" t="s">
         <v>572</v>
       </c>
       <c r="N55" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="P55" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q55" t="s">
         <v>325</v>
       </c>
       <c r="S55" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="U55" t="s">
         <v>236</v>
@@ -6112,20 +6106,17 @@
       <c r="V55" t="s">
         <v>32</v>
       </c>
-      <c r="W55" t="s">
-        <v>336</v>
-      </c>
-      <c r="X55" t="s">
-        <v>337</v>
+      <c r="Z55" t="s">
+        <v>330</v>
       </c>
       <c r="AB55" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AC55" t="s">
         <v>47</v>
       </c>
       <c r="AD55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -6160,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s">
         <v>572</v>
@@ -6189,8 +6180,11 @@
       <c r="V56" t="s">
         <v>32</v>
       </c>
-      <c r="Y56" t="s">
-        <v>97</v>
+      <c r="W56" t="s">
+        <v>336</v>
+      </c>
+      <c r="X56" t="s">
+        <v>337</v>
       </c>
       <c r="AB56" t="s">
         <v>338</v>
@@ -6231,10 +6225,10 @@
         <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="L57" t="s">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
         <v>572</v>
@@ -6264,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="AB57" t="s">
         <v>338</v>
@@ -6295,7 +6289,7 @@
       <c r="F58" t="s">
         <v>340</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>341</v>
       </c>
       <c r="I58" t="s">
@@ -6305,10 +6299,10 @@
         <v>413</v>
       </c>
       <c r="K58" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s">
         <v>572</v>
@@ -6338,7 +6332,7 @@
         <v>32</v>
       </c>
       <c r="Y58" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AB58" t="s">
         <v>338</v>
@@ -6352,55 +6346,58 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" t="s">
-        <v>353</v>
+        <v>333</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C59">
         <v>2013</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>411</v>
       </c>
       <c r="F59" t="s">
-        <v>355</v>
-      </c>
-      <c r="G59" t="s">
-        <v>354</v>
+        <v>340</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I59" t="s">
+        <v>339</v>
       </c>
       <c r="J59" t="s">
         <v>413</v>
       </c>
       <c r="K59" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="L59" t="s">
-        <v>417</v>
+        <v>143</v>
       </c>
       <c r="M59" t="s">
         <v>572</v>
       </c>
       <c r="N59" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="O59" t="s">
-        <v>346</v>
+        <v>73</v>
       </c>
       <c r="P59" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="Q59" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="S59" t="s">
         <v>26</v>
       </c>
       <c r="T59" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="U59" t="s">
         <v>236</v>
@@ -6408,17 +6405,17 @@
       <c r="V59" t="s">
         <v>32</v>
       </c>
-      <c r="W59" t="s">
-        <v>349</v>
-      </c>
-      <c r="X59" t="s">
-        <v>352</v>
+      <c r="Y59" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>338</v>
       </c>
       <c r="AC59" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
       <c r="AD59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
@@ -6444,13 +6441,13 @@
         <v>354</v>
       </c>
       <c r="J60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K60" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>227</v>
+        <v>417</v>
       </c>
       <c r="M60" t="s">
         <v>572</v>
@@ -6482,8 +6479,8 @@
       <c r="W60" t="s">
         <v>349</v>
       </c>
-      <c r="AB60" t="s">
-        <v>351</v>
+      <c r="X60" t="s">
+        <v>352</v>
       </c>
       <c r="AC60" t="s">
         <v>350</v>
@@ -6494,52 +6491,55 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C61">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F61" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="M61" t="s">
         <v>572</v>
       </c>
       <c r="N61" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="P61" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q61" t="s">
         <v>30</v>
       </c>
       <c r="S61" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="T61" t="s">
+        <v>348</v>
       </c>
       <c r="U61" t="s">
         <v>236</v>
@@ -6547,14 +6547,17 @@
       <c r="V61" t="s">
         <v>32</v>
       </c>
-      <c r="X61" t="s">
-        <v>360</v>
+      <c r="W61" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>351</v>
       </c>
       <c r="AC61" t="s">
-        <v>47</v>
+        <v>350</v>
       </c>
       <c r="AD61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
@@ -6583,10 +6586,10 @@
         <v>413</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="L62" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s">
         <v>572</v>
@@ -6612,8 +6615,8 @@
       <c r="V62" t="s">
         <v>32</v>
       </c>
-      <c r="Y62" t="s">
-        <v>364</v>
+      <c r="X62" t="s">
+        <v>360</v>
       </c>
       <c r="AC62" t="s">
         <v>47</v>
@@ -6648,10 +6651,10 @@
         <v>413</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M63" t="s">
         <v>572</v>
@@ -6677,8 +6680,8 @@
       <c r="V63" t="s">
         <v>32</v>
       </c>
-      <c r="AB63" s="4" t="s">
-        <v>365</v>
+      <c r="Y63" t="s">
+        <v>364</v>
       </c>
       <c r="AC63" t="s">
         <v>47</v>
@@ -6689,58 +6692,49 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C64">
         <v>2012</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>362</v>
       </c>
       <c r="G64" t="s">
-        <v>539</v>
-      </c>
-      <c r="H64" t="s">
-        <v>538</v>
-      </c>
-      <c r="I64" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J64" t="s">
         <v>413</v>
       </c>
       <c r="K64" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s">
-        <v>417</v>
+        <v>193</v>
       </c>
       <c r="M64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N64" t="s">
-        <v>73</v>
+        <v>577</v>
       </c>
       <c r="O64" t="s">
         <v>73</v>
       </c>
       <c r="P64" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="Q64" t="s">
-        <v>597</v>
-      </c>
-      <c r="R64" t="s">
-        <v>590</v>
+        <v>30</v>
       </c>
       <c r="S64" t="s">
         <v>25</v>
@@ -6749,10 +6743,13 @@
         <v>236</v>
       </c>
       <c r="V64" t="s">
-        <v>370</v>
-      </c>
-      <c r="X64" t="s">
-        <v>371</v>
+        <v>32</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>47</v>
       </c>
       <c r="AD64" t="s">
         <v>26</v>
@@ -6793,7 +6790,7 @@
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="M65" t="s">
         <v>573</v>
@@ -6822,8 +6819,8 @@
       <c r="V65" t="s">
         <v>370</v>
       </c>
-      <c r="Y65" t="s">
-        <v>372</v>
+      <c r="X65" t="s">
+        <v>371</v>
       </c>
       <c r="AD65" t="s">
         <v>26</v>
@@ -6861,10 +6858,10 @@
         <v>413</v>
       </c>
       <c r="K66" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="L66" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="M66" t="s">
         <v>573</v>
@@ -6892,6 +6889,9 @@
       </c>
       <c r="V66" t="s">
         <v>370</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>372</v>
       </c>
       <c r="AD66" t="s">
         <v>26</v>
@@ -6926,13 +6926,13 @@
         <v>368</v>
       </c>
       <c r="J67" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="M67" t="s">
         <v>573</v>
@@ -6967,16 +6967,16 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C68">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="E68" t="s">
         <v>411</v>
@@ -6985,114 +6985,114 @@
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H68" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I68" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J68" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K68" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L68" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M68" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N68" t="s">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="O68" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="P68" t="s">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="Q68" t="s">
         <v>597</v>
       </c>
       <c r="R68" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S68" t="s">
-        <v>26</v>
-      </c>
-      <c r="T68" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="U68" t="s">
         <v>236</v>
       </c>
       <c r="V68" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>47</v>
+        <v>370</v>
       </c>
       <c r="AD68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C69">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="E69" t="s">
         <v>411</v>
       </c>
       <c r="F69" t="s">
-        <v>385</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>386</v>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>541</v>
+      </c>
+      <c r="H69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I69" t="s">
+        <v>376</v>
       </c>
       <c r="J69" t="s">
         <v>413</v>
       </c>
       <c r="K69" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="L69" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="M69" t="s">
         <v>572</v>
       </c>
       <c r="N69" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="O69" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="P69" t="s">
         <v>73</v>
       </c>
       <c r="Q69" t="s">
-        <v>30</v>
+        <v>597</v>
+      </c>
+      <c r="R69" t="s">
+        <v>591</v>
       </c>
       <c r="S69" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="T69" t="s">
+        <v>379</v>
       </c>
       <c r="U69" t="s">
         <v>236</v>
@@ -7100,8 +7100,11 @@
       <c r="V69" t="s">
         <v>32</v>
       </c>
-      <c r="Y69" t="s">
-        <v>387</v>
+      <c r="AA69" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>378</v>
       </c>
       <c r="AC69" t="s">
         <v>47</v>
@@ -7129,17 +7132,17 @@
       <c r="F70" t="s">
         <v>385</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>386</v>
       </c>
       <c r="J70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K70" t="s">
-        <v>406</v>
+        <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M70" t="s">
         <v>572</v>
@@ -7165,11 +7168,8 @@
       <c r="V70" t="s">
         <v>32</v>
       </c>
-      <c r="Z70" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>388</v>
+      <c r="Y70" t="s">
+        <v>387</v>
       </c>
       <c r="AC70" t="s">
         <v>47</v>
@@ -7180,61 +7180,67 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
         <v>411</v>
       </c>
       <c r="F71" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G71" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="J71" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K71" t="s">
-        <v>142</v>
+        <v>406</v>
       </c>
       <c r="L71" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M71" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N71" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="O71" t="s">
-        <v>43</v>
+        <v>580</v>
       </c>
       <c r="P71" t="s">
         <v>73</v>
       </c>
       <c r="Q71" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="S71" t="s">
-        <v>26</v>
-      </c>
-      <c r="T71" t="s">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="U71" t="s">
         <v>236</v>
       </c>
+      <c r="V71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>390</v>
+      </c>
       <c r="AA71" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>47</v>
       </c>
       <c r="AD71" t="s">
         <v>25</v>
@@ -7242,87 +7248,78 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B72" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C72">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E72" t="s">
         <v>411</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="G72" t="s">
-        <v>542</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="J72" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K72" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="L72" t="s">
-        <v>108</v>
+        <v>399</v>
       </c>
       <c r="M72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N72" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="O72" t="s">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="P72" t="s">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Q72" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="S72" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="T72" t="s">
+        <v>400</v>
       </c>
       <c r="U72" t="s">
         <v>236</v>
       </c>
-      <c r="V72" t="s">
-        <v>32</v>
-      </c>
       <c r="AA72" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="AD72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="B73" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="C73">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D73" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="E73" t="s">
         <v>411</v>
@@ -7331,49 +7328,55 @@
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>545</v>
-      </c>
-      <c r="H73" t="s">
-        <v>544</v>
+        <v>542</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="J73" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="K73" t="s">
         <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N73" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O73" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="P73" t="s">
-        <v>61</v>
+        <v>420</v>
       </c>
       <c r="Q73" t="s">
-        <v>459</v>
+        <v>30</v>
+      </c>
+      <c r="S73" t="s">
+        <v>25</v>
       </c>
       <c r="U73" t="s">
         <v>236</v>
       </c>
-      <c r="Y73" t="s">
-        <v>460</v>
+      <c r="V73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>403</v>
       </c>
       <c r="AB73" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="AC73" t="s">
         <v>47</v>
       </c>
       <c r="AD73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
@@ -7405,10 +7408,10 @@
         <v>457</v>
       </c>
       <c r="K74" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L74" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s">
         <v>571</v>
@@ -7443,16 +7446,16 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C75">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D75" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E75" t="s">
         <v>411</v>
@@ -7461,10 +7464,10 @@
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H75" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J75" t="s">
         <v>457</v>
@@ -7479,28 +7482,25 @@
         <v>571</v>
       </c>
       <c r="N75" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O75" t="s">
-        <v>582</v>
+        <v>458</v>
       </c>
       <c r="P75" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="Q75" t="s">
-        <v>467</v>
-      </c>
-      <c r="R75" t="s">
-        <v>137</v>
-      </c>
-      <c r="S75" t="s">
-        <v>26</v>
+        <v>459</v>
       </c>
       <c r="U75" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>468</v>
+        <v>236</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>461</v>
       </c>
       <c r="AC75" t="s">
         <v>47</v>
@@ -7511,16 +7511,16 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C76">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>466</v>
       </c>
       <c r="E76" t="s">
         <v>411</v>
@@ -7529,84 +7529,87 @@
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>548</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="H76" t="s">
+        <v>547</v>
       </c>
       <c r="J76" t="s">
         <v>457</v>
       </c>
       <c r="K76" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="M76" t="s">
         <v>571</v>
       </c>
       <c r="N76" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="O76" t="s">
-        <v>471</v>
+        <v>582</v>
       </c>
       <c r="P76" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="Q76" t="s">
-        <v>325</v>
+        <v>467</v>
+      </c>
+      <c r="R76" t="s">
+        <v>137</v>
+      </c>
+      <c r="S76" t="s">
+        <v>26</v>
       </c>
       <c r="U76" t="s">
-        <v>138</v>
-      </c>
-      <c r="W76" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>473</v>
+        <v>284</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>468</v>
       </c>
       <c r="AC76" t="s">
         <v>47</v>
       </c>
       <c r="AD76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B77" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C77">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E77" t="s">
         <v>411</v>
       </c>
       <c r="F77" t="s">
-        <v>552</v>
+        <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J77" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="L77" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s">
         <v>571</v>
@@ -7615,34 +7618,28 @@
         <v>576</v>
       </c>
       <c r="O77" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P77" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q77" t="s">
-        <v>592</v>
-      </c>
-      <c r="S77" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="U77" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="W77" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AB77" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AC77" t="s">
         <v>47</v>
       </c>
       <c r="AD77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
@@ -7671,13 +7668,13 @@
         <v>551</v>
       </c>
       <c r="J78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K78" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="L78" t="s">
-        <v>480</v>
+        <v>108</v>
       </c>
       <c r="M78" t="s">
         <v>571</v>
@@ -7718,13 +7715,13 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C79">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D79" t="s">
         <v>269</v>
@@ -7733,55 +7730,55 @@
         <v>411</v>
       </c>
       <c r="F79" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G79" t="s">
-        <v>555</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="J79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K79" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="L79" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M79" t="s">
         <v>571</v>
       </c>
       <c r="N79" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="O79" t="s">
-        <v>582</v>
+        <v>476</v>
       </c>
       <c r="P79" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>467</v>
-      </c>
-      <c r="R79" t="s">
-        <v>137</v>
+        <v>592</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
       </c>
       <c r="U79" t="s">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="W79" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>486</v>
+        <v>477</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>479</v>
       </c>
       <c r="AC79" t="s">
-        <v>487</v>
+        <v>47</v>
       </c>
       <c r="AD79" t="s">
         <v>25</v>
@@ -7789,28 +7786,28 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B80" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C80">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="E80" t="s">
         <v>411</v>
       </c>
       <c r="F80" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J80" t="s">
         <v>413</v>
@@ -7819,25 +7816,28 @@
         <v>142</v>
       </c>
       <c r="L80" t="s">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s">
         <v>571</v>
       </c>
       <c r="N80" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="O80" t="s">
-        <v>490</v>
+        <v>582</v>
       </c>
       <c r="P80" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="Q80" t="s">
-        <v>30</v>
+        <v>467</v>
+      </c>
+      <c r="R80" t="s">
+        <v>137</v>
       </c>
       <c r="S80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U80" t="s">
         <v>91</v>
@@ -7845,17 +7845,14 @@
       <c r="W80" t="s">
         <v>485</v>
       </c>
-      <c r="Y80" t="s">
-        <v>491</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>492</v>
+      <c r="Z80" t="s">
+        <v>486</v>
       </c>
       <c r="AC80" t="s">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="AD80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
@@ -7890,7 +7887,7 @@
         <v>142</v>
       </c>
       <c r="L81" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="M81" t="s">
         <v>571</v>
@@ -7958,10 +7955,10 @@
         <v>413</v>
       </c>
       <c r="K82" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L82" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
       <c r="M82" t="s">
         <v>571</v>
@@ -8002,61 +7999,73 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C83">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D83" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="E83" t="s">
         <v>411</v>
       </c>
       <c r="F83" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G83" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="J83" t="s">
         <v>413</v>
       </c>
       <c r="K83" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L83" t="s">
-        <v>143</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s">
-        <v>73</v>
+        <v>571</v>
       </c>
       <c r="N83" t="s">
-        <v>73</v>
+        <v>581</v>
       </c>
       <c r="O83" t="s">
-        <v>73</v>
+        <v>490</v>
       </c>
       <c r="P83" t="s">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="Q83" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="S83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U83" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="W83" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>47</v>
       </c>
       <c r="AD83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
@@ -8085,13 +8094,13 @@
         <v>563</v>
       </c>
       <c r="J84" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="K84" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="L84" t="s">
-        <v>425</v>
+        <v>143</v>
       </c>
       <c r="M84" t="s">
         <v>73</v>
@@ -8120,70 +8129,58 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C85">
         <v>2010</v>
       </c>
       <c r="D85" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="E85" t="s">
         <v>411</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G85" t="s">
-        <v>565</v>
-      </c>
-      <c r="H85" t="s">
-        <v>598</v>
+        <v>562</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="J85" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K85" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="M85" t="s">
-        <v>571</v>
+        <v>73</v>
       </c>
       <c r="N85" t="s">
-        <v>581</v>
+        <v>73</v>
       </c>
       <c r="O85" t="s">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="P85" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="Q85" t="s">
-        <v>325</v>
+        <v>73</v>
       </c>
       <c r="S85" t="s">
         <v>25</v>
       </c>
       <c r="U85" t="s">
         <v>138</v>
-      </c>
-      <c r="W85" t="s">
-        <v>485</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>47</v>
       </c>
       <c r="AD85" t="s">
         <v>25</v>
@@ -8215,13 +8212,13 @@
         <v>598</v>
       </c>
       <c r="J86" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="K86" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L86" t="s">
-        <v>500</v>
+        <v>343</v>
       </c>
       <c r="M86" t="s">
         <v>571</v>
@@ -8242,7 +8239,7 @@
         <v>25</v>
       </c>
       <c r="U86" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="W86" t="s">
         <v>485</v>
@@ -8262,70 +8259,70 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B87" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C87">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="E87" t="s">
         <v>411</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H87" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L87" t="s">
-        <v>144</v>
+        <v>500</v>
       </c>
       <c r="M87" t="s">
         <v>571</v>
       </c>
       <c r="N87" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O87" t="s">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="P87" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="Q87" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="S87" t="s">
         <v>25</v>
       </c>
       <c r="U87" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="W87" t="s">
-        <v>477</v>
-      </c>
-      <c r="X87" t="s">
         <v>485</v>
       </c>
-      <c r="Z87" t="s">
-        <v>504</v>
+      <c r="Y87" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>499</v>
       </c>
       <c r="AC87" t="s">
-        <v>487</v>
+        <v>47</v>
       </c>
       <c r="AD87" t="s">
         <v>25</v>
@@ -8333,138 +8330,135 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C88">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>507</v>
+        <v>111</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F88" t="s">
-        <v>73</v>
+        <v>568</v>
       </c>
       <c r="G88" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H88" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="J88" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K88" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="L88" t="s">
-        <v>493</v>
+        <v>144</v>
       </c>
       <c r="M88" t="s">
         <v>571</v>
       </c>
       <c r="N88" t="s">
-        <v>73</v>
+        <v>586</v>
       </c>
       <c r="O88" t="s">
-        <v>73</v>
+        <v>595</v>
       </c>
       <c r="P88" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q88" t="s">
-        <v>596</v>
+        <v>424</v>
       </c>
       <c r="S88" t="s">
         <v>25</v>
       </c>
       <c r="U88" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>509</v>
+        <v>91</v>
+      </c>
+      <c r="W88" t="s">
+        <v>477</v>
+      </c>
+      <c r="X88" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>504</v>
       </c>
       <c r="AC88" t="s">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="AD88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C89">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F89" t="s">
-        <v>561</v>
+        <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H89" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="J89" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="K89" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M89" t="s">
         <v>571</v>
       </c>
       <c r="N89" t="s">
-        <v>581</v>
+        <v>73</v>
       </c>
       <c r="O89" t="s">
-        <v>513</v>
+        <v>73</v>
       </c>
       <c r="P89" t="s">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Q89" t="s">
-        <v>325</v>
+        <v>596</v>
       </c>
       <c r="S89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U89" t="s">
-        <v>91</v>
-      </c>
-      <c r="W89" t="s">
-        <v>477</v>
+        <v>138</v>
       </c>
       <c r="Y89" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AB89" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="AC89" t="s">
         <v>47</v>
@@ -8499,13 +8493,13 @@
         <v>560</v>
       </c>
       <c r="J90" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M90" t="s">
         <v>571</v>
@@ -8547,39 +8541,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="C91">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D91" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="E91" t="s">
         <v>411</v>
       </c>
       <c r="F91" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="G91" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="H91" t="s">
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="J91" t="s">
         <v>413</v>
       </c>
       <c r="K91" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>131</v>
+        <v>499</v>
       </c>
       <c r="M91" t="s">
         <v>571</v>
@@ -8588,43 +8582,40 @@
         <v>581</v>
       </c>
       <c r="O91" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
       <c r="P91" t="s">
         <v>420</v>
       </c>
       <c r="Q91" t="s">
-        <v>594</v>
-      </c>
-      <c r="R91" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="S91" t="s">
         <v>26</v>
       </c>
-      <c r="T91" t="s">
-        <v>437</v>
-      </c>
       <c r="U91" t="s">
-        <v>236</v>
-      </c>
-      <c r="V91" t="s">
-        <v>523</v>
+        <v>91</v>
+      </c>
+      <c r="W91" t="s">
+        <v>477</v>
       </c>
       <c r="Y91" t="s">
-        <v>438</v>
+        <v>460</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>514</v>
       </c>
       <c r="AB91" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="AC91" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="AD91" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>502</v>
       </c>
@@ -8650,13 +8641,13 @@
         <v>430</v>
       </c>
       <c r="J92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K92" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L92" t="s">
-        <v>425</v>
+        <v>131</v>
       </c>
       <c r="M92" t="s">
         <v>571</v>
@@ -8688,6 +8679,12 @@
       <c r="V92" t="s">
         <v>523</v>
       </c>
+      <c r="Y92" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>441</v>
+      </c>
       <c r="AC92" t="s">
         <v>439</v>
       </c>
@@ -8695,39 +8692,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B93" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C93">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>427</v>
       </c>
       <c r="E93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F93" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
+        <v>570</v>
       </c>
       <c r="H93" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J93" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K93" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M93" t="s">
         <v>571</v>
@@ -8736,25 +8733,34 @@
         <v>581</v>
       </c>
       <c r="O93" t="s">
-        <v>73</v>
+        <v>583</v>
       </c>
       <c r="P93" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="Q93" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="R93" t="s">
+        <v>440</v>
       </c>
       <c r="S93" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="T93" t="s">
+        <v>437</v>
       </c>
       <c r="U93" t="s">
-        <v>138</v>
-      </c>
-      <c r="W93" t="s">
-        <v>444</v>
+        <v>236</v>
+      </c>
+      <c r="V93" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>439</v>
       </c>
       <c r="AD93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
@@ -8783,13 +8789,13 @@
         <v>434</v>
       </c>
       <c r="J94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K94" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="L94" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="M94" t="s">
         <v>571</v>
@@ -8812,111 +8818,105 @@
       <c r="U94" t="s">
         <v>138</v>
       </c>
+      <c r="W94" t="s">
+        <v>444</v>
+      </c>
       <c r="AD94" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C95">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D95" t="s">
-        <v>445</v>
+        <v>58</v>
       </c>
       <c r="E95" t="s">
         <v>410</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="G95" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H95" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J95" t="s">
         <v>415</v>
       </c>
       <c r="K95" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="L95" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="M95" t="s">
         <v>571</v>
       </c>
       <c r="N95" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O95" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="P95" t="s">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="Q95" t="s">
         <v>593</v>
       </c>
       <c r="S95" t="s">
-        <v>26</v>
-      </c>
-      <c r="T95" t="s">
-        <v>447</v>
+        <v>25</v>
       </c>
       <c r="U95" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="AD95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B96" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C96">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D96" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H96" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="J96" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K96" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="L96" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="M96" t="s">
         <v>571</v>
@@ -8925,37 +8925,25 @@
         <v>584</v>
       </c>
       <c r="O96" t="s">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="P96" t="s">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Q96" t="s">
-        <v>594</v>
-      </c>
-      <c r="R96" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="S96" t="s">
         <v>26</v>
       </c>
       <c r="T96" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="U96" t="s">
         <v>236</v>
       </c>
-      <c r="V96" t="s">
-        <v>523</v>
-      </c>
-      <c r="X96" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>518</v>
-      </c>
       <c r="AB96" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
       <c r="AC96" t="s">
         <v>47</v>
@@ -8993,16 +8981,16 @@
         <v>413</v>
       </c>
       <c r="K97" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="L97" t="s">
-        <v>417</v>
+        <v>203</v>
       </c>
       <c r="M97" t="s">
         <v>571</v>
       </c>
       <c r="N97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O97" t="s">
         <v>407</v>
@@ -9044,14 +9032,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F98" s="5"/>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>515</v>
+      </c>
+      <c r="B98" t="s">
+        <v>449</v>
+      </c>
+      <c r="C98">
+        <v>2015</v>
+      </c>
+      <c r="D98" t="s">
+        <v>450</v>
+      </c>
+      <c r="E98" t="s">
+        <v>411</v>
+      </c>
+      <c r="F98" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" t="s">
+        <v>451</v>
+      </c>
+      <c r="H98" t="s">
+        <v>453</v>
+      </c>
+      <c r="J98" t="s">
+        <v>413</v>
+      </c>
+      <c r="K98" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" t="s">
+        <v>417</v>
+      </c>
+      <c r="M98" t="s">
+        <v>571</v>
+      </c>
+      <c r="N98" t="s">
+        <v>585</v>
+      </c>
+      <c r="O98" t="s">
+        <v>407</v>
+      </c>
+      <c r="P98" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>594</v>
+      </c>
+      <c r="R98" t="s">
+        <v>521</v>
+      </c>
+      <c r="S98" t="s">
+        <v>26</v>
+      </c>
+      <c r="T98" t="s">
+        <v>522</v>
+      </c>
+      <c r="U98" t="s">
+        <v>236</v>
+      </c>
+      <c r="V98" t="s">
+        <v>523</v>
+      </c>
+      <c r="X98" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="99" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F101" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9063,10 +9131,10 @@
     <hyperlink ref="G28" r:id="rId6"/>
     <hyperlink ref="G36" r:id="rId7"/>
     <hyperlink ref="G43" r:id="rId8" location=".U7ufcvl_tUU"/>
-    <hyperlink ref="G69" r:id="rId9"/>
-    <hyperlink ref="G58" r:id="rId10"/>
-    <hyperlink ref="F96" r:id="rId11" display="http://www.tandfonline.com/keyword/volunteered geographic information /(VGI/)"/>
-    <hyperlink ref="F97" r:id="rId12" display="http://www.tandfonline.com/keyword/volunteered geographic information /(VGI/)"/>
+    <hyperlink ref="G70" r:id="rId9"/>
+    <hyperlink ref="G59" r:id="rId10"/>
+    <hyperlink ref="F97" r:id="rId11" display="http://www.tandfonline.com/keyword/volunteered geographic information /(VGI/)"/>
+    <hyperlink ref="F98" r:id="rId12" display="http://www.tandfonline.com/keyword/volunteered geographic information /(VGI/)"/>
     <hyperlink ref="G4" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="600">
   <si>
     <t>p.id</t>
   </si>
@@ -1264,9 +1264,6 @@
   </si>
   <si>
     <t>human-centric</t>
-  </si>
-  <si>
-    <t>crisis-centric</t>
   </si>
   <si>
     <t>location selection and classification</t>
@@ -2453,10 +2450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,10 +2504,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
@@ -2525,13 +2522,13 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
-        <v>423</v>
-      </c>
       <c r="O1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -2602,7 +2599,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J2" t="s">
         <v>413</v>
@@ -2611,13 +2608,13 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O2" t="s">
         <v>407</v>
@@ -2670,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J3" t="s">
         <v>414</v>
@@ -2682,10 +2679,10 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O3" t="s">
         <v>407</v>
@@ -2735,10 +2732,10 @@
         <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H4" t="s">
         <v>525</v>
-      </c>
-      <c r="H4" t="s">
-        <v>526</v>
       </c>
       <c r="J4" t="s">
         <v>414</v>
@@ -2750,16 +2747,16 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q4" t="s">
         <v>44</v>
@@ -2818,7 +2815,7 @@
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -2874,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K6" t="s">
         <v>62</v>
@@ -2883,7 +2880,7 @@
         <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2942,10 +2939,10 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O7" t="s">
         <v>70</v>
@@ -2989,19 +2986,19 @@
         <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O8" t="s">
         <v>180</v>
@@ -3054,7 +3051,7 @@
         <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J9" t="s">
         <v>413</v>
@@ -3063,10 +3060,10 @@
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -3125,7 +3122,7 @@
         <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3134,10 +3131,10 @@
         <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R10" t="s">
         <v>45</v>
@@ -3187,19 +3184,19 @@
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O11" t="s">
         <v>179</v>
       </c>
       <c r="P11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
@@ -3252,16 +3249,16 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O12" t="s">
         <v>179</v>
       </c>
       <c r="P12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
@@ -3305,7 +3302,7 @@
         <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
@@ -3314,16 +3311,16 @@
         <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O13" t="s">
         <v>179</v>
       </c>
       <c r="P13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q13" t="s">
         <v>30</v>
@@ -3367,7 +3364,7 @@
         <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
@@ -3376,10 +3373,10 @@
         <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O14" t="s">
         <v>114</v>
@@ -3388,7 +3385,7 @@
         <v>61</v>
       </c>
       <c r="Q14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S14" t="s">
         <v>25</v>
@@ -3429,7 +3426,7 @@
         <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K15" t="s">
         <v>62</v>
@@ -3438,10 +3435,10 @@
         <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -3506,10 +3503,10 @@
         <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O16" t="s">
         <v>73</v>
@@ -3556,10 +3553,10 @@
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J17" t="s">
         <v>413</v>
@@ -3568,13 +3565,13 @@
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
@@ -3621,10 +3618,10 @@
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J18" t="s">
         <v>413</v>
@@ -3636,10 +3633,10 @@
         <v>131</v>
       </c>
       <c r="M18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O18" t="s">
         <v>126</v>
@@ -3686,13 +3683,13 @@
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J19" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -3701,10 +3698,10 @@
         <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O19" t="s">
         <v>126</v>
@@ -3751,7 +3748,7 @@
         <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J20" t="s">
         <v>413</v>
@@ -3763,10 +3760,10 @@
         <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
@@ -3775,7 +3772,7 @@
         <v>136</v>
       </c>
       <c r="Q20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R20" t="s">
         <v>137</v>
@@ -3819,7 +3816,7 @@
         <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J21" t="s">
         <v>413</v>
@@ -3831,10 +3828,10 @@
         <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
@@ -3843,7 +3840,7 @@
         <v>136</v>
       </c>
       <c r="Q21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R21" t="s">
         <v>137</v>
@@ -3893,16 +3890,16 @@
         <v>154</v>
       </c>
       <c r="M22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O22" t="s">
         <v>151</v>
       </c>
       <c r="P22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q22" t="s">
         <v>73</v>
@@ -3949,7 +3946,7 @@
         <v>148</v>
       </c>
       <c r="J23" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K23" t="s">
         <v>62</v>
@@ -3958,16 +3955,16 @@
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O23" t="s">
         <v>151</v>
       </c>
       <c r="P23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q23" t="s">
         <v>73</v>
@@ -4011,16 +4008,16 @@
         <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I24" t="s">
         <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K24" t="s">
         <v>158</v>
@@ -4029,10 +4026,10 @@
         <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -4088,7 +4085,7 @@
         <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N25" t="s">
         <v>73</v>
@@ -4144,7 +4141,7 @@
         <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K26" t="s">
         <v>158</v>
@@ -4153,16 +4150,16 @@
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q26" t="s">
         <v>30</v>
@@ -4218,16 +4215,16 @@
         <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M27" t="s">
+        <v>572</v>
+      </c>
+      <c r="N27" t="s">
+        <v>587</v>
+      </c>
+      <c r="O27" t="s">
         <v>573</v>
-      </c>
-      <c r="N27" t="s">
-        <v>588</v>
-      </c>
-      <c r="O27" t="s">
-        <v>574</v>
       </c>
       <c r="P27" t="s">
         <v>127</v>
@@ -4283,16 +4280,16 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M28" t="s">
+        <v>572</v>
+      </c>
+      <c r="N28" t="s">
+        <v>587</v>
+      </c>
+      <c r="O28" t="s">
         <v>573</v>
-      </c>
-      <c r="N28" t="s">
-        <v>588</v>
-      </c>
-      <c r="O28" t="s">
-        <v>574</v>
       </c>
       <c r="P28" t="s">
         <v>127</v>
@@ -4354,16 +4351,16 @@
         <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
@@ -4422,7 +4419,7 @@
         <v>203</v>
       </c>
       <c r="M30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N30" t="s">
         <v>73</v>
@@ -4481,7 +4478,7 @@
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M31" t="s">
         <v>73</v>
@@ -4617,10 +4614,10 @@
         <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N33" t="s">
         <v>73</v>
@@ -4685,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="M34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N34" t="s">
         <v>73</v>
@@ -4750,7 +4747,7 @@
         <v>227</v>
       </c>
       <c r="M35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N35" t="s">
         <v>73</v>
@@ -4812,10 +4809,10 @@
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N36" t="s">
         <v>73</v>
@@ -4883,7 +4880,7 @@
         <v>97</v>
       </c>
       <c r="M37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N37" t="s">
         <v>73</v>
@@ -4951,7 +4948,7 @@
         <v>131</v>
       </c>
       <c r="M38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N38" t="s">
         <v>73</v>
@@ -5016,10 +5013,10 @@
         <v>246</v>
       </c>
       <c r="M39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O39" t="s">
         <v>247</v>
@@ -5075,10 +5072,10 @@
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N40" t="s">
         <v>255</v>
@@ -5134,7 +5131,7 @@
         <v>252</v>
       </c>
       <c r="J41" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K41" t="s">
         <v>251</v>
@@ -5143,7 +5140,7 @@
         <v>254</v>
       </c>
       <c r="M41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N41" t="s">
         <v>255</v>
@@ -5208,10 +5205,10 @@
         <v>203</v>
       </c>
       <c r="M42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O42" t="s">
         <v>73</v>
@@ -5270,10 +5267,10 @@
         <v>268</v>
       </c>
       <c r="M43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O43" t="s">
         <v>73</v>
@@ -5282,7 +5279,7 @@
         <v>61</v>
       </c>
       <c r="Q43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S43" t="s">
         <v>25</v>
@@ -5326,13 +5323,13 @@
         <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O44" t="s">
         <v>408</v>
@@ -5394,10 +5391,10 @@
         <v>246</v>
       </c>
       <c r="M45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O45" t="s">
         <v>408</v>
@@ -5462,7 +5459,7 @@
         <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N46" t="s">
         <v>73</v>
@@ -5521,13 +5518,13 @@
         <v>73</v>
       </c>
       <c r="G47" t="s">
+        <v>531</v>
+      </c>
+      <c r="H47" t="s">
         <v>532</v>
       </c>
-      <c r="H47" t="s">
-        <v>533</v>
-      </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K47" t="s">
         <v>158</v>
@@ -5536,10 +5533,10 @@
         <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O47" t="s">
         <v>290</v>
@@ -5592,10 +5589,10 @@
         <v>73</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J48" t="s">
         <v>413</v>
@@ -5607,7 +5604,7 @@
         <v>212</v>
       </c>
       <c r="M48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N48" t="s">
         <v>255</v>
@@ -5616,7 +5613,7 @@
         <v>295</v>
       </c>
       <c r="P48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q48" t="s">
         <v>30</v>
@@ -5660,13 +5657,13 @@
         <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
         <v>251</v>
@@ -5675,7 +5672,7 @@
         <v>254</v>
       </c>
       <c r="M49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N49" t="s">
         <v>255</v>
@@ -5684,7 +5681,7 @@
         <v>295</v>
       </c>
       <c r="P49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q49" t="s">
         <v>30</v>
@@ -5728,10 +5725,10 @@
         <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H50" t="s">
         <v>536</v>
-      </c>
-      <c r="H50" t="s">
-        <v>537</v>
       </c>
       <c r="J50" t="s">
         <v>413</v>
@@ -5740,13 +5737,13 @@
         <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O50" t="s">
         <v>300</v>
@@ -5811,7 +5808,7 @@
         <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s">
         <v>73</v>
@@ -5947,10 +5944,10 @@
         <v>227</v>
       </c>
       <c r="M53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O53" t="s">
         <v>318</v>
@@ -6015,10 +6012,10 @@
         <v>103</v>
       </c>
       <c r="M54" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O54" t="s">
         <v>318</v>
@@ -6083,13 +6080,13 @@
         <v>246</v>
       </c>
       <c r="M55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N55" t="s">
+        <v>576</v>
+      </c>
+      <c r="O55" t="s">
         <v>577</v>
-      </c>
-      <c r="O55" t="s">
-        <v>578</v>
       </c>
       <c r="P55" t="s">
         <v>73</v>
@@ -6151,13 +6148,13 @@
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O56" t="s">
         <v>73</v>
@@ -6231,10 +6228,10 @@
         <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O57" t="s">
         <v>73</v>
@@ -6305,10 +6302,10 @@
         <v>343</v>
       </c>
       <c r="M58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N58" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O58" t="s">
         <v>73</v>
@@ -6379,10 +6376,10 @@
         <v>143</v>
       </c>
       <c r="M59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O59" t="s">
         <v>73</v>
@@ -6447,13 +6444,13 @@
         <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O60" t="s">
         <v>346</v>
@@ -6521,10 +6518,10 @@
         <v>227</v>
       </c>
       <c r="M61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O61" t="s">
         <v>346</v>
@@ -6589,13 +6586,13 @@
         <v>28</v>
       </c>
       <c r="L62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O62" t="s">
         <v>73</v>
@@ -6657,10 +6654,10 @@
         <v>212</v>
       </c>
       <c r="M63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O63" t="s">
         <v>73</v>
@@ -6722,10 +6719,10 @@
         <v>193</v>
       </c>
       <c r="M64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O64" t="s">
         <v>73</v>
@@ -6775,10 +6772,10 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I65" t="s">
         <v>368</v>
@@ -6790,10 +6787,10 @@
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N65" t="s">
         <v>73</v>
@@ -6802,13 +6799,13 @@
         <v>73</v>
       </c>
       <c r="P65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R65" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S65" t="s">
         <v>25</v>
@@ -6846,10 +6843,10 @@
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I66" t="s">
         <v>368</v>
@@ -6864,7 +6861,7 @@
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N66" t="s">
         <v>73</v>
@@ -6873,13 +6870,13 @@
         <v>73</v>
       </c>
       <c r="P66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S66" t="s">
         <v>25</v>
@@ -6917,10 +6914,10 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I67" t="s">
         <v>368</v>
@@ -6935,7 +6932,7 @@
         <v>356</v>
       </c>
       <c r="M67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N67" t="s">
         <v>73</v>
@@ -6944,13 +6941,13 @@
         <v>73</v>
       </c>
       <c r="P67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S67" t="s">
         <v>25</v>
@@ -6985,16 +6982,16 @@
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I68" t="s">
         <v>368</v>
       </c>
       <c r="J68" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K68" t="s">
         <v>158</v>
@@ -7003,7 +7000,7 @@
         <v>373</v>
       </c>
       <c r="M68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N68" t="s">
         <v>73</v>
@@ -7012,13 +7009,13 @@
         <v>73</v>
       </c>
       <c r="P68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q68" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S68" t="s">
         <v>25</v>
@@ -7044,7 +7041,7 @@
         <v>2010</v>
       </c>
       <c r="D69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E69" t="s">
         <v>411</v>
@@ -7053,10 +7050,10 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H69" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I69" t="s">
         <v>376</v>
@@ -7071,10 +7068,10 @@
         <v>381</v>
       </c>
       <c r="M69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O69" t="s">
         <v>380</v>
@@ -7083,10 +7080,10 @@
         <v>73</v>
       </c>
       <c r="Q69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R69" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S69" t="s">
         <v>26</v>
@@ -7142,16 +7139,16 @@
         <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P70" t="s">
         <v>73</v>
@@ -7201,7 +7198,7 @@
         <v>386</v>
       </c>
       <c r="J71" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s">
         <v>406</v>
@@ -7210,13 +7207,13 @@
         <v>389</v>
       </c>
       <c r="M71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P71" t="s">
         <v>73</v>
@@ -7278,10 +7275,10 @@
         <v>399</v>
       </c>
       <c r="M72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N72" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O72" t="s">
         <v>43</v>
@@ -7328,13 +7325,13 @@
         <v>73</v>
       </c>
       <c r="G73" t="s">
+        <v>541</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="J73" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K73" t="s">
         <v>82</v>
@@ -7343,16 +7340,16 @@
         <v>108</v>
       </c>
       <c r="M73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N73" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O73" t="s">
         <v>323</v>
       </c>
       <c r="P73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q73" t="s">
         <v>30</v>
@@ -7381,16 +7378,16 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" t="s">
         <v>454</v>
-      </c>
-      <c r="B74" t="s">
-        <v>455</v>
       </c>
       <c r="C74">
         <v>2010</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E74" t="s">
         <v>411</v>
@@ -7399,43 +7396,43 @@
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K74" t="s">
         <v>82</v>
       </c>
       <c r="L74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N74" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P74" t="s">
         <v>61</v>
       </c>
       <c r="Q74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U74" t="s">
         <v>236</v>
       </c>
       <c r="Y74" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB74" t="s">
         <v>460</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>461</v>
       </c>
       <c r="AC74" t="s">
         <v>47</v>
@@ -7446,16 +7443,16 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>453</v>
+      </c>
+      <c r="B75" t="s">
         <v>454</v>
-      </c>
-      <c r="B75" t="s">
-        <v>455</v>
       </c>
       <c r="C75">
         <v>2010</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E75" t="s">
         <v>411</v>
@@ -7464,13 +7461,13 @@
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J75" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s">
         <v>62</v>
@@ -7479,28 +7476,28 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P75" t="s">
         <v>61</v>
       </c>
       <c r="Q75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U75" t="s">
         <v>236</v>
       </c>
       <c r="Y75" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB75" t="s">
         <v>460</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>461</v>
       </c>
       <c r="AC75" t="s">
         <v>47</v>
@@ -7511,16 +7508,16 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C76">
         <v>2012</v>
       </c>
       <c r="D76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E76" t="s">
         <v>411</v>
@@ -7529,13 +7526,13 @@
         <v>73</v>
       </c>
       <c r="G76" t="s">
+        <v>545</v>
+      </c>
+      <c r="H76" t="s">
         <v>546</v>
       </c>
-      <c r="H76" t="s">
-        <v>547</v>
-      </c>
       <c r="J76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K76" t="s">
         <v>62</v>
@@ -7544,19 +7541,19 @@
         <v>63</v>
       </c>
       <c r="M76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P76" t="s">
         <v>136</v>
       </c>
       <c r="Q76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R76" t="s">
         <v>137</v>
@@ -7568,7 +7565,7 @@
         <v>284</v>
       </c>
       <c r="Z76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AC76" t="s">
         <v>47</v>
@@ -7579,10 +7576,10 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -7597,13 +7594,13 @@
         <v>73</v>
       </c>
       <c r="G77" t="s">
+        <v>547</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="J77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K77" t="s">
         <v>82</v>
@@ -7612,13 +7609,13 @@
         <v>193</v>
       </c>
       <c r="M77" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P77" t="s">
         <v>73</v>
@@ -7630,10 +7627,10 @@
         <v>138</v>
       </c>
       <c r="W77" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB77" t="s">
         <v>472</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>473</v>
       </c>
       <c r="AC77" t="s">
         <v>47</v>
@@ -7644,10 +7641,10 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C78">
         <v>2013</v>
@@ -7659,13 +7656,13 @@
         <v>411</v>
       </c>
       <c r="F78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G78" t="s">
+        <v>549</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="J78" t="s">
         <v>413</v>
@@ -7677,19 +7674,19 @@
         <v>108</v>
       </c>
       <c r="M78" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N78" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O78" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P78" t="s">
         <v>61</v>
       </c>
       <c r="Q78" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S78" t="s">
         <v>25</v>
@@ -7698,13 +7695,13 @@
         <v>284</v>
       </c>
       <c r="W78" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA78" t="s">
         <v>477</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>478</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>479</v>
       </c>
       <c r="AC78" t="s">
         <v>47</v>
@@ -7715,10 +7712,10 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C79">
         <v>2013</v>
@@ -7730,13 +7727,13 @@
         <v>411</v>
       </c>
       <c r="F79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G79" t="s">
+        <v>549</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="J79" t="s">
         <v>414</v>
@@ -7745,22 +7742,22 @@
         <v>226</v>
       </c>
       <c r="L79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N79" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P79" t="s">
         <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
@@ -7769,13 +7766,13 @@
         <v>284</v>
       </c>
       <c r="W79" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA79" t="s">
         <v>477</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AB79" t="s">
         <v>478</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>479</v>
       </c>
       <c r="AC79" t="s">
         <v>47</v>
@@ -7786,10 +7783,10 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C80">
         <v>2014</v>
@@ -7801,13 +7798,13 @@
         <v>411</v>
       </c>
       <c r="F80" t="s">
+        <v>553</v>
+      </c>
+      <c r="G80" t="s">
         <v>554</v>
       </c>
-      <c r="G80" t="s">
-        <v>555</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J80" t="s">
         <v>413</v>
@@ -7816,22 +7813,22 @@
         <v>142</v>
       </c>
       <c r="L80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P80" t="s">
         <v>136</v>
       </c>
       <c r="Q80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R80" t="s">
         <v>137</v>
@@ -7843,13 +7840,13 @@
         <v>91</v>
       </c>
       <c r="W80" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z80" t="s">
         <v>485</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AC80" t="s">
         <v>486</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>487</v>
       </c>
       <c r="AD80" t="s">
         <v>25</v>
@@ -7857,10 +7854,10 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C81">
         <v>2015</v>
@@ -7872,13 +7869,13 @@
         <v>411</v>
       </c>
       <c r="F81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G81" t="s">
+        <v>555</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="J81" t="s">
         <v>413</v>
@@ -7890,16 +7887,16 @@
         <v>193</v>
       </c>
       <c r="M81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N81" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q81" t="s">
         <v>30</v>
@@ -7911,13 +7908,13 @@
         <v>91</v>
       </c>
       <c r="W81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y81" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB81" t="s">
         <v>491</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>492</v>
       </c>
       <c r="AC81" t="s">
         <v>47</v>
@@ -7928,10 +7925,10 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C82">
         <v>2015</v>
@@ -7943,13 +7940,13 @@
         <v>411</v>
       </c>
       <c r="F82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G82" t="s">
+        <v>555</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="J82" t="s">
         <v>413</v>
@@ -7961,16 +7958,16 @@
         <v>143</v>
       </c>
       <c r="M82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q82" t="s">
         <v>30</v>
@@ -7982,13 +7979,13 @@
         <v>91</v>
       </c>
       <c r="W82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y82" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB82" t="s">
         <v>491</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>492</v>
       </c>
       <c r="AC82" t="s">
         <v>47</v>
@@ -7999,10 +7996,10 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C83">
         <v>2015</v>
@@ -8014,13 +8011,13 @@
         <v>411</v>
       </c>
       <c r="F83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G83" t="s">
+        <v>555</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="J83" t="s">
         <v>413</v>
@@ -8029,19 +8026,19 @@
         <v>130</v>
       </c>
       <c r="L83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q83" t="s">
         <v>30</v>
@@ -8053,13 +8050,13 @@
         <v>91</v>
       </c>
       <c r="W83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y83" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB83" t="s">
         <v>491</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>492</v>
       </c>
       <c r="AC83" t="s">
         <v>47</v>
@@ -8070,10 +8067,10 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C84">
         <v>2010</v>
@@ -8085,13 +8082,13 @@
         <v>411</v>
       </c>
       <c r="F84" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G84" t="s">
+        <v>561</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="J84" t="s">
         <v>413</v>
@@ -8129,10 +8126,10 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C85">
         <v>2010</v>
@@ -8144,22 +8141,22 @@
         <v>411</v>
       </c>
       <c r="F85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G85" t="s">
+        <v>561</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="J85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K85" t="s">
         <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M85" t="s">
         <v>73</v>
@@ -8188,16 +8185,16 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C86">
         <v>2010</v>
       </c>
       <c r="D86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E86" t="s">
         <v>411</v>
@@ -8206,10 +8203,10 @@
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J86" t="s">
         <v>413</v>
@@ -8221,13 +8218,13 @@
         <v>343</v>
       </c>
       <c r="M86" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N86" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P86" t="s">
         <v>361</v>
@@ -8242,13 +8239,13 @@
         <v>138</v>
       </c>
       <c r="W86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y86" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB86" t="s">
         <v>498</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>499</v>
       </c>
       <c r="AC86" t="s">
         <v>47</v>
@@ -8259,16 +8256,16 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C87">
         <v>2010</v>
       </c>
       <c r="D87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E87" t="s">
         <v>411</v>
@@ -8277,28 +8274,28 @@
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K87" t="s">
         <v>82</v>
       </c>
       <c r="L87" t="s">
+        <v>499</v>
+      </c>
+      <c r="M87" t="s">
+        <v>570</v>
+      </c>
+      <c r="N87" t="s">
+        <v>580</v>
+      </c>
+      <c r="O87" t="s">
         <v>500</v>
-      </c>
-      <c r="M87" t="s">
-        <v>571</v>
-      </c>
-      <c r="N87" t="s">
-        <v>581</v>
-      </c>
-      <c r="O87" t="s">
-        <v>501</v>
       </c>
       <c r="P87" t="s">
         <v>361</v>
@@ -8313,13 +8310,13 @@
         <v>236</v>
       </c>
       <c r="W87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y87" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB87" t="s">
         <v>498</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>499</v>
       </c>
       <c r="AC87" t="s">
         <v>47</v>
@@ -8330,10 +8327,10 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C88">
         <v>2014</v>
@@ -8345,16 +8342,16 @@
         <v>411</v>
       </c>
       <c r="F88" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G88" t="s">
+        <v>565</v>
+      </c>
+      <c r="H88" t="s">
         <v>566</v>
       </c>
-      <c r="H88" t="s">
-        <v>567</v>
-      </c>
       <c r="J88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K88" t="s">
         <v>62</v>
@@ -8363,19 +8360,19 @@
         <v>144</v>
       </c>
       <c r="M88" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N88" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O88" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P88" t="s">
         <v>61</v>
       </c>
       <c r="Q88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S88" t="s">
         <v>25</v>
@@ -8384,16 +8381,16 @@
         <v>91</v>
       </c>
       <c r="W88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z88" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AC88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AD88" t="s">
         <v>25</v>
@@ -8401,16 +8398,16 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C89">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E89" t="s">
         <v>410</v>
@@ -8419,10 +8416,10 @@
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H89" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J89" t="s">
         <v>413</v>
@@ -8431,10 +8428,10 @@
         <v>130</v>
       </c>
       <c r="L89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M89" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N89" t="s">
         <v>73</v>
@@ -8446,7 +8443,7 @@
         <v>73</v>
       </c>
       <c r="Q89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S89" t="s">
         <v>25</v>
@@ -8455,10 +8452,10 @@
         <v>138</v>
       </c>
       <c r="Y89" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB89" t="s">
         <v>508</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>509</v>
       </c>
       <c r="AC89" t="s">
         <v>47</v>
@@ -8469,49 +8466,49 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C90">
         <v>2013</v>
       </c>
       <c r="D90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E90" t="s">
         <v>411</v>
       </c>
       <c r="F90" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G90" t="s">
+        <v>558</v>
+      </c>
+      <c r="H90" t="s">
         <v>559</v>
       </c>
-      <c r="H90" t="s">
-        <v>560</v>
-      </c>
       <c r="J90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K90" t="s">
         <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N90" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q90" t="s">
         <v>325</v>
@@ -8523,16 +8520,16 @@
         <v>91</v>
       </c>
       <c r="W90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z90" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC90" t="s">
         <v>47</v>
@@ -8543,28 +8540,28 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C91">
         <v>2013</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E91" t="s">
         <v>411</v>
       </c>
       <c r="F91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G91" t="s">
+        <v>558</v>
+      </c>
+      <c r="H91" t="s">
         <v>559</v>
-      </c>
-      <c r="H91" t="s">
-        <v>560</v>
       </c>
       <c r="J91" t="s">
         <v>413</v>
@@ -8573,19 +8570,19 @@
         <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N91" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O91" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q91" t="s">
         <v>325</v>
@@ -8597,16 +8594,16 @@
         <v>91</v>
       </c>
       <c r="W91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y91" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB91" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC91" t="s">
         <v>47</v>
@@ -8617,28 +8614,28 @@
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C92">
         <v>2015</v>
       </c>
       <c r="D92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E92" t="s">
         <v>411</v>
       </c>
       <c r="F92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J92" t="s">
         <v>413</v>
@@ -8650,43 +8647,43 @@
         <v>131</v>
       </c>
       <c r="M92" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N92" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q92" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S92" t="s">
         <v>26</v>
       </c>
       <c r="T92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U92" t="s">
         <v>236</v>
       </c>
       <c r="V92" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y92" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC92" t="s">
         <v>438</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>439</v>
       </c>
       <c r="AD92" t="s">
         <v>26</v>
@@ -8694,70 +8691,70 @@
     </row>
     <row r="93" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E93" t="s">
         <v>411</v>
       </c>
       <c r="F93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H93" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J93" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K93" t="s">
         <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M93" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N93" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q93" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S93" t="s">
         <v>26</v>
       </c>
       <c r="T93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U93" t="s">
         <v>236</v>
       </c>
       <c r="V93" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AC93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AD93" t="s">
         <v>26</v>
@@ -8765,10 +8762,10 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C94">
         <v>2014</v>
@@ -8780,13 +8777,13 @@
         <v>410</v>
       </c>
       <c r="F94" t="s">
+        <v>431</v>
+      </c>
+      <c r="G94" t="s">
         <v>432</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>433</v>
-      </c>
-      <c r="H94" t="s">
-        <v>434</v>
       </c>
       <c r="J94" t="s">
         <v>413</v>
@@ -8795,22 +8792,22 @@
         <v>28</v>
       </c>
       <c r="L94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M94" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N94" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O94" t="s">
         <v>73</v>
       </c>
       <c r="P94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q94" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S94" t="s">
         <v>25</v>
@@ -8819,7 +8816,7 @@
         <v>138</v>
       </c>
       <c r="W94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AD94" t="s">
         <v>25</v>
@@ -8827,10 +8824,10 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C95">
         <v>2014</v>
@@ -8842,37 +8839,37 @@
         <v>410</v>
       </c>
       <c r="F95" t="s">
+        <v>431</v>
+      </c>
+      <c r="G95" t="s">
         <v>432</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>433</v>
       </c>
-      <c r="H95" t="s">
-        <v>434</v>
-      </c>
       <c r="J95" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K95" t="s">
         <v>158</v>
       </c>
       <c r="L95" t="s">
+        <v>441</v>
+      </c>
+      <c r="M95" t="s">
+        <v>570</v>
+      </c>
+      <c r="N95" t="s">
+        <v>580</v>
+      </c>
+      <c r="O95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" t="s">
         <v>442</v>
       </c>
-      <c r="M95" t="s">
-        <v>571</v>
-      </c>
-      <c r="N95" t="s">
-        <v>581</v>
-      </c>
-      <c r="O95" t="s">
-        <v>73</v>
-      </c>
-      <c r="P95" t="s">
-        <v>443</v>
-      </c>
       <c r="Q95" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S95" t="s">
         <v>25</v>
@@ -8886,16 +8883,16 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C96">
         <v>2013</v>
       </c>
       <c r="D96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E96" t="s">
         <v>410</v>
@@ -8904,13 +8901,13 @@
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J96" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K96" t="s">
         <v>62</v>
@@ -8919,10 +8916,10 @@
         <v>63</v>
       </c>
       <c r="M96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N96" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O96" t="s">
         <v>43</v>
@@ -8931,19 +8928,19 @@
         <v>73</v>
       </c>
       <c r="Q96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S96" t="s">
         <v>26</v>
       </c>
       <c r="T96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U96" t="s">
         <v>236</v>
       </c>
       <c r="AB96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AC96" t="s">
         <v>47</v>
@@ -8954,28 +8951,28 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C97">
         <v>2015</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E97" t="s">
         <v>411</v>
       </c>
       <c r="F97" t="s">
+        <v>451</v>
+      </c>
+      <c r="G97" t="s">
+        <v>450</v>
+      </c>
+      <c r="H97" t="s">
         <v>452</v>
-      </c>
-      <c r="G97" t="s">
-        <v>451</v>
-      </c>
-      <c r="H97" t="s">
-        <v>453</v>
       </c>
       <c r="J97" t="s">
         <v>413</v>
@@ -8987,43 +8984,43 @@
         <v>203</v>
       </c>
       <c r="M97" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N97" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O97" t="s">
         <v>407</v>
       </c>
       <c r="P97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q97" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R97" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S97" t="s">
         <v>26</v>
       </c>
       <c r="T97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U97" t="s">
         <v>236</v>
       </c>
       <c r="V97" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X97" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB97" t="s">
         <v>519</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>520</v>
       </c>
       <c r="AC97" t="s">
         <v>47</v>
@@ -9034,28 +9031,28 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C98">
         <v>2015</v>
       </c>
       <c r="D98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
         <v>411</v>
       </c>
       <c r="F98" t="s">
+        <v>451</v>
+      </c>
+      <c r="G98" t="s">
+        <v>450</v>
+      </c>
+      <c r="H98" t="s">
         <v>452</v>
-      </c>
-      <c r="G98" t="s">
-        <v>451</v>
-      </c>
-      <c r="H98" t="s">
-        <v>453</v>
       </c>
       <c r="J98" t="s">
         <v>413</v>
@@ -9064,46 +9061,46 @@
         <v>28</v>
       </c>
       <c r="L98" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N98" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O98" t="s">
         <v>407</v>
       </c>
       <c r="P98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S98" t="s">
         <v>26</v>
       </c>
       <c r="T98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U98" t="s">
         <v>236</v>
       </c>
       <c r="V98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X98" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB98" t="s">
         <v>519</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>520</v>
       </c>
       <c r="AC98" t="s">
         <v>47</v>

--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -1516,9 +1516,6 @@
   </si>
   <si>
     <t>clustering</t>
-  </si>
-  <si>
-    <t>extract even-related information</t>
   </si>
   <si>
     <t>UK floods</t>
@@ -2032,6 +2029,9 @@
   </si>
   <si>
     <t>Victims, volunteers, and relief organizations are increasingly using social media to report and act on large-scale events, as witnessed in the extensive coverage of the 2010-2012 Arab Spring uprisings and 2011 Japanese tsunami and nuclear disasters. Twitter feeds consist of short messages, often in a nonstandard local language, requiring novel techniques to extract relevant situation awareness data. Existing approaches to mining social media are aimed at searching for specific information, or identifying aggregate trends, rather than providing narratives. We present CrisisTracker, an online system that in real time efficiently captures distributed situation awareness reports based on social media activity during large-scale events, such as natural disasters. CrisisTracker automatically tracks sets of keywords on Twitter and constructs stories by clustering related tweets on the basis of their lexical similarity. It integrates crowdsourcing techniques, enabling users to verify and analyze stories. We report our experiences from an 8-day CrisisTracker pilot deployment during 2012 focused on the Syrian civil war, which processed, on average, 446,000 tweets daily and reduced them to consumable stories through analytics and crowdsourcing. We discuss the effectiveness of CrisisTracker based on the usage and feedback from 48 domain experts and volunteer curators.</t>
+  </si>
+  <si>
+    <t>extract event-related information</t>
   </si>
 </sst>
 </file>
@@ -2450,10 +2450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2504,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1" t="s">
         <v>428</v>
@@ -2528,7 +2528,7 @@
         <v>422</v>
       </c>
       <c r="O1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -2599,7 +2599,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J2" t="s">
         <v>413</v>
@@ -2611,10 +2611,10 @@
         <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O2" t="s">
         <v>407</v>
@@ -2667,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J3" t="s">
         <v>414</v>
@@ -2679,10 +2679,10 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O3" t="s">
         <v>407</v>
@@ -2732,10 +2732,10 @@
         <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H4" t="s">
         <v>524</v>
-      </c>
-      <c r="H4" t="s">
-        <v>525</v>
       </c>
       <c r="J4" t="s">
         <v>414</v>
@@ -2747,10 +2747,10 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -2815,7 +2815,7 @@
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -2880,7 +2880,7 @@
         <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2939,10 +2939,10 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O7" t="s">
         <v>70</v>
@@ -2995,10 +2995,10 @@
         <v>424</v>
       </c>
       <c r="M8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O8" t="s">
         <v>180</v>
@@ -3051,7 +3051,7 @@
         <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J9" t="s">
         <v>413</v>
@@ -3063,7 +3063,7 @@
         <v>417</v>
       </c>
       <c r="M9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -3122,7 +3122,7 @@
         <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3134,7 +3134,7 @@
         <v>419</v>
       </c>
       <c r="Q10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R10" t="s">
         <v>45</v>
@@ -3187,10 +3187,10 @@
         <v>418</v>
       </c>
       <c r="M11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O11" t="s">
         <v>179</v>
@@ -3249,10 +3249,10 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O12" t="s">
         <v>179</v>
@@ -3308,13 +3308,13 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>599</v>
       </c>
       <c r="M13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O13" t="s">
         <v>179</v>
@@ -3373,10 +3373,10 @@
         <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O14" t="s">
         <v>114</v>
@@ -3435,10 +3435,10 @@
         <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -3503,10 +3503,10 @@
         <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O16" t="s">
         <v>73</v>
@@ -3553,10 +3553,10 @@
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J17" t="s">
         <v>413</v>
@@ -3568,10 +3568,10 @@
         <v>417</v>
       </c>
       <c r="M17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
@@ -3618,10 +3618,10 @@
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J18" t="s">
         <v>413</v>
@@ -3633,10 +3633,10 @@
         <v>131</v>
       </c>
       <c r="M18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O18" t="s">
         <v>126</v>
@@ -3683,10 +3683,10 @@
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J19" t="s">
         <v>456</v>
@@ -3695,13 +3695,13 @@
         <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>599</v>
       </c>
       <c r="M19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O19" t="s">
         <v>126</v>
@@ -3748,7 +3748,7 @@
         <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J20" t="s">
         <v>413</v>
@@ -3760,10 +3760,10 @@
         <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
@@ -3816,7 +3816,7 @@
         <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J21" t="s">
         <v>413</v>
@@ -3828,10 +3828,10 @@
         <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
@@ -3890,10 +3890,10 @@
         <v>154</v>
       </c>
       <c r="M22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O22" t="s">
         <v>151</v>
@@ -3955,10 +3955,10 @@
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O23" t="s">
         <v>151</v>
@@ -4008,10 +4008,10 @@
         <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I24" t="s">
         <v>161</v>
@@ -4026,10 +4026,10 @@
         <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -4085,7 +4085,7 @@
         <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N25" t="s">
         <v>73</v>
@@ -4150,10 +4150,10 @@
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
@@ -4218,13 +4218,13 @@
         <v>418</v>
       </c>
       <c r="M27" t="s">
+        <v>571</v>
+      </c>
+      <c r="N27" t="s">
+        <v>586</v>
+      </c>
+      <c r="O27" t="s">
         <v>572</v>
-      </c>
-      <c r="N27" t="s">
-        <v>587</v>
-      </c>
-      <c r="O27" t="s">
-        <v>573</v>
       </c>
       <c r="P27" t="s">
         <v>127</v>
@@ -4283,13 +4283,13 @@
         <v>415</v>
       </c>
       <c r="M28" t="s">
+        <v>571</v>
+      </c>
+      <c r="N28" t="s">
+        <v>586</v>
+      </c>
+      <c r="O28" t="s">
         <v>572</v>
-      </c>
-      <c r="N28" t="s">
-        <v>587</v>
-      </c>
-      <c r="O28" t="s">
-        <v>573</v>
       </c>
       <c r="P28" t="s">
         <v>127</v>
@@ -4351,13 +4351,13 @@
         <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P29" t="s">
         <v>419</v>
@@ -4419,7 +4419,7 @@
         <v>203</v>
       </c>
       <c r="M30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N30" t="s">
         <v>73</v>
@@ -4617,7 +4617,7 @@
         <v>415</v>
       </c>
       <c r="M33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N33" t="s">
         <v>73</v>
@@ -4682,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="M34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N34" t="s">
         <v>73</v>
@@ -4747,7 +4747,7 @@
         <v>227</v>
       </c>
       <c r="M35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N35" t="s">
         <v>73</v>
@@ -4812,7 +4812,7 @@
         <v>416</v>
       </c>
       <c r="M36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N36" t="s">
         <v>73</v>
@@ -4877,10 +4877,10 @@
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>415</v>
       </c>
       <c r="M37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N37" t="s">
         <v>73</v>
@@ -4948,7 +4948,7 @@
         <v>131</v>
       </c>
       <c r="M38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N38" t="s">
         <v>73</v>
@@ -5013,10 +5013,10 @@
         <v>246</v>
       </c>
       <c r="M39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O39" t="s">
         <v>247</v>
@@ -5075,7 +5075,7 @@
         <v>416</v>
       </c>
       <c r="M40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N40" t="s">
         <v>255</v>
@@ -5140,7 +5140,7 @@
         <v>254</v>
       </c>
       <c r="M41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N41" t="s">
         <v>255</v>
@@ -5205,10 +5205,10 @@
         <v>203</v>
       </c>
       <c r="M42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O42" t="s">
         <v>73</v>
@@ -5267,10 +5267,10 @@
         <v>268</v>
       </c>
       <c r="M43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O43" t="s">
         <v>73</v>
@@ -5279,7 +5279,7 @@
         <v>61</v>
       </c>
       <c r="Q43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S43" t="s">
         <v>25</v>
@@ -5326,10 +5326,10 @@
         <v>415</v>
       </c>
       <c r="M44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O44" t="s">
         <v>408</v>
@@ -5391,10 +5391,10 @@
         <v>246</v>
       </c>
       <c r="M45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O45" t="s">
         <v>408</v>
@@ -5459,7 +5459,7 @@
         <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N46" t="s">
         <v>73</v>
@@ -5518,10 +5518,10 @@
         <v>73</v>
       </c>
       <c r="G47" t="s">
+        <v>530</v>
+      </c>
+      <c r="H47" t="s">
         <v>531</v>
-      </c>
-      <c r="H47" t="s">
-        <v>532</v>
       </c>
       <c r="J47" t="s">
         <v>456</v>
@@ -5533,10 +5533,10 @@
         <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O47" t="s">
         <v>290</v>
@@ -5589,10 +5589,10 @@
         <v>73</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J48" t="s">
         <v>413</v>
@@ -5604,7 +5604,7 @@
         <v>212</v>
       </c>
       <c r="M48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N48" t="s">
         <v>255</v>
@@ -5657,10 +5657,10 @@
         <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J49" t="s">
         <v>456</v>
@@ -5672,7 +5672,7 @@
         <v>254</v>
       </c>
       <c r="M49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N49" t="s">
         <v>255</v>
@@ -5725,10 +5725,10 @@
         <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H50" t="s">
         <v>535</v>
-      </c>
-      <c r="H50" t="s">
-        <v>536</v>
       </c>
       <c r="J50" t="s">
         <v>413</v>
@@ -5740,10 +5740,10 @@
         <v>415</v>
       </c>
       <c r="M50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O50" t="s">
         <v>300</v>
@@ -5944,10 +5944,10 @@
         <v>227</v>
       </c>
       <c r="M53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N53" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O53" t="s">
         <v>318</v>
@@ -6012,10 +6012,10 @@
         <v>103</v>
       </c>
       <c r="M54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O54" t="s">
         <v>318</v>
@@ -6080,13 +6080,13 @@
         <v>246</v>
       </c>
       <c r="M55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N55" t="s">
+        <v>575</v>
+      </c>
+      <c r="O55" t="s">
         <v>576</v>
-      </c>
-      <c r="O55" t="s">
-        <v>577</v>
       </c>
       <c r="P55" t="s">
         <v>73</v>
@@ -6151,10 +6151,10 @@
         <v>416</v>
       </c>
       <c r="M56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O56" t="s">
         <v>73</v>
@@ -6228,10 +6228,10 @@
         <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O57" t="s">
         <v>73</v>
@@ -6302,10 +6302,10 @@
         <v>343</v>
       </c>
       <c r="M58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O58" t="s">
         <v>73</v>
@@ -6376,10 +6376,10 @@
         <v>143</v>
       </c>
       <c r="M59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O59" t="s">
         <v>73</v>
@@ -6447,10 +6447,10 @@
         <v>416</v>
       </c>
       <c r="M60" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O60" t="s">
         <v>346</v>
@@ -6518,10 +6518,10 @@
         <v>227</v>
       </c>
       <c r="M61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O61" t="s">
         <v>346</v>
@@ -6589,10 +6589,10 @@
         <v>416</v>
       </c>
       <c r="M62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O62" t="s">
         <v>73</v>
@@ -6654,10 +6654,10 @@
         <v>212</v>
       </c>
       <c r="M63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N63" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O63" t="s">
         <v>73</v>
@@ -6719,10 +6719,10 @@
         <v>193</v>
       </c>
       <c r="M64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O64" t="s">
         <v>73</v>
@@ -6772,10 +6772,10 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I65" t="s">
         <v>368</v>
@@ -6790,7 +6790,7 @@
         <v>416</v>
       </c>
       <c r="M65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N65" t="s">
         <v>73</v>
@@ -6802,10 +6802,10 @@
         <v>419</v>
       </c>
       <c r="Q65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R65" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S65" t="s">
         <v>25</v>
@@ -6843,10 +6843,10 @@
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I66" t="s">
         <v>368</v>
@@ -6861,7 +6861,7 @@
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N66" t="s">
         <v>73</v>
@@ -6873,10 +6873,10 @@
         <v>419</v>
       </c>
       <c r="Q66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S66" t="s">
         <v>25</v>
@@ -6914,10 +6914,10 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I67" t="s">
         <v>368</v>
@@ -6932,7 +6932,7 @@
         <v>356</v>
       </c>
       <c r="M67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N67" t="s">
         <v>73</v>
@@ -6944,10 +6944,10 @@
         <v>419</v>
       </c>
       <c r="Q67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R67" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S67" t="s">
         <v>25</v>
@@ -6982,10 +6982,10 @@
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H68" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I68" t="s">
         <v>368</v>
@@ -7000,7 +7000,7 @@
         <v>373</v>
       </c>
       <c r="M68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N68" t="s">
         <v>73</v>
@@ -7012,10 +7012,10 @@
         <v>419</v>
       </c>
       <c r="Q68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R68" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S68" t="s">
         <v>25</v>
@@ -7050,10 +7050,10 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I69" t="s">
         <v>376</v>
@@ -7068,10 +7068,10 @@
         <v>381</v>
       </c>
       <c r="M69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O69" t="s">
         <v>380</v>
@@ -7080,10 +7080,10 @@
         <v>73</v>
       </c>
       <c r="Q69" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R69" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S69" t="s">
         <v>26</v>
@@ -7142,13 +7142,13 @@
         <v>415</v>
       </c>
       <c r="M70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P70" t="s">
         <v>73</v>
@@ -7207,13 +7207,13 @@
         <v>389</v>
       </c>
       <c r="M71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P71" t="s">
         <v>73</v>
@@ -7275,10 +7275,10 @@
         <v>399</v>
       </c>
       <c r="M72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O72" t="s">
         <v>43</v>
@@ -7325,10 +7325,10 @@
         <v>73</v>
       </c>
       <c r="G73" t="s">
+        <v>540</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="J73" t="s">
         <v>456</v>
@@ -7337,13 +7337,13 @@
         <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>108</v>
+        <v>599</v>
       </c>
       <c r="M73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O73" t="s">
         <v>323</v>
@@ -7396,10 +7396,10 @@
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H74" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J74" t="s">
         <v>456</v>
@@ -7411,10 +7411,10 @@
         <v>424</v>
       </c>
       <c r="M74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O74" t="s">
         <v>457</v>
@@ -7461,10 +7461,10 @@
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J75" t="s">
         <v>456</v>
@@ -7476,10 +7476,10 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O75" t="s">
         <v>457</v>
@@ -7526,10 +7526,10 @@
         <v>73</v>
       </c>
       <c r="G76" t="s">
+        <v>544</v>
+      </c>
+      <c r="H76" t="s">
         <v>545</v>
-      </c>
-      <c r="H76" t="s">
-        <v>546</v>
       </c>
       <c r="J76" t="s">
         <v>456</v>
@@ -7541,13 +7541,13 @@
         <v>63</v>
       </c>
       <c r="M76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P76" t="s">
         <v>136</v>
@@ -7594,10 +7594,10 @@
         <v>73</v>
       </c>
       <c r="G77" t="s">
+        <v>546</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="J77" t="s">
         <v>456</v>
@@ -7609,10 +7609,10 @@
         <v>193</v>
       </c>
       <c r="M77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O77" t="s">
         <v>470</v>
@@ -7656,13 +7656,13 @@
         <v>411</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G78" t="s">
+        <v>548</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="J78" t="s">
         <v>413</v>
@@ -7674,10 +7674,10 @@
         <v>108</v>
       </c>
       <c r="M78" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N78" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O78" t="s">
         <v>475</v>
@@ -7686,7 +7686,7 @@
         <v>61</v>
       </c>
       <c r="Q78" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S78" t="s">
         <v>25</v>
@@ -7727,13 +7727,13 @@
         <v>411</v>
       </c>
       <c r="F79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G79" t="s">
+        <v>548</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="J79" t="s">
         <v>414</v>
@@ -7745,10 +7745,10 @@
         <v>479</v>
       </c>
       <c r="M79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O79" t="s">
         <v>475</v>
@@ -7757,7 +7757,7 @@
         <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
@@ -7798,13 +7798,13 @@
         <v>411</v>
       </c>
       <c r="F80" t="s">
+        <v>552</v>
+      </c>
+      <c r="G80" t="s">
         <v>553</v>
       </c>
-      <c r="G80" t="s">
-        <v>554</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J80" t="s">
         <v>413</v>
@@ -7816,13 +7816,13 @@
         <v>483</v>
       </c>
       <c r="M80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P80" t="s">
         <v>136</v>
@@ -7869,13 +7869,13 @@
         <v>411</v>
       </c>
       <c r="F81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G81" t="s">
+        <v>554</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="J81" t="s">
         <v>413</v>
@@ -7887,10 +7887,10 @@
         <v>193</v>
       </c>
       <c r="M81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N81" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O81" t="s">
         <v>489</v>
@@ -7940,13 +7940,13 @@
         <v>411</v>
       </c>
       <c r="F82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G82" t="s">
+        <v>554</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="J82" t="s">
         <v>413</v>
@@ -7958,10 +7958,10 @@
         <v>143</v>
       </c>
       <c r="M82" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O82" t="s">
         <v>489</v>
@@ -8011,13 +8011,13 @@
         <v>411</v>
       </c>
       <c r="F83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G83" t="s">
+        <v>554</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="J83" t="s">
         <v>413</v>
@@ -8029,10 +8029,10 @@
         <v>492</v>
       </c>
       <c r="M83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O83" t="s">
         <v>489</v>
@@ -8082,13 +8082,13 @@
         <v>411</v>
       </c>
       <c r="F84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G84" t="s">
+        <v>560</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="J84" t="s">
         <v>413</v>
@@ -8141,13 +8141,13 @@
         <v>411</v>
       </c>
       <c r="F85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G85" t="s">
+        <v>560</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="J85" t="s">
         <v>456</v>
@@ -8203,10 +8203,10 @@
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H86" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J86" t="s">
         <v>413</v>
@@ -8218,13 +8218,13 @@
         <v>343</v>
       </c>
       <c r="M86" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P86" t="s">
         <v>361</v>
@@ -8274,10 +8274,10 @@
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H87" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J87" t="s">
         <v>456</v>
@@ -8286,16 +8286,16 @@
         <v>82</v>
       </c>
       <c r="L87" t="s">
+        <v>599</v>
+      </c>
+      <c r="M87" t="s">
+        <v>569</v>
+      </c>
+      <c r="N87" t="s">
+        <v>579</v>
+      </c>
+      <c r="O87" t="s">
         <v>499</v>
-      </c>
-      <c r="M87" t="s">
-        <v>570</v>
-      </c>
-      <c r="N87" t="s">
-        <v>580</v>
-      </c>
-      <c r="O87" t="s">
-        <v>500</v>
       </c>
       <c r="P87" t="s">
         <v>361</v>
@@ -8330,7 +8330,7 @@
         <v>487</v>
       </c>
       <c r="B88" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C88">
         <v>2014</v>
@@ -8342,13 +8342,13 @@
         <v>411</v>
       </c>
       <c r="F88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G88" t="s">
+        <v>564</v>
+      </c>
+      <c r="H88" t="s">
         <v>565</v>
-      </c>
-      <c r="H88" t="s">
-        <v>566</v>
       </c>
       <c r="J88" t="s">
         <v>456</v>
@@ -8360,13 +8360,13 @@
         <v>144</v>
       </c>
       <c r="M88" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N88" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P88" t="s">
         <v>61</v>
@@ -8387,7 +8387,7 @@
         <v>484</v>
       </c>
       <c r="Z88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AC88" t="s">
         <v>486</v>
@@ -8401,13 +8401,13 @@
         <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C89">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E89" t="s">
         <v>410</v>
@@ -8416,10 +8416,10 @@
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J89" t="s">
         <v>413</v>
@@ -8431,7 +8431,7 @@
         <v>492</v>
       </c>
       <c r="M89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N89" t="s">
         <v>73</v>
@@ -8443,7 +8443,7 @@
         <v>73</v>
       </c>
       <c r="Q89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S89" t="s">
         <v>25</v>
@@ -8452,10 +8452,10 @@
         <v>138</v>
       </c>
       <c r="Y89" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB89" t="s">
         <v>507</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>508</v>
       </c>
       <c r="AC89" t="s">
         <v>47</v>
@@ -8469,25 +8469,25 @@
         <v>495</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C90">
         <v>2013</v>
       </c>
       <c r="D90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E90" t="s">
         <v>411</v>
       </c>
       <c r="F90" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G90" t="s">
+        <v>557</v>
+      </c>
+      <c r="H90" t="s">
         <v>558</v>
-      </c>
-      <c r="H90" t="s">
-        <v>559</v>
       </c>
       <c r="J90" t="s">
         <v>456</v>
@@ -8496,16 +8496,16 @@
         <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="M90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P90" t="s">
         <v>419</v>
@@ -8526,7 +8526,7 @@
         <v>459</v>
       </c>
       <c r="Z90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB90" t="s">
         <v>498</v>
@@ -8543,25 +8543,25 @@
         <v>495</v>
       </c>
       <c r="B91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C91">
         <v>2013</v>
       </c>
       <c r="D91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E91" t="s">
         <v>411</v>
       </c>
       <c r="F91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G91" t="s">
+        <v>557</v>
+      </c>
+      <c r="H91" t="s">
         <v>558</v>
-      </c>
-      <c r="H91" t="s">
-        <v>559</v>
       </c>
       <c r="J91" t="s">
         <v>413</v>
@@ -8573,13 +8573,13 @@
         <v>498</v>
       </c>
       <c r="M91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O91" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P91" t="s">
         <v>419</v>
@@ -8600,7 +8600,7 @@
         <v>459</v>
       </c>
       <c r="Z91" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB91" t="s">
         <v>498</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s">
         <v>425</v>
@@ -8632,7 +8632,7 @@
         <v>427</v>
       </c>
       <c r="G92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H92" t="s">
         <v>429</v>
@@ -8647,19 +8647,19 @@
         <v>131</v>
       </c>
       <c r="M92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N92" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P92" t="s">
         <v>419</v>
       </c>
       <c r="Q92" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R92" t="s">
         <v>439</v>
@@ -8674,7 +8674,7 @@
         <v>236</v>
       </c>
       <c r="V92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y92" t="s">
         <v>437</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="93" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B93" t="s">
         <v>425</v>
@@ -8709,7 +8709,7 @@
         <v>427</v>
       </c>
       <c r="G93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H93" t="s">
         <v>429</v>
@@ -8724,19 +8724,19 @@
         <v>424</v>
       </c>
       <c r="M93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N93" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O93" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P93" t="s">
         <v>419</v>
       </c>
       <c r="Q93" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R93" t="s">
         <v>439</v>
@@ -8751,7 +8751,7 @@
         <v>236</v>
       </c>
       <c r="V93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AC93" t="s">
         <v>438</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B94" t="s">
         <v>430</v>
@@ -8795,10 +8795,10 @@
         <v>416</v>
       </c>
       <c r="M94" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O94" t="s">
         <v>73</v>
@@ -8807,7 +8807,7 @@
         <v>442</v>
       </c>
       <c r="Q94" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S94" t="s">
         <v>25</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B95" t="s">
         <v>430</v>
@@ -8857,10 +8857,10 @@
         <v>441</v>
       </c>
       <c r="M95" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N95" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O95" t="s">
         <v>73</v>
@@ -8869,7 +8869,7 @@
         <v>442</v>
       </c>
       <c r="Q95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S95" t="s">
         <v>25</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" t="s">
         <v>434</v>
@@ -8916,10 +8916,10 @@
         <v>63</v>
       </c>
       <c r="M96" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O96" t="s">
         <v>43</v>
@@ -8928,7 +8928,7 @@
         <v>73</v>
       </c>
       <c r="Q96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S96" t="s">
         <v>26</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B97" t="s">
         <v>448</v>
@@ -8984,10 +8984,10 @@
         <v>203</v>
       </c>
       <c r="M97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O97" t="s">
         <v>407</v>
@@ -8996,31 +8996,31 @@
         <v>419</v>
       </c>
       <c r="Q97" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R97" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S97" t="s">
         <v>26</v>
       </c>
       <c r="T97" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U97" t="s">
         <v>236</v>
       </c>
       <c r="V97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X97" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB97" t="s">
         <v>518</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>519</v>
       </c>
       <c r="AC97" t="s">
         <v>47</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
         <v>448</v>
@@ -9064,10 +9064,10 @@
         <v>416</v>
       </c>
       <c r="M98" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N98" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O98" t="s">
         <v>407</v>
@@ -9076,31 +9076,31 @@
         <v>419</v>
       </c>
       <c r="Q98" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S98" t="s">
         <v>26</v>
       </c>
       <c r="T98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U98" t="s">
         <v>236</v>
       </c>
       <c r="V98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X98" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB98" t="s">
         <v>518</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>519</v>
       </c>
       <c r="AC98" t="s">
         <v>47</v>

--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="598">
   <si>
     <t>p.id</t>
   </si>
@@ -344,9 +344,6 @@
     <t>decision support; social media; text mining; web mining; link analysis; VGI; location extraction</t>
   </si>
   <si>
-    <t>event-relevant extraction</t>
-  </si>
-  <si>
     <t>Trustworthiness SNA (indegree, outdegree, betweness)</t>
   </si>
   <si>
@@ -654,9 +651,6 @@
   </si>
   <si>
     <t>Flickr; YouTube</t>
-  </si>
-  <si>
-    <t>reasoning on location</t>
   </si>
   <si>
     <t>image metadata</t>
@@ -2038,7 +2032,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,6 +2105,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2133,7 +2135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2143,6 +2145,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2451,9 +2454,9 @@
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,22 +2501,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -2522,13 +2525,13 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -2590,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -2599,25 +2602,25 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -2632,7 +2635,7 @@
         <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V2" t="s">
         <v>32</v>
@@ -2658,7 +2661,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -2667,10 +2670,10 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -2679,13 +2682,13 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2700,7 +2703,7 @@
         <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V3" t="s">
         <v>32</v>
@@ -2726,19 +2729,19 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
@@ -2747,16 +2750,16 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q4" t="s">
         <v>44</v>
@@ -2768,7 +2771,7 @@
         <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V4" t="s">
         <v>46</v>
@@ -2794,7 +2797,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -2806,7 +2809,7 @@
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -2815,7 +2818,7 @@
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -2833,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V5" t="s">
         <v>32</v>
@@ -2859,7 +2862,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -2871,7 +2874,7 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K6" t="s">
         <v>62</v>
@@ -2880,7 +2883,7 @@
         <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2898,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="U6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AB6" t="s">
         <v>64</v>
@@ -2921,7 +2924,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2930,7 +2933,7 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K7" t="s">
         <v>74</v>
@@ -2939,10 +2942,10 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O7" t="s">
         <v>70</v>
@@ -2957,7 +2960,7 @@
         <v>25</v>
       </c>
       <c r="U7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD7" t="s">
         <v>25</v>
@@ -2977,7 +2980,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2986,22 +2989,22 @@
         <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P8" t="s">
         <v>61</v>
@@ -3016,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="U8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V8" t="s">
         <v>32</v>
@@ -3042,7 +3045,7 @@
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -3051,19 +3054,19 @@
         <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -3081,10 +3084,10 @@
         <v>25</v>
       </c>
       <c r="U9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD9" t="s">
         <v>25</v>
@@ -3104,7 +3107,7 @@
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -3113,7 +3116,7 @@
         <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
@@ -3122,7 +3125,7 @@
         <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3131,10 +3134,10 @@
         <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="R10" t="s">
         <v>45</v>
@@ -3169,7 +3172,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3178,25 +3181,25 @@
         <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
@@ -3205,7 +3208,7 @@
         <v>25</v>
       </c>
       <c r="U11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V11" t="s">
         <v>95</v>
@@ -3231,7 +3234,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3240,7 +3243,7 @@
         <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
@@ -3249,16 +3252,16 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
@@ -3267,7 +3270,7 @@
         <v>25</v>
       </c>
       <c r="U12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V12" t="s">
         <v>95</v>
@@ -3293,7 +3296,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
         <v>107</v>
@@ -3302,25 +3305,25 @@
         <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q13" t="s">
         <v>30</v>
@@ -3329,13 +3332,13 @@
         <v>25</v>
       </c>
       <c r="U13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V13" t="s">
         <v>95</v>
       </c>
       <c r="Z13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD13" t="s">
         <v>25</v>
@@ -3343,28 +3346,28 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C14">
         <v>2012</v>
       </c>
       <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="E14" t="s">
-        <v>411</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
@@ -3373,19 +3376,19 @@
         <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P14" t="s">
         <v>61</v>
       </c>
       <c r="Q14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S14" t="s">
         <v>25</v>
@@ -3394,7 +3397,7 @@
         <v>91</v>
       </c>
       <c r="AB14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD14" t="s">
         <v>25</v>
@@ -3402,31 +3405,31 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
         <v>116</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
       </c>
       <c r="C15">
         <v>2012</v>
       </c>
       <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K15" t="s">
         <v>62</v>
@@ -3435,10 +3438,10 @@
         <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -3450,19 +3453,19 @@
         <v>60</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S15" t="s">
         <v>26</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AB15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD15" t="s">
         <v>26</v>
@@ -3470,43 +3473,43 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
       </c>
       <c r="C16">
         <v>2012</v>
       </c>
       <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
         <v>411</v>
       </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" t="s">
-        <v>413</v>
-      </c>
       <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
         <v>142</v>
       </c>
-      <c r="L16" t="s">
-        <v>143</v>
-      </c>
       <c r="M16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O16" t="s">
         <v>73</v>
@@ -3518,16 +3521,16 @@
         <v>60</v>
       </c>
       <c r="R16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S16" t="s">
         <v>26</v>
       </c>
       <c r="T16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AD16" t="s">
         <v>26</v>
@@ -3535,49 +3538,49 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
       </c>
       <c r="C17">
         <v>2013</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>524</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J17" t="s">
         <v>411</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>526</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J17" t="s">
-        <v>413</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s">
         <v>126</v>
-      </c>
-      <c r="P17" t="s">
-        <v>127</v>
       </c>
       <c r="Q17" t="s">
         <v>30</v>
@@ -3586,13 +3589,13 @@
         <v>25</v>
       </c>
       <c r="U17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V17" t="s">
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD17" t="s">
         <v>26</v>
@@ -3600,49 +3603,49 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
       </c>
       <c r="C18">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>524</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J18" t="s">
         <v>411</v>
       </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>526</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J18" t="s">
-        <v>413</v>
-      </c>
       <c r="K18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
         <v>130</v>
       </c>
-      <c r="L18" t="s">
-        <v>131</v>
-      </c>
       <c r="M18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" t="s">
         <v>126</v>
-      </c>
-      <c r="P18" t="s">
-        <v>127</v>
       </c>
       <c r="Q18" t="s">
         <v>30</v>
@@ -3651,13 +3654,13 @@
         <v>25</v>
       </c>
       <c r="U18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V18" t="s">
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD18" t="s">
         <v>26</v>
@@ -3665,49 +3668,49 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
         <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
       </c>
       <c r="C19">
         <v>2013</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O19" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" t="s">
-        <v>127</v>
       </c>
       <c r="Q19" t="s">
         <v>30</v>
@@ -3716,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="U19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V19" t="s">
         <v>32</v>
@@ -3727,67 +3730,67 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
         <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
       </c>
       <c r="C20">
         <v>2011</v>
       </c>
       <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
         <v>134</v>
       </c>
-      <c r="E20" t="s">
-        <v>410</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>135</v>
-      </c>
       <c r="H20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>464</v>
+      </c>
+      <c r="R20" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" t="s">
-        <v>466</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" t="s">
         <v>137</v>
       </c>
-      <c r="S20" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>138</v>
       </c>
-      <c r="W20" t="s">
-        <v>139</v>
-      </c>
       <c r="AC20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD20" t="s">
         <v>25</v>
@@ -3795,64 +3798,64 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
       </c>
       <c r="C21">
         <v>2011</v>
       </c>
       <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
         <v>134</v>
       </c>
-      <c r="E21" t="s">
-        <v>410</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>135</v>
-      </c>
       <c r="H21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K21" t="s">
         <v>90</v>
       </c>
-      <c r="L21" t="s">
-        <v>144</v>
+      <c r="L21" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="M21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>464</v>
+      </c>
+      <c r="R21" t="s">
         <v>136</v>
       </c>
-      <c r="Q21" t="s">
-        <v>466</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" t="s">
         <v>137</v>
       </c>
-      <c r="S21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
         <v>138</v>
-      </c>
-      <c r="W21" t="s">
-        <v>139</v>
       </c>
       <c r="AD21" t="s">
         <v>25</v>
@@ -3860,46 +3863,46 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
       </c>
       <c r="C22">
         <v>2011</v>
       </c>
       <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" t="s">
         <v>149</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" t="s">
         <v>411</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" t="s">
-        <v>413</v>
       </c>
       <c r="K22" t="s">
         <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q22" t="s">
         <v>73</v>
@@ -3908,16 +3911,16 @@
         <v>26</v>
       </c>
       <c r="T22" t="s">
+        <v>151</v>
+      </c>
+      <c r="U22" t="s">
+        <v>137</v>
+      </c>
+      <c r="W22" t="s">
         <v>152</v>
       </c>
-      <c r="U22" t="s">
-        <v>138</v>
-      </c>
-      <c r="W22" t="s">
-        <v>153</v>
-      </c>
       <c r="AB22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD22" t="s">
         <v>25</v>
@@ -3925,28 +3928,28 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
         <v>146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
       </c>
       <c r="C23">
         <v>2011</v>
       </c>
       <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K23" t="s">
         <v>62</v>
@@ -3955,16 +3958,16 @@
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q23" t="s">
         <v>73</v>
@@ -3973,16 +3976,16 @@
         <v>26</v>
       </c>
       <c r="T23" t="s">
+        <v>151</v>
+      </c>
+      <c r="U23" t="s">
+        <v>137</v>
+      </c>
+      <c r="W23" t="s">
         <v>152</v>
       </c>
-      <c r="U23" t="s">
-        <v>138</v>
-      </c>
-      <c r="W23" t="s">
-        <v>153</v>
-      </c>
       <c r="AB23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD23" t="s">
         <v>25</v>
@@ -3990,52 +3993,52 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C24">
         <v>2010</v>
       </c>
       <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" t="s">
+        <v>454</v>
+      </c>
+      <c r="K24" t="s">
         <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>411</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="I24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" t="s">
-        <v>456</v>
-      </c>
-      <c r="K24" t="s">
-        <v>158</v>
       </c>
       <c r="L24" t="s">
         <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q24" t="s">
         <v>30</v>
@@ -4044,10 +4047,10 @@
         <v>25</v>
       </c>
       <c r="U24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AB24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD24" t="s">
         <v>26</v>
@@ -4055,10 +4058,10 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" t="s">
-        <v>163</v>
       </c>
       <c r="C25">
         <v>2013</v>
@@ -4067,25 +4070,25 @@
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
         <v>164</v>
       </c>
-      <c r="G25" t="s">
-        <v>165</v>
-      </c>
       <c r="J25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K25" t="s">
         <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N25" t="s">
         <v>73</v>
@@ -4094,7 +4097,7 @@
         <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
         <v>30</v>
@@ -4103,10 +4106,10 @@
         <v>25</v>
       </c>
       <c r="U25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC25" t="s">
         <v>47</v>
@@ -4117,10 +4120,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
         <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>169</v>
       </c>
       <c r="C26">
         <v>2013</v>
@@ -4129,37 +4132,37 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s">
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q26" t="s">
         <v>30</v>
@@ -4174,10 +4177,10 @@
         <v>32</v>
       </c>
       <c r="AA26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC26" t="s">
         <v>47</v>
@@ -4188,64 +4191,64 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27">
         <v>2012</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K27" t="s">
         <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" t="s">
         <v>25</v>
       </c>
       <c r="U27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD27" t="s">
         <v>25</v>
@@ -4253,64 +4256,64 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28">
         <v>2012</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K28" t="s">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="U28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC28" t="s">
         <v>187</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>188</v>
       </c>
       <c r="AD28" t="s">
         <v>25</v>
@@ -4318,10 +4321,10 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
         <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>190</v>
       </c>
       <c r="C29">
         <v>2013</v>
@@ -4330,58 +4333,58 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
         <v>191</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" t="s">
         <v>192</v>
       </c>
-      <c r="I29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" t="s">
-        <v>413</v>
-      </c>
-      <c r="K29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" t="s">
-        <v>193</v>
-      </c>
       <c r="M29" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
       </c>
       <c r="R29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S29" t="s">
         <v>26</v>
       </c>
       <c r="T29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U29" t="s">
         <v>91</v>
       </c>
       <c r="V29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD29" t="s">
         <v>25</v>
@@ -4389,10 +4392,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>2012</v>
@@ -4401,49 +4404,49 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" t="s">
+        <v>411</v>
+      </c>
+      <c r="K30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" t="s">
         <v>202</v>
       </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
-      <c r="J30" t="s">
-        <v>413</v>
-      </c>
-      <c r="K30" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
+        <v>567</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" t="s">
+        <v>234</v>
+      </c>
+      <c r="V30" t="s">
+        <v>204</v>
+      </c>
+      <c r="W30" t="s">
         <v>203</v>
-      </c>
-      <c r="M30" t="s">
-        <v>569</v>
-      </c>
-      <c r="N30" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" t="s">
-        <v>236</v>
-      </c>
-      <c r="V30" t="s">
-        <v>205</v>
-      </c>
-      <c r="W30" t="s">
-        <v>204</v>
       </c>
       <c r="AD30" t="s">
         <v>25</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
         <v>206</v>
-      </c>
-      <c r="B31" t="s">
-        <v>207</v>
       </c>
       <c r="C31">
         <v>2010</v>
@@ -4463,22 +4466,22 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K31" t="s">
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M31" t="s">
         <v>73</v>
@@ -4493,22 +4496,22 @@
         <v>73</v>
       </c>
       <c r="Q31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S31" t="s">
         <v>26</v>
       </c>
       <c r="T31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC31" t="s">
         <v>47</v>
@@ -4519,10 +4522,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
         <v>206</v>
-      </c>
-      <c r="B32" t="s">
-        <v>207</v>
       </c>
       <c r="C32">
         <v>2010</v>
@@ -4531,52 +4534,52 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>411</v>
+      </c>
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" t="s">
+        <v>490</v>
+      </c>
+      <c r="M32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q32" t="s">
         <v>209</v>
       </c>
-      <c r="G32" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" t="s">
-        <v>413</v>
-      </c>
-      <c r="K32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L32" t="s">
-        <v>212</v>
-      </c>
-      <c r="M32" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>210</v>
-      </c>
       <c r="R32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S32" t="s">
         <v>26</v>
       </c>
       <c r="T32" t="s">
+        <v>212</v>
+      </c>
+      <c r="U32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB32" t="s">
         <v>214</v>
-      </c>
-      <c r="U32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>216</v>
       </c>
       <c r="AC32" t="s">
         <v>47</v>
@@ -4587,10 +4590,10 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>2012</v>
@@ -4599,25 +4602,25 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K33" t="s">
         <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N33" t="s">
         <v>73</v>
@@ -4632,19 +4635,19 @@
         <v>30</v>
       </c>
       <c r="R33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S33" t="s">
         <v>25</v>
       </c>
       <c r="U33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V33" t="s">
         <v>32</v>
       </c>
       <c r="Y33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AD33" t="s">
         <v>25</v>
@@ -4652,10 +4655,10 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34">
         <v>2012</v>
@@ -4664,25 +4667,25 @@
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
       <c r="M34" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N34" t="s">
         <v>73</v>
@@ -4697,19 +4700,19 @@
         <v>30</v>
       </c>
       <c r="R34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S34" t="s">
         <v>25</v>
       </c>
       <c r="U34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V34" t="s">
         <v>32</v>
       </c>
       <c r="AB34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD34" t="s">
         <v>25</v>
@@ -4717,10 +4720,10 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35">
         <v>2012</v>
@@ -4729,25 +4732,25 @@
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N35" t="s">
         <v>73</v>
@@ -4765,13 +4768,13 @@
         <v>25</v>
       </c>
       <c r="U35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V35" t="s">
         <v>32</v>
       </c>
       <c r="AB35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD35" t="s">
         <v>25</v>
@@ -4779,40 +4782,40 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>2011</v>
       </c>
       <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" t="s">
-        <v>410</v>
-      </c>
-      <c r="F36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
       <c r="J36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K36" t="s">
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N36" t="s">
         <v>73</v>
@@ -4830,16 +4833,16 @@
         <v>25</v>
       </c>
       <c r="U36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V36" t="s">
         <v>32</v>
       </c>
       <c r="X36" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC36" t="s">
         <v>237</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>239</v>
       </c>
       <c r="AD36" t="s">
         <v>26</v>
@@ -4847,40 +4850,40 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C37">
         <v>2011</v>
       </c>
       <c r="D37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" t="s">
         <v>233</v>
       </c>
-      <c r="E37" t="s">
-        <v>410</v>
-      </c>
-      <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" t="s">
-        <v>232</v>
-      </c>
-      <c r="I37" t="s">
-        <v>235</v>
-      </c>
       <c r="J37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K37" t="s">
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N37" t="s">
         <v>73</v>
@@ -4898,16 +4901,16 @@
         <v>25</v>
       </c>
       <c r="U37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V37" t="s">
         <v>32</v>
       </c>
       <c r="Y37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD37" t="s">
         <v>26</v>
@@ -4915,40 +4918,40 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C38">
         <v>2011</v>
       </c>
       <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" t="s">
         <v>233</v>
       </c>
-      <c r="E38" t="s">
-        <v>410</v>
-      </c>
-      <c r="F38" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" t="s">
-        <v>235</v>
-      </c>
       <c r="J38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" t="s">
         <v>130</v>
       </c>
-      <c r="L38" t="s">
-        <v>131</v>
-      </c>
       <c r="M38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N38" t="s">
         <v>73</v>
@@ -4966,16 +4969,16 @@
         <v>25</v>
       </c>
       <c r="U38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V38" t="s">
         <v>32</v>
       </c>
       <c r="AB38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD38" t="s">
         <v>26</v>
@@ -4983,43 +4986,43 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C39">
         <v>2011</v>
       </c>
       <c r="D39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" t="s">
+        <v>412</v>
+      </c>
+      <c r="K39" t="s">
         <v>243</v>
       </c>
-      <c r="E39" t="s">
-        <v>410</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="L39" t="s">
         <v>244</v>
       </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" t="s">
-        <v>414</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
+        <v>567</v>
+      </c>
+      <c r="N39" t="s">
+        <v>577</v>
+      </c>
+      <c r="O39" t="s">
         <v>245</v>
-      </c>
-      <c r="L39" t="s">
-        <v>246</v>
-      </c>
-      <c r="M39" t="s">
-        <v>569</v>
-      </c>
-      <c r="N39" t="s">
-        <v>579</v>
-      </c>
-      <c r="O39" t="s">
-        <v>247</v>
       </c>
       <c r="P39" t="s">
         <v>73</v>
@@ -5031,13 +5034,13 @@
         <v>25</v>
       </c>
       <c r="U39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V39" t="s">
         <v>32</v>
       </c>
       <c r="AA39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AD39" t="s">
         <v>25</v>
@@ -5045,10 +5048,10 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -5057,34 +5060,34 @@
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s">
         <v>73</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q40" t="s">
         <v>30</v>
@@ -5099,7 +5102,7 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC40" t="s">
         <v>47</v>
@@ -5110,10 +5113,10 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C41">
         <v>2013</v>
@@ -5122,34 +5125,34 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" t="s">
+        <v>454</v>
+      </c>
+      <c r="K41" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" t="s">
+        <v>252</v>
+      </c>
+      <c r="M41" t="s">
+        <v>568</v>
+      </c>
+      <c r="N41" t="s">
         <v>253</v>
       </c>
-      <c r="G41" t="s">
-        <v>252</v>
-      </c>
-      <c r="J41" t="s">
-        <v>456</v>
-      </c>
-      <c r="K41" t="s">
-        <v>251</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="s">
         <v>254</v>
-      </c>
-      <c r="M41" t="s">
-        <v>570</v>
-      </c>
-      <c r="N41" t="s">
-        <v>255</v>
-      </c>
-      <c r="O41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" t="s">
-        <v>256</v>
       </c>
       <c r="Q41" t="s">
         <v>30</v>
@@ -5164,7 +5167,7 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC41" t="s">
         <v>47</v>
@@ -5175,10 +5178,10 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42">
         <v>2012</v>
@@ -5187,28 +5190,28 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M42" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N42" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O42" t="s">
         <v>73</v>
@@ -5223,13 +5226,13 @@
         <v>25</v>
       </c>
       <c r="U42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V42" t="s">
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AD42" t="s">
         <v>25</v>
@@ -5237,40 +5240,40 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C43">
         <v>2012</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" t="s">
         <v>411</v>
       </c>
-      <c r="F43" t="s">
+      <c r="K43" t="s">
+        <v>265</v>
+      </c>
+      <c r="L43" t="s">
         <v>266</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K43" t="s">
-        <v>267</v>
-      </c>
-      <c r="L43" t="s">
-        <v>268</v>
-      </c>
       <c r="M43" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N43" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O43" t="s">
         <v>73</v>
@@ -5279,7 +5282,7 @@
         <v>61</v>
       </c>
       <c r="Q43" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S43" t="s">
         <v>25</v>
@@ -5296,46 +5299,46 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C44">
         <v>2013</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" t="s">
         <v>411</v>
-      </c>
-      <c r="F44" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" t="s">
-        <v>273</v>
-      </c>
-      <c r="J44" t="s">
-        <v>413</v>
       </c>
       <c r="K44" t="s">
         <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M44" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N44" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q44" t="s">
         <v>30</v>
@@ -5344,13 +5347,13 @@
         <v>25</v>
       </c>
       <c r="U44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V44" t="s">
         <v>32</v>
       </c>
       <c r="Y44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AC44" t="s">
         <v>47</v>
@@ -5361,46 +5364,46 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45">
         <v>2013</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" t="s">
+        <v>412</v>
+      </c>
+      <c r="K45" t="s">
+        <v>243</v>
+      </c>
+      <c r="L45" t="s">
+        <v>244</v>
+      </c>
+      <c r="M45" t="s">
+        <v>568</v>
+      </c>
+      <c r="N45" t="s">
+        <v>583</v>
+      </c>
+      <c r="O45" t="s">
+        <v>406</v>
+      </c>
+      <c r="P45" t="s">
         <v>272</v>
-      </c>
-      <c r="G45" t="s">
-        <v>273</v>
-      </c>
-      <c r="J45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K45" t="s">
-        <v>245</v>
-      </c>
-      <c r="L45" t="s">
-        <v>246</v>
-      </c>
-      <c r="M45" t="s">
-        <v>570</v>
-      </c>
-      <c r="N45" t="s">
-        <v>585</v>
-      </c>
-      <c r="O45" t="s">
-        <v>408</v>
-      </c>
-      <c r="P45" t="s">
-        <v>274</v>
       </c>
       <c r="Q45" t="s">
         <v>30</v>
@@ -5409,13 +5412,13 @@
         <v>25</v>
       </c>
       <c r="U45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V45" t="s">
         <v>32</v>
       </c>
       <c r="AB45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AC45" t="s">
         <v>47</v>
@@ -5426,31 +5429,31 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C46">
         <v>2013</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
         <v>41</v>
@@ -5459,7 +5462,7 @@
         <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N46" t="s">
         <v>73</v>
@@ -5480,16 +5483,16 @@
         <v>25</v>
       </c>
       <c r="U46" t="s">
+        <v>282</v>
+      </c>
+      <c r="V46" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA46" t="s">
         <v>284</v>
       </c>
-      <c r="V46" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>286</v>
-      </c>
       <c r="AB46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AC46" t="s">
         <v>47</v>
@@ -5500,49 +5503,49 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C47">
         <v>2013</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E47" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s">
         <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N47" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q47" t="s">
         <v>30</v>
@@ -5551,16 +5554,16 @@
         <v>26</v>
       </c>
       <c r="T47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V47" t="s">
         <v>32</v>
       </c>
       <c r="AB47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC47" t="s">
         <v>47</v>
@@ -5571,49 +5574,49 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
+        <v>409</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H48" t="s">
+        <v>530</v>
+      </c>
+      <c r="J48" t="s">
         <v>411</v>
       </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H48" t="s">
-        <v>532</v>
-      </c>
-      <c r="J48" t="s">
-        <v>413</v>
-      </c>
       <c r="K48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
       <c r="M48" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q48" t="s">
         <v>30</v>
@@ -5622,16 +5625,16 @@
         <v>25</v>
       </c>
       <c r="U48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V48" t="s">
         <v>32</v>
       </c>
       <c r="W48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AD48" t="s">
         <v>25</v>
@@ -5639,49 +5642,49 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C49">
         <v>2011</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F49" t="s">
         <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H49" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q49" t="s">
         <v>30</v>
@@ -5690,16 +5693,16 @@
         <v>25</v>
       </c>
       <c r="U49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V49" t="s">
         <v>32</v>
       </c>
       <c r="W49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AD49" t="s">
         <v>25</v>
@@ -5707,46 +5710,46 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C50">
         <v>2011</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E50" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H50" t="s">
+        <v>533</v>
+      </c>
+      <c r="J50" t="s">
         <v>411</v>
-      </c>
-      <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H50" t="s">
-        <v>535</v>
-      </c>
-      <c r="J50" t="s">
-        <v>413</v>
       </c>
       <c r="K50" t="s">
         <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O50" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P50" t="s">
         <v>73</v>
@@ -5758,19 +5761,19 @@
         <v>25</v>
       </c>
       <c r="U50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V50" t="s">
         <v>32</v>
       </c>
       <c r="W50" t="s">
+        <v>299</v>
+      </c>
+      <c r="X50" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y50" t="s">
         <v>301</v>
-      </c>
-      <c r="X50" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>303</v>
       </c>
       <c r="AC50" t="s">
         <v>47</v>
@@ -5781,34 +5784,34 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C51">
         <v>2011</v>
       </c>
       <c r="D51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E51" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" t="s">
         <v>306</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" t="s">
         <v>411</v>
-      </c>
-      <c r="F51" t="s">
-        <v>308</v>
-      </c>
-      <c r="G51" t="s">
-        <v>307</v>
-      </c>
-      <c r="J51" t="s">
-        <v>413</v>
       </c>
       <c r="K51" t="s">
         <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s">
         <v>73</v>
@@ -5823,16 +5826,16 @@
         <v>73</v>
       </c>
       <c r="Q51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S51" t="s">
         <v>25</v>
       </c>
       <c r="U51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="V51" t="s">
         <v>32</v>
@@ -5846,67 +5849,67 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C52">
         <v>2011</v>
       </c>
       <c r="D52" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52" t="s">
         <v>306</v>
       </c>
-      <c r="E52" t="s">
-        <v>411</v>
-      </c>
-      <c r="F52" t="s">
-        <v>308</v>
-      </c>
       <c r="G52" t="s">
+        <v>305</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" t="s">
         <v>307</v>
       </c>
-      <c r="J52" t="s">
-        <v>414</v>
-      </c>
-      <c r="K52" t="s">
-        <v>226</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N52" t="s">
+        <v>73</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>209</v>
+      </c>
+      <c r="R52" t="s">
         <v>309</v>
       </c>
-      <c r="M52" t="s">
-        <v>73</v>
-      </c>
-      <c r="N52" t="s">
-        <v>73</v>
-      </c>
-      <c r="O52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P52" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>210</v>
-      </c>
-      <c r="R52" t="s">
-        <v>311</v>
-      </c>
       <c r="S52" t="s">
         <v>25</v>
       </c>
       <c r="U52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="V52" t="s">
         <v>32</v>
       </c>
       <c r="Z52" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AD52" t="s">
         <v>25</v>
@@ -5914,67 +5917,67 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C53">
         <v>2008</v>
       </c>
       <c r="D53" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" t="s">
+        <v>315</v>
+      </c>
+      <c r="G53" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" t="s">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M53" t="s">
+        <v>568</v>
+      </c>
+      <c r="N53" t="s">
+        <v>575</v>
+      </c>
+      <c r="O53" t="s">
         <v>316</v>
       </c>
-      <c r="E53" t="s">
-        <v>411</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="P53" t="s">
         <v>317</v>
       </c>
-      <c r="G53" t="s">
-        <v>315</v>
-      </c>
-      <c r="J53" t="s">
-        <v>414</v>
-      </c>
-      <c r="K53" t="s">
-        <v>226</v>
-      </c>
-      <c r="L53" t="s">
-        <v>227</v>
-      </c>
-      <c r="M53" t="s">
-        <v>570</v>
-      </c>
-      <c r="N53" t="s">
-        <v>577</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="Q53" t="s">
+        <v>209</v>
+      </c>
+      <c r="R53" t="s">
         <v>318</v>
       </c>
-      <c r="P53" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>210</v>
-      </c>
-      <c r="R53" t="s">
-        <v>320</v>
-      </c>
       <c r="S53" t="s">
         <v>25</v>
       </c>
       <c r="U53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V53" t="s">
         <v>32</v>
       </c>
       <c r="Z53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AD53" t="s">
         <v>25</v>
@@ -5982,28 +5985,28 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
         <v>41</v>
@@ -6012,37 +6015,37 @@
         <v>103</v>
       </c>
       <c r="M54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N54" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O54" t="s">
+        <v>316</v>
+      </c>
+      <c r="P54" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>209</v>
+      </c>
+      <c r="R54" t="s">
         <v>318</v>
       </c>
-      <c r="P54" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>210</v>
-      </c>
-      <c r="R54" t="s">
-        <v>320</v>
-      </c>
       <c r="S54" t="s">
         <v>25</v>
       </c>
       <c r="U54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V54" t="s">
         <v>32</v>
       </c>
       <c r="AB54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AC54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AD54" t="s">
         <v>25</v>
@@ -6050,64 +6053,64 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C55">
         <v>2013</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J55" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N55" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O55" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P55" t="s">
         <v>73</v>
       </c>
       <c r="Q55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S55" t="s">
         <v>25</v>
       </c>
       <c r="U55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V55" t="s">
         <v>32</v>
       </c>
       <c r="Z55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AB55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC55" t="s">
         <v>47</v>
@@ -6118,43 +6121,43 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C56">
         <v>2013</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
+        <v>409</v>
+      </c>
+      <c r="F56" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" t="s">
+        <v>339</v>
+      </c>
+      <c r="I56" t="s">
+        <v>337</v>
+      </c>
+      <c r="J56" t="s">
         <v>411</v>
-      </c>
-      <c r="F56" t="s">
-        <v>340</v>
-      </c>
-      <c r="G56" t="s">
-        <v>341</v>
-      </c>
-      <c r="I56" t="s">
-        <v>339</v>
-      </c>
-      <c r="J56" t="s">
-        <v>413</v>
       </c>
       <c r="K56" t="s">
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N56" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O56" t="s">
         <v>73</v>
@@ -6163,28 +6166,28 @@
         <v>61</v>
       </c>
       <c r="Q56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S56" t="s">
         <v>26</v>
       </c>
       <c r="T56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V56" t="s">
         <v>32</v>
       </c>
       <c r="W56" t="s">
+        <v>334</v>
+      </c>
+      <c r="X56" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB56" t="s">
         <v>336</v>
-      </c>
-      <c r="X56" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>338</v>
       </c>
       <c r="AC56" t="s">
         <v>47</v>
@@ -6195,31 +6198,31 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C57">
         <v>2013</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
+        <v>409</v>
+      </c>
+      <c r="F57" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" t="s">
+        <v>339</v>
+      </c>
+      <c r="I57" t="s">
+        <v>337</v>
+      </c>
+      <c r="J57" t="s">
         <v>411</v>
-      </c>
-      <c r="F57" t="s">
-        <v>340</v>
-      </c>
-      <c r="G57" t="s">
-        <v>341</v>
-      </c>
-      <c r="I57" t="s">
-        <v>339</v>
-      </c>
-      <c r="J57" t="s">
-        <v>413</v>
       </c>
       <c r="K57" t="s">
         <v>28</v>
@@ -6228,10 +6231,10 @@
         <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N57" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O57" t="s">
         <v>73</v>
@@ -6240,16 +6243,16 @@
         <v>61</v>
       </c>
       <c r="Q57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S57" t="s">
         <v>26</v>
       </c>
       <c r="T57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V57" t="s">
         <v>32</v>
@@ -6258,7 +6261,7 @@
         <v>97</v>
       </c>
       <c r="AB57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AC57" t="s">
         <v>47</v>
@@ -6269,43 +6272,43 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C58">
         <v>2013</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" t="s">
+        <v>339</v>
+      </c>
+      <c r="I58" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" t="s">
         <v>411</v>
       </c>
-      <c r="F58" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="K58" t="s">
+        <v>129</v>
+      </c>
+      <c r="L58" t="s">
         <v>341</v>
       </c>
-      <c r="I58" t="s">
-        <v>339</v>
-      </c>
-      <c r="J58" t="s">
-        <v>413</v>
-      </c>
-      <c r="K58" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" t="s">
-        <v>343</v>
-      </c>
       <c r="M58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N58" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O58" t="s">
         <v>73</v>
@@ -6314,25 +6317,25 @@
         <v>61</v>
       </c>
       <c r="Q58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S58" t="s">
         <v>26</v>
       </c>
       <c r="T58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V58" t="s">
         <v>32</v>
       </c>
       <c r="Y58" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AB58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AC58" t="s">
         <v>47</v>
@@ -6343,43 +6346,43 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C59">
         <v>2013</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
+        <v>409</v>
+      </c>
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I59" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" t="s">
         <v>411</v>
       </c>
-      <c r="F59" t="s">
-        <v>340</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I59" t="s">
-        <v>339</v>
-      </c>
-      <c r="J59" t="s">
-        <v>413</v>
-      </c>
       <c r="K59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" t="s">
         <v>142</v>
       </c>
-      <c r="L59" t="s">
-        <v>143</v>
-      </c>
       <c r="M59" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N59" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O59" t="s">
         <v>73</v>
@@ -6388,25 +6391,25 @@
         <v>61</v>
       </c>
       <c r="Q59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S59" t="s">
         <v>26</v>
       </c>
       <c r="T59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V59" t="s">
         <v>32</v>
       </c>
       <c r="Y59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AB59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AC59" t="s">
         <v>47</v>
@@ -6417,46 +6420,46 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60">
         <v>2013</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" t="s">
         <v>411</v>
-      </c>
-      <c r="F60" t="s">
-        <v>355</v>
-      </c>
-      <c r="G60" t="s">
-        <v>354</v>
-      </c>
-      <c r="J60" t="s">
-        <v>413</v>
       </c>
       <c r="K60" t="s">
         <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M60" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N60" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q60" t="s">
         <v>30</v>
@@ -6465,22 +6468,22 @@
         <v>26</v>
       </c>
       <c r="T60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V60" t="s">
         <v>32</v>
       </c>
       <c r="W60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="X60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AC60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD60" t="s">
         <v>25</v>
@@ -6488,46 +6491,46 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C61">
         <v>2013</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M61" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q61" t="s">
         <v>30</v>
@@ -6536,22 +6539,22 @@
         <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V61" t="s">
         <v>32</v>
       </c>
       <c r="W61" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB61" t="s">
         <v>349</v>
       </c>
-      <c r="AB61" t="s">
-        <v>351</v>
-      </c>
       <c r="AC61" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD61" t="s">
         <v>25</v>
@@ -6559,46 +6562,46 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" t="s">
         <v>357</v>
-      </c>
-      <c r="B62" t="s">
-        <v>359</v>
       </c>
       <c r="C62">
         <v>2012</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F62" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s">
         <v>28</v>
       </c>
       <c r="L62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N62" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O62" t="s">
         <v>73</v>
       </c>
       <c r="P62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q62" t="s">
         <v>30</v>
@@ -6607,13 +6610,13 @@
         <v>25</v>
       </c>
       <c r="U62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V62" t="s">
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AC62" t="s">
         <v>47</v>
@@ -6624,46 +6627,46 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" t="s">
         <v>357</v>
-      </c>
-      <c r="B63" t="s">
-        <v>359</v>
       </c>
       <c r="C63">
         <v>2012</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N63" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O63" t="s">
         <v>73</v>
       </c>
       <c r="P63" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q63" t="s">
         <v>30</v>
@@ -6672,13 +6675,13 @@
         <v>25</v>
       </c>
       <c r="U63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V63" t="s">
         <v>32</v>
       </c>
       <c r="Y63" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AC63" t="s">
         <v>47</v>
@@ -6689,46 +6692,46 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" t="s">
         <v>357</v>
-      </c>
-      <c r="B64" t="s">
-        <v>359</v>
       </c>
       <c r="C64">
         <v>2012</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F64" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M64" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N64" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O64" t="s">
         <v>73</v>
       </c>
       <c r="P64" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q64" t="s">
         <v>30</v>
@@ -6737,13 +6740,13 @@
         <v>25</v>
       </c>
       <c r="U64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V64" t="s">
         <v>32</v>
       </c>
       <c r="AB64" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AC64" t="s">
         <v>47</v>
@@ -6754,43 +6757,43 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C65">
         <v>2012</v>
       </c>
       <c r="D65" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E65" t="s">
+        <v>409</v>
+      </c>
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s">
+        <v>535</v>
+      </c>
+      <c r="H65" t="s">
+        <v>534</v>
+      </c>
+      <c r="I65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65" t="s">
         <v>411</v>
-      </c>
-      <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s">
-        <v>537</v>
-      </c>
-      <c r="H65" t="s">
-        <v>536</v>
-      </c>
-      <c r="I65" t="s">
-        <v>368</v>
-      </c>
-      <c r="J65" t="s">
-        <v>413</v>
       </c>
       <c r="K65" t="s">
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N65" t="s">
         <v>73</v>
@@ -6799,25 +6802,25 @@
         <v>73</v>
       </c>
       <c r="P65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q65" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R65" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S65" t="s">
         <v>25</v>
       </c>
       <c r="U65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="X65" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AD65" t="s">
         <v>26</v>
@@ -6825,34 +6828,34 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C66">
         <v>2012</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E66" t="s">
+        <v>409</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s">
+        <v>535</v>
+      </c>
+      <c r="H66" t="s">
+        <v>534</v>
+      </c>
+      <c r="I66" t="s">
+        <v>366</v>
+      </c>
+      <c r="J66" t="s">
         <v>411</v>
-      </c>
-      <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>537</v>
-      </c>
-      <c r="H66" t="s">
-        <v>536</v>
-      </c>
-      <c r="I66" t="s">
-        <v>368</v>
-      </c>
-      <c r="J66" t="s">
-        <v>413</v>
       </c>
       <c r="K66" t="s">
         <v>28</v>
@@ -6861,7 +6864,7 @@
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N66" t="s">
         <v>73</v>
@@ -6870,25 +6873,25 @@
         <v>73</v>
       </c>
       <c r="P66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q66" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R66" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S66" t="s">
         <v>25</v>
       </c>
       <c r="U66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V66" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y66" t="s">
         <v>370</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>372</v>
       </c>
       <c r="AD66" t="s">
         <v>26</v>
@@ -6896,67 +6899,67 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C67">
         <v>2012</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E67" t="s">
+        <v>409</v>
+      </c>
+      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>535</v>
+      </c>
+      <c r="H67" t="s">
+        <v>534</v>
+      </c>
+      <c r="I67" t="s">
+        <v>366</v>
+      </c>
+      <c r="J67" t="s">
         <v>411</v>
       </c>
-      <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s">
-        <v>537</v>
-      </c>
-      <c r="H67" t="s">
-        <v>536</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
+        <v>265</v>
+      </c>
+      <c r="L67" t="s">
+        <v>354</v>
+      </c>
+      <c r="M67" t="s">
+        <v>569</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>593</v>
+      </c>
+      <c r="R67" t="s">
+        <v>586</v>
+      </c>
+      <c r="S67" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" t="s">
+        <v>234</v>
+      </c>
+      <c r="V67" t="s">
         <v>368</v>
-      </c>
-      <c r="J67" t="s">
-        <v>413</v>
-      </c>
-      <c r="K67" t="s">
-        <v>267</v>
-      </c>
-      <c r="L67" t="s">
-        <v>356</v>
-      </c>
-      <c r="M67" t="s">
-        <v>571</v>
-      </c>
-      <c r="N67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O67" t="s">
-        <v>73</v>
-      </c>
-      <c r="P67" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>595</v>
-      </c>
-      <c r="R67" t="s">
-        <v>588</v>
-      </c>
-      <c r="S67" t="s">
-        <v>25</v>
-      </c>
-      <c r="U67" t="s">
-        <v>236</v>
-      </c>
-      <c r="V67" t="s">
-        <v>370</v>
       </c>
       <c r="AD67" t="s">
         <v>26</v>
@@ -6964,67 +6967,67 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C68">
         <v>2012</v>
       </c>
       <c r="D68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H68" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I68" t="s">
+        <v>366</v>
+      </c>
+      <c r="J68" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" t="s">
+        <v>371</v>
+      </c>
+      <c r="M68" t="s">
+        <v>569</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>593</v>
+      </c>
+      <c r="R68" t="s">
+        <v>586</v>
+      </c>
+      <c r="S68" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" t="s">
+        <v>234</v>
+      </c>
+      <c r="V68" t="s">
         <v>368</v>
-      </c>
-      <c r="J68" t="s">
-        <v>456</v>
-      </c>
-      <c r="K68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L68" t="s">
-        <v>373</v>
-      </c>
-      <c r="M68" t="s">
-        <v>571</v>
-      </c>
-      <c r="N68" t="s">
-        <v>73</v>
-      </c>
-      <c r="O68" t="s">
-        <v>73</v>
-      </c>
-      <c r="P68" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>595</v>
-      </c>
-      <c r="R68" t="s">
-        <v>588</v>
-      </c>
-      <c r="S68" t="s">
-        <v>25</v>
-      </c>
-      <c r="U68" t="s">
-        <v>236</v>
-      </c>
-      <c r="V68" t="s">
-        <v>370</v>
       </c>
       <c r="AD68" t="s">
         <v>26</v>
@@ -7032,76 +7035,76 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C69">
         <v>2010</v>
       </c>
       <c r="D69" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E69" t="s">
+        <v>409</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>537</v>
+      </c>
+      <c r="H69" t="s">
+        <v>536</v>
+      </c>
+      <c r="I69" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" t="s">
         <v>411</v>
       </c>
-      <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s">
-        <v>539</v>
-      </c>
-      <c r="H69" t="s">
-        <v>538</v>
-      </c>
-      <c r="I69" t="s">
-        <v>376</v>
-      </c>
-      <c r="J69" t="s">
-        <v>413</v>
-      </c>
       <c r="K69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M69" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N69" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P69" t="s">
         <v>73</v>
       </c>
       <c r="Q69" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R69" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S69" t="s">
         <v>26</v>
       </c>
       <c r="T69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V69" t="s">
         <v>32</v>
       </c>
       <c r="AA69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AB69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC69" t="s">
         <v>47</v>
@@ -7112,43 +7115,43 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C70">
         <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
+        <v>409</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" t="s">
         <v>411</v>
-      </c>
-      <c r="F70" t="s">
-        <v>385</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J70" t="s">
-        <v>413</v>
       </c>
       <c r="K70" t="s">
         <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M70" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N70" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O70" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P70" t="s">
         <v>73</v>
@@ -7160,13 +7163,13 @@
         <v>25</v>
       </c>
       <c r="U70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V70" t="s">
         <v>32</v>
       </c>
       <c r="Y70" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AC70" t="s">
         <v>47</v>
@@ -7177,43 +7180,43 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C71">
         <v>2013</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E71" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M71" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N71" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O71" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P71" t="s">
         <v>73</v>
@@ -7225,16 +7228,16 @@
         <v>25</v>
       </c>
       <c r="U71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V71" t="s">
         <v>32</v>
       </c>
       <c r="Z71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AA71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AC71" t="s">
         <v>47</v>
@@ -7245,40 +7248,40 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" t="s">
         <v>391</v>
-      </c>
-      <c r="B72" t="s">
-        <v>393</v>
       </c>
       <c r="C72">
         <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E72" t="s">
+        <v>409</v>
+      </c>
+      <c r="F72" t="s">
+        <v>395</v>
+      </c>
+      <c r="G72" t="s">
+        <v>396</v>
+      </c>
+      <c r="J72" t="s">
         <v>411</v>
       </c>
-      <c r="F72" t="s">
+      <c r="K72" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72" t="s">
         <v>397</v>
       </c>
-      <c r="G72" t="s">
-        <v>398</v>
-      </c>
-      <c r="J72" t="s">
-        <v>413</v>
-      </c>
-      <c r="K72" t="s">
-        <v>142</v>
-      </c>
-      <c r="L72" t="s">
-        <v>399</v>
-      </c>
       <c r="M72" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N72" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O72" t="s">
         <v>43</v>
@@ -7293,13 +7296,13 @@
         <v>26</v>
       </c>
       <c r="T72" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AD72" t="s">
         <v>25</v>
@@ -7307,49 +7310,49 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C73">
         <v>2013</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E73" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J73" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K73" t="s">
         <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M73" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N73" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P73" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q73" t="s">
         <v>30</v>
@@ -7358,16 +7361,16 @@
         <v>25</v>
       </c>
       <c r="U73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V73" t="s">
         <v>32</v>
       </c>
       <c r="AA73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AB73" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AC73" t="s">
         <v>47</v>
@@ -7378,61 +7381,61 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C74">
         <v>2010</v>
       </c>
       <c r="D74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E74" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F74" t="s">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H74" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s">
         <v>82</v>
       </c>
       <c r="L74" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P74" t="s">
         <v>61</v>
       </c>
       <c r="Q74" t="s">
+        <v>456</v>
+      </c>
+      <c r="U74" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB74" t="s">
         <v>458</v>
-      </c>
-      <c r="U74" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>460</v>
       </c>
       <c r="AC74" t="s">
         <v>47</v>
@@ -7443,31 +7446,31 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C75">
         <v>2010</v>
       </c>
       <c r="D75" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E75" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F75" t="s">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H75" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K75" t="s">
         <v>62</v>
@@ -7476,28 +7479,28 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N75" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P75" t="s">
         <v>61</v>
       </c>
       <c r="Q75" t="s">
+        <v>456</v>
+      </c>
+      <c r="U75" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB75" t="s">
         <v>458</v>
-      </c>
-      <c r="U75" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>460</v>
       </c>
       <c r="AC75" t="s">
         <v>47</v>
@@ -7508,31 +7511,31 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C76">
         <v>2012</v>
       </c>
       <c r="D76" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H76" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J76" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K76" t="s">
         <v>62</v>
@@ -7541,31 +7544,31 @@
         <v>63</v>
       </c>
       <c r="M76" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N76" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O76" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P76" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>464</v>
+      </c>
+      <c r="R76" t="s">
         <v>136</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>466</v>
-      </c>
-      <c r="R76" t="s">
-        <v>137</v>
       </c>
       <c r="S76" t="s">
         <v>26</v>
       </c>
       <c r="U76" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z76" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AC76" t="s">
         <v>47</v>
@@ -7576,61 +7579,61 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C77">
         <v>2015</v>
       </c>
       <c r="D77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s">
         <v>82</v>
       </c>
       <c r="L77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M77" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N77" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O77" t="s">
+        <v>468</v>
+      </c>
+      <c r="P77" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>323</v>
+      </c>
+      <c r="U77" t="s">
+        <v>137</v>
+      </c>
+      <c r="W77" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB77" t="s">
         <v>470</v>
-      </c>
-      <c r="P77" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>325</v>
-      </c>
-      <c r="U77" t="s">
-        <v>138</v>
-      </c>
-      <c r="W77" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>472</v>
       </c>
       <c r="AC77" t="s">
         <v>47</v>
@@ -7641,67 +7644,67 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C78">
         <v>2013</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E78" t="s">
+        <v>409</v>
+      </c>
+      <c r="F78" t="s">
+        <v>548</v>
+      </c>
+      <c r="G78" t="s">
+        <v>546</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J78" t="s">
         <v>411</v>
       </c>
-      <c r="F78" t="s">
-        <v>550</v>
-      </c>
-      <c r="G78" t="s">
-        <v>548</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J78" t="s">
-        <v>413</v>
-      </c>
       <c r="K78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s">
-        <v>108</v>
+        <v>597</v>
       </c>
       <c r="M78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N78" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P78" t="s">
         <v>61</v>
       </c>
       <c r="Q78" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S78" t="s">
         <v>25</v>
       </c>
       <c r="U78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W78" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB78" t="s">
         <v>476</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>478</v>
       </c>
       <c r="AC78" t="s">
         <v>47</v>
@@ -7712,67 +7715,67 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C79">
         <v>2013</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F79" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N79" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O79" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P79" t="s">
         <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
       </c>
       <c r="U79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W79" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB79" t="s">
         <v>476</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>478</v>
       </c>
       <c r="AC79" t="s">
         <v>47</v>
@@ -7783,55 +7786,55 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C80">
         <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E80" t="s">
+        <v>409</v>
+      </c>
+      <c r="F80" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="J80" t="s">
         <v>411</v>
       </c>
-      <c r="F80" t="s">
-        <v>552</v>
-      </c>
-      <c r="G80" t="s">
-        <v>553</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="J80" t="s">
-        <v>413</v>
-      </c>
       <c r="K80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M80" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N80" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O80" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P80" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>464</v>
+      </c>
+      <c r="R80" t="s">
         <v>136</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>466</v>
-      </c>
-      <c r="R80" t="s">
-        <v>137</v>
       </c>
       <c r="S80" t="s">
         <v>25</v>
@@ -7840,13 +7843,13 @@
         <v>91</v>
       </c>
       <c r="W80" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC80" t="s">
         <v>484</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>485</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>486</v>
       </c>
       <c r="AD80" t="s">
         <v>25</v>
@@ -7854,49 +7857,49 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C81">
         <v>2015</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E81" t="s">
+        <v>409</v>
+      </c>
+      <c r="F81" t="s">
+        <v>554</v>
+      </c>
+      <c r="G81" t="s">
+        <v>552</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J81" t="s">
         <v>411</v>
       </c>
-      <c r="F81" t="s">
-        <v>556</v>
-      </c>
-      <c r="G81" t="s">
-        <v>554</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J81" t="s">
-        <v>413</v>
-      </c>
       <c r="K81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M81" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N81" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O81" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P81" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q81" t="s">
         <v>30</v>
@@ -7908,13 +7911,13 @@
         <v>91</v>
       </c>
       <c r="W81" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y81" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB81" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AC81" t="s">
         <v>47</v>
@@ -7925,49 +7928,49 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C82">
         <v>2015</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E82" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" t="s">
+        <v>554</v>
+      </c>
+      <c r="G82" t="s">
+        <v>552</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J82" t="s">
         <v>411</v>
       </c>
-      <c r="F82" t="s">
-        <v>556</v>
-      </c>
-      <c r="G82" t="s">
-        <v>554</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J82" t="s">
-        <v>413</v>
-      </c>
       <c r="K82" t="s">
+        <v>141</v>
+      </c>
+      <c r="L82" t="s">
         <v>142</v>
       </c>
-      <c r="L82" t="s">
-        <v>143</v>
-      </c>
       <c r="M82" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N82" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O82" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q82" t="s">
         <v>30</v>
@@ -7979,13 +7982,13 @@
         <v>91</v>
       </c>
       <c r="W82" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y82" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB82" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AC82" t="s">
         <v>47</v>
@@ -7996,49 +7999,49 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C83">
         <v>2015</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E83" t="s">
+        <v>409</v>
+      </c>
+      <c r="F83" t="s">
+        <v>554</v>
+      </c>
+      <c r="G83" t="s">
+        <v>552</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J83" t="s">
         <v>411</v>
       </c>
-      <c r="F83" t="s">
-        <v>556</v>
-      </c>
-      <c r="G83" t="s">
-        <v>554</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J83" t="s">
-        <v>413</v>
-      </c>
       <c r="K83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M83" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N83" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O83" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q83" t="s">
         <v>30</v>
@@ -8050,13 +8053,13 @@
         <v>91</v>
       </c>
       <c r="W83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y83" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB83" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AC83" t="s">
         <v>47</v>
@@ -8067,38 +8070,38 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C84">
         <v>2010</v>
       </c>
       <c r="D84" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E84" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" t="s">
+        <v>560</v>
+      </c>
+      <c r="G84" t="s">
+        <v>558</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J84" t="s">
         <v>411</v>
       </c>
-      <c r="F84" t="s">
-        <v>562</v>
-      </c>
-      <c r="G84" t="s">
-        <v>560</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J84" t="s">
-        <v>413</v>
-      </c>
       <c r="K84" t="s">
+        <v>141</v>
+      </c>
+      <c r="L84" t="s">
         <v>142</v>
       </c>
-      <c r="L84" t="s">
-        <v>143</v>
-      </c>
       <c r="M84" t="s">
         <v>73</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>25</v>
       </c>
       <c r="U84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD84" t="s">
         <v>25</v>
@@ -8126,37 +8129,37 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C85">
         <v>2010</v>
       </c>
       <c r="D85" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F85" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G85" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J85" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K85" t="s">
         <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s">
         <v>73</v>
@@ -8177,7 +8180,7 @@
         <v>25</v>
       </c>
       <c r="U85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD85" t="s">
         <v>25</v>
@@ -8185,67 +8188,67 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C86">
         <v>2010</v>
       </c>
       <c r="D86" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E86" t="s">
+        <v>409</v>
+      </c>
+      <c r="F86" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" t="s">
+        <v>561</v>
+      </c>
+      <c r="H86" t="s">
+        <v>594</v>
+      </c>
+      <c r="J86" t="s">
         <v>411</v>
       </c>
-      <c r="F86" t="s">
-        <v>73</v>
-      </c>
-      <c r="G86" t="s">
-        <v>563</v>
-      </c>
-      <c r="H86" t="s">
-        <v>596</v>
-      </c>
-      <c r="J86" t="s">
-        <v>413</v>
-      </c>
       <c r="K86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N86" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O86" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S86" t="s">
         <v>25</v>
       </c>
       <c r="U86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W86" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y86" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AB86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC86" t="s">
         <v>47</v>
@@ -8256,67 +8259,67 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C87">
         <v>2010</v>
       </c>
       <c r="D87" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H87" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K87" t="s">
         <v>82</v>
       </c>
       <c r="L87" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N87" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O87" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P87" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S87" t="s">
         <v>25</v>
       </c>
       <c r="U87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W87" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y87" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AB87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC87" t="s">
         <v>47</v>
@@ -8327,52 +8330,52 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C88">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F88" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G88" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H88" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J88" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K88" t="s">
         <v>62</v>
       </c>
       <c r="L88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M88" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N88" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O88" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P88" t="s">
         <v>61</v>
       </c>
       <c r="Q88" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S88" t="s">
         <v>25</v>
@@ -8381,16 +8384,16 @@
         <v>91</v>
       </c>
       <c r="W88" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="X88" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC88" t="s">
         <v>484</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>502</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>486</v>
       </c>
       <c r="AD88" t="s">
         <v>25</v>
@@ -8398,64 +8401,64 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B89" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C89">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" t="s">
+        <v>408</v>
+      </c>
+      <c r="F89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" t="s">
+        <v>565</v>
+      </c>
+      <c r="H89" t="s">
+        <v>595</v>
+      </c>
+      <c r="J89" t="s">
+        <v>411</v>
+      </c>
+      <c r="K89" t="s">
+        <v>129</v>
+      </c>
+      <c r="L89" t="s">
+        <v>490</v>
+      </c>
+      <c r="M89" t="s">
+        <v>567</v>
+      </c>
+      <c r="N89" t="s">
+        <v>73</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>592</v>
+      </c>
+      <c r="S89" t="s">
+        <v>25</v>
+      </c>
+      <c r="U89" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB89" t="s">
         <v>505</v>
-      </c>
-      <c r="E89" t="s">
-        <v>410</v>
-      </c>
-      <c r="F89" t="s">
-        <v>73</v>
-      </c>
-      <c r="G89" t="s">
-        <v>567</v>
-      </c>
-      <c r="H89" t="s">
-        <v>597</v>
-      </c>
-      <c r="J89" t="s">
-        <v>413</v>
-      </c>
-      <c r="K89" t="s">
-        <v>130</v>
-      </c>
-      <c r="L89" t="s">
-        <v>492</v>
-      </c>
-      <c r="M89" t="s">
-        <v>569</v>
-      </c>
-      <c r="N89" t="s">
-        <v>73</v>
-      </c>
-      <c r="O89" t="s">
-        <v>73</v>
-      </c>
-      <c r="P89" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>594</v>
-      </c>
-      <c r="S89" t="s">
-        <v>25</v>
-      </c>
-      <c r="U89" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>507</v>
       </c>
       <c r="AC89" t="s">
         <v>47</v>
@@ -8466,52 +8469,52 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C90">
         <v>2013</v>
       </c>
       <c r="D90" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E90" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F90" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G90" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H90" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J90" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K90" t="s">
         <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M90" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O90" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P90" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S90" t="s">
         <v>26</v>
@@ -8520,16 +8523,16 @@
         <v>91</v>
       </c>
       <c r="W90" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Y90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AB90" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC90" t="s">
         <v>47</v>
@@ -8540,52 +8543,52 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C91">
         <v>2013</v>
       </c>
       <c r="D91" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E91" t="s">
+        <v>409</v>
+      </c>
+      <c r="F91" t="s">
+        <v>557</v>
+      </c>
+      <c r="G91" t="s">
+        <v>555</v>
+      </c>
+      <c r="H91" t="s">
+        <v>556</v>
+      </c>
+      <c r="J91" t="s">
         <v>411</v>
-      </c>
-      <c r="F91" t="s">
-        <v>559</v>
-      </c>
-      <c r="G91" t="s">
-        <v>557</v>
-      </c>
-      <c r="H91" t="s">
-        <v>558</v>
-      </c>
-      <c r="J91" t="s">
-        <v>413</v>
       </c>
       <c r="K91" t="s">
         <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M91" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O91" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P91" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S91" t="s">
         <v>26</v>
@@ -8594,16 +8597,16 @@
         <v>91</v>
       </c>
       <c r="W91" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Y91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z91" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AB91" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC91" t="s">
         <v>47</v>
@@ -8614,76 +8617,76 @@
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B92" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C92">
         <v>2015</v>
       </c>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E92" t="s">
+        <v>409</v>
+      </c>
+      <c r="F92" t="s">
+        <v>425</v>
+      </c>
+      <c r="G92" t="s">
+        <v>566</v>
+      </c>
+      <c r="H92" t="s">
+        <v>427</v>
+      </c>
+      <c r="J92" t="s">
         <v>411</v>
       </c>
-      <c r="F92" t="s">
-        <v>427</v>
-      </c>
-      <c r="G92" t="s">
-        <v>568</v>
-      </c>
-      <c r="H92" t="s">
-        <v>429</v>
-      </c>
-      <c r="J92" t="s">
-        <v>413</v>
-      </c>
       <c r="K92" t="s">
+        <v>129</v>
+      </c>
+      <c r="L92" t="s">
         <v>130</v>
       </c>
-      <c r="L92" t="s">
-        <v>131</v>
-      </c>
       <c r="M92" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N92" t="s">
+        <v>577</v>
+      </c>
+      <c r="O92" t="s">
         <v>579</v>
       </c>
-      <c r="O92" t="s">
-        <v>581</v>
-      </c>
       <c r="P92" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q92" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="R92" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S92" t="s">
         <v>26</v>
       </c>
       <c r="T92" t="s">
+        <v>434</v>
+      </c>
+      <c r="U92" t="s">
+        <v>234</v>
+      </c>
+      <c r="V92" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC92" t="s">
         <v>436</v>
-      </c>
-      <c r="U92" t="s">
-        <v>236</v>
-      </c>
-      <c r="V92" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>438</v>
       </c>
       <c r="AD92" t="s">
         <v>26</v>
@@ -8691,70 +8694,70 @@
     </row>
     <row r="93" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F93" t="s">
+        <v>425</v>
+      </c>
+      <c r="G93" t="s">
+        <v>566</v>
+      </c>
+      <c r="H93" t="s">
         <v>427</v>
       </c>
-      <c r="G93" t="s">
-        <v>568</v>
-      </c>
-      <c r="H93" t="s">
-        <v>429</v>
-      </c>
       <c r="J93" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K93" t="s">
         <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M93" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N93" t="s">
+        <v>577</v>
+      </c>
+      <c r="O93" t="s">
         <v>579</v>
       </c>
-      <c r="O93" t="s">
-        <v>581</v>
-      </c>
       <c r="P93" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q93" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="R93" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S93" t="s">
         <v>26</v>
       </c>
       <c r="T93" t="s">
+        <v>434</v>
+      </c>
+      <c r="U93" t="s">
+        <v>234</v>
+      </c>
+      <c r="V93" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC93" t="s">
         <v>436</v>
-      </c>
-      <c r="U93" t="s">
-        <v>236</v>
-      </c>
-      <c r="V93" t="s">
-        <v>521</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>438</v>
       </c>
       <c r="AD93" t="s">
         <v>26</v>
@@ -8762,10 +8765,10 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C94">
         <v>2014</v>
@@ -8774,49 +8777,49 @@
         <v>58</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F94" t="s">
+        <v>429</v>
+      </c>
+      <c r="G94" t="s">
+        <v>430</v>
+      </c>
+      <c r="H94" t="s">
         <v>431</v>
       </c>
-      <c r="G94" t="s">
-        <v>432</v>
-      </c>
-      <c r="H94" t="s">
-        <v>433</v>
-      </c>
       <c r="J94" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K94" t="s">
         <v>28</v>
       </c>
       <c r="L94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M94" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N94" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O94" t="s">
         <v>73</v>
       </c>
       <c r="P94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q94" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S94" t="s">
         <v>25</v>
       </c>
       <c r="U94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AD94" t="s">
         <v>25</v>
@@ -8824,10 +8827,10 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B95" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C95">
         <v>2014</v>
@@ -8836,46 +8839,46 @@
         <v>58</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F95" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" t="s">
+        <v>430</v>
+      </c>
+      <c r="H95" t="s">
         <v>431</v>
       </c>
-      <c r="G95" t="s">
-        <v>432</v>
-      </c>
-      <c r="H95" t="s">
-        <v>433</v>
-      </c>
       <c r="J95" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O95" t="s">
         <v>73</v>
       </c>
       <c r="P95" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S95" t="s">
         <v>25</v>
       </c>
       <c r="U95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD95" t="s">
         <v>25</v>
@@ -8883,31 +8886,31 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C96">
         <v>2013</v>
       </c>
       <c r="D96" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F96" t="s">
         <v>73</v>
       </c>
       <c r="G96" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H96" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J96" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K96" t="s">
         <v>62</v>
@@ -8916,10 +8919,10 @@
         <v>63</v>
       </c>
       <c r="M96" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N96" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O96" t="s">
         <v>43</v>
@@ -8928,19 +8931,19 @@
         <v>73</v>
       </c>
       <c r="Q96" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S96" t="s">
         <v>26</v>
       </c>
       <c r="T96" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AB96" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AC96" t="s">
         <v>47</v>
@@ -8951,76 +8954,76 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B97" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C97">
         <v>2015</v>
       </c>
       <c r="D97" t="s">
+        <v>447</v>
+      </c>
+      <c r="E97" t="s">
+        <v>409</v>
+      </c>
+      <c r="F97" t="s">
         <v>449</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
+        <v>448</v>
+      </c>
+      <c r="H97" t="s">
+        <v>450</v>
+      </c>
+      <c r="J97" t="s">
         <v>411</v>
       </c>
-      <c r="F97" t="s">
-        <v>451</v>
-      </c>
-      <c r="G97" t="s">
-        <v>450</v>
-      </c>
-      <c r="H97" t="s">
-        <v>452</v>
-      </c>
-      <c r="J97" t="s">
-        <v>413</v>
-      </c>
       <c r="K97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M97" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N97" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q97" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="R97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S97" t="s">
         <v>26</v>
       </c>
       <c r="T97" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V97" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="X97" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Y97" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB97" t="s">
         <v>516</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>518</v>
       </c>
       <c r="AC97" t="s">
         <v>47</v>
@@ -9031,76 +9034,76 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C98">
         <v>2015</v>
       </c>
       <c r="D98" t="s">
+        <v>447</v>
+      </c>
+      <c r="E98" t="s">
+        <v>409</v>
+      </c>
+      <c r="F98" t="s">
         <v>449</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
+        <v>448</v>
+      </c>
+      <c r="H98" t="s">
+        <v>450</v>
+      </c>
+      <c r="J98" t="s">
         <v>411</v>
-      </c>
-      <c r="F98" t="s">
-        <v>451</v>
-      </c>
-      <c r="G98" t="s">
-        <v>450</v>
-      </c>
-      <c r="H98" t="s">
-        <v>452</v>
-      </c>
-      <c r="J98" t="s">
-        <v>413</v>
       </c>
       <c r="K98" t="s">
         <v>28</v>
       </c>
       <c r="L98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M98" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N98" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O98" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q98" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="R98" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S98" t="s">
         <v>26</v>
       </c>
       <c r="T98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V98" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="X98" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Y98" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB98" t="s">
         <v>516</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>518</v>
       </c>
       <c r="AC98" t="s">
         <v>47</v>

--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -2453,10 +2453,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7603,10 +7603,10 @@
         <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="K77" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s">
         <v>192</v>

--- a/data/ceus-r1/rawdata-ceus-R1.xlsx
+++ b/data/ceus-r1/rawdata-ceus-R1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="630">
   <si>
     <t>p.id</t>
   </si>
@@ -807,9 +807,6 @@
   </si>
   <si>
     <t>A New Geospatial Services Framework: How Disaster Preparedness Efforts Should Integrate Neogeography</t>
-  </si>
-  <si>
-    <t>http://www.tandfonline.com/doi/full/10.1080/15420353.2012.670084#.U7ufcvl_tUU</t>
   </si>
   <si>
     <t>urban planning; disaster preparedness; neogeography; participatory planning; local government</t>
@@ -2026,6 +2023,105 @@
   </si>
   <si>
     <t>extract event-related information</t>
+  </si>
+  <si>
+    <t>Location information is critical to understanding the impact of a disaster, including where the damage is, where people need assistance and where help is available. We investigate the feasibility of applying Named Entity Recognizers to extract locations from microblogs, at the level of both geo-location and point-of-interest. Our experimental results show that such tools once retrained on microblog data have great potential to detect the where information, even at the granularity of point-of-interest.</t>
+  </si>
+  <si>
+    <t>In this article, work in progress on a system for rapid aerial mapping is presented. We believe that a tool able to quickly generate an up-to-date high resolution aerial view, e.g. shortly after a natural disaster or a big incident occurs, can be a highly valuable asset to help first responders in the decision making. The presented work focuses on the path planning capabilities of the system, together with the area partitioning and workload distribution among a team of multi-rotor unmanned aircraft. Sensor footprint and range of the involved aircraft may differ. The presented approach is based on an approximate cellular decomposition of the area of interest. The results of this work will be integrated into an existing system which already provides a mobile ground control station able to supervise and control multiple sensor carriers.</t>
+  </si>
+  <si>
+    <t>Preserving social Web datasets is a crucial part of research work for disaster management based on information from social media. This paper describes the Michinoku Shinrokuden disaster archive project, mainly dedicated to archiving data from the 2011 Great East Japan Earthquake and its aftermath. Social websites should of course be part of this archive. We discuss issues in archiving social websites for the disaster management research communities and introduce our vision for Michinoku Shinrokuden.</t>
+  </si>
+  <si>
+    <t>In this paper, we investigate the potential of social media to provide rapid insights into the location and extent of damage associated with two recent earthquakes - the 2011 Tohoku earthquake in Japan and the 2011 Christchurch earthquake in New Zealand. Concretely, we (i) assess and model the spatial coverage of social media; and (ii) study the density and dynamics of social media in the aftermath of these two earthquakes. We examine the difference between text tweets and media tweets (containing links to images and videos), and investigate tweet density, re-tweet density, and user tweeting count to estimate the epicenter and to model the intensity attenuation of each earthquake. We find that media tweets provide more valuable location information, and that the relationship between social media activity vs. loss/damage attenuation suggests that social media following a catastrophic event can provide rapid insight into the extent of damage.</t>
+  </si>
+  <si>
+    <t>In this paper, we present our approach to developing a proof-of-concept Dynamic Adaptive Disaster Simulation (DADS), a system capable of predicting population movements in large-scale disasters by analyzing real-time cell phone data. It has been difficult for existing computer models to accomplish such tasks-they are often too inflexible to make realistic forecasts in complex scenarios. This has led to reactive, uninformed emergency response tactics with disastrous consequences. DADS resolves these issues by continuously updating simulations with real-time data. It accomplishes this by tracing movements of cell phone users on a GIS space, then using geospatial simulation algorithms to infer regional preferences. Inferences are incorporated into agent-based simulations which model future population movements through fluid dynamics principles. Due to privacy concerns, this research utilized synthetic data that were generated to mimic the cell phone location data associated with a recent disaster. Validation techniques such as Manhattan distance show that the simulation is both internally and predictively valid. DADS can adaptively generate accurate movement predictions in disaster situations, demonstrating a modeling paradigm that is highly applicable to population modeling and to other disciplinesof computer simulation.</t>
+  </si>
+  <si>
+    <t>A core issue in crisis management is to extract from the mass of incoming information what is important for situational awareness during mass emergencies. Based on a case study we develop a prototypical application, TweetComp1, which is integrated into the decision-support component of a Tsunami early warning system and demonstrates the applicability of our approach. This paper describes four novel approaches using focused twitter crawling, trustworthiness analysis, geo-parsing, and multilingual tweet classification in the context of how they could be used for monitoring crises. The validity of our state-of-the art text mining and network analysis technologies will be verified in different experiments based on a human annotated gold standard corpus.</t>
+  </si>
+  <si>
+    <t>Fine scale disaster response and recovery data suitable for spatial analysis are still relatively rare. This is unfortunate as insight into spatial patterns of recovery could be invaluable in predicting the reestablishment of homes, streets and neighborhoods. The purpose of this paper is to show how fine scale geographic data can be collected in near real-time for the intermediate phase between response and recovery. These data will initially be used to assess the degree of damage (with relation to the Enhanced F scale) while also establishing a baseline for subsequent recovery monitoring. A spatial video system is used to collect data from the post-disaster landscape of Tuscaloosa which was hit by a large tornado in April 2011. This video, once processed, can be viewed within a Geographic Information System which combines street-level images with exact location. These data can be used to support ongoing recovery efforts, while also archiving a dataset suitable for the spatial analysis of the changing post-disaster landscape.</t>
+  </si>
+  <si>
+    <t>Service-based geographic information system (GIS) technologies can enable an openarchitecture cyberinfrastructure to provide standards-compliant data products and computing services for both earthquake research and disaster planning and response. Here, a service-based GIS framework is evaluated using examples from two earthquake science projects: QuakeSim and E-Decider.</t>
+  </si>
+  <si>
+    <t>This paper describes the evolution of recent work on using crowdsourced analysis of remote sensing imagery, particularly high-resolution aerial imagery, to provide rapid, reliable assessments of damage caused by earthquakes and potentially other disasters. The initial effort examined online imagery taken after the 2008 Wenchuan, China, earthquake. A more recent response to the 2010 Haiti earthquake led to the formation of an international consortium: the Global Earth Observation Catastrophe Assessment Network (GEO-CAN). The success of GEO-CAN in contributing to the official damage assessments made by the Government of Haiti, the United Nations, and the World Bank led to further development of a webbased interface. A current initiative in Christchurch, New Zealand, is underway where remote sensing experts are analyzing satellite imagery, geotechnical engineers are marking liquefaction areas, and structural engineers are identifying building damage. The current site includes online training to improve the accuracy of the assessments and make it possible for even novice users to contribute to the crowdsourced solution. The paper discusses lessons learned from these initiatives and presents a way forward for using crowdsourced remote sensing as a tool for rapid assessment of damage caused by natural disasters around the world.</t>
+  </si>
+  <si>
+    <t>Large amounts of unverified and at times contradictory information often appear on social media following natural disasters. Timely verification of this information can be crucial to saving lives and for coordinating relief efforts. Our goal is to enable this verification by developing an online platform that involves ordinary citizens in the evidence gathering and evaluation process. The output of this platform will provide reliable information to humanitarian organizations, journalists, and decision makers involved in relief efforts.</t>
+  </si>
+  <si>
+    <t>This paper describes early work at developing an earthquake detector for Australia and New Zealand using Twitter. The system is based on the Emergency Situation Awareness (ESA) platform which provides all-hazard information captured, filtered and analysed from Twitter. The detector sends email notifications of evidence of earthquakes from Tweets to the Joint Australian Tsunami Warning Centre. The earthquake detector uses the ESA platform to monitor Tweets and checks for specific earthquake related alerts. The Tweets that contribute to an alert are then examined to determine their locations: when the Tweets are identified as being geographically close and the retweet percentage is low an email notification is generated. The earthquake detector has been in operation since December 2012 with 31 notifications generated where 17 corresponded with real, although minor, earthquake events. The remaining 14 were a result of discussions about earthquakes but not prompted by an event. A simple modification to our algorithm results in 20 notifications identifying the same 17 real events and reducing the false positives to 3. Our detector is sensitive in that it can generate alerts from only a few Tweets when they are determined to be geographically close.</t>
+  </si>
+  <si>
+    <t>Social media are becoming an important instrument for supporting crisis management, due to their broad acceptance and the intensive usage of mobile devices for accessing them. Social platforms facilitate collaboration among the public during a crisis and also support after-the-fact analysis. Thus, social media are useful for the processes of understanding, learning, and decision making. In particular, having information from social networks in a suitable, ideally summarized, form can speed up such processes. The present study relies on Flickr and YouTube as social media and aims at automatically identifying individual sub-events within a crisis situation. The study applies a two-phase clustering approach to detect those sub-events. The first phase uses geo-referenced data to locate a sub-event, while the second phase uses the natural language descriptions of pictures and videos to further identify the ”what-about” of those sub-events. The results show high potential of this social media-based clustering approach for detecting crisis-related sub-events.</t>
+  </si>
+  <si>
+    <t>This paper describes ongoing work with the Australian Government to assemble information from a collection of web feeds describing emergency incidents of interest for emergency managers. The developed system, the Emergency Response Intelligence Capability (ERIC) tool, has been used to gather information about emergency events during the Australian summer of 2012/13. The web feeds are an authoritative source of structured information summarising incidents that includes links to emergency services web sites containing further details about the events underway. The intelligence obtained using ERIC for a specific fire event has been compared with information that was available in Twitter using the Emergency Situation Awareness (ESA) platform. This information would have been useful as a new source of intelligence: it was reported faster than via the web feed, contained more specific event information, included details of impact to the community, was updated more frequently, included information from the public and remains available as a source of information long after the web feed contents have been removed.</t>
+  </si>
+  <si>
+    <t>The effectiveness of emergency response largely depends on having a precise, up-to-date situational picture. With the World Wide Web having evolved from a small read-only text collection to a large-scale collection of socially created data accessible both to machines and humans alike, with the advent of social media and ubiquitous mobile applications, new sources of information are available. Currently, that potentially valuable information remains mostly unused by the command staff, mainly because the sheer amount of information cannot be handled efficiently. In this paper, we show an approach for turning massive amounts of unstructured citizen-generated content into relevant information supporting the command staff in making better informed decisions. We leverage Linked Open Data and crowdsourcing for processing data from social media, and we show how the combination of human intelligence in the crowd and automatic approaches for enhancing the situational picture with Linked Open Data will lead to a Web 3.0 approach for more efficient information handling in crisis management.</t>
+  </si>
+  <si>
+    <t>Up-to-date geospatial information can help crisis management community to coordinate its response. In addition to data that is created and curated by experts, there is an abundance of user-generated, user-curated data on Social Web sites such as Flickr, Delicious, and Google Earth, that can be used to harvest knowledge to solve real-world problems. User-generated, or social, metadata can be used to learn concepts and relations between them that can improve information discovery, and data integration and management. We describe a method that aggregates social metadata created by thousands of users of the social photo-sharing site Flickr to learn geospatial concepts and relations. Our method leverages geotagged data to represent and reason about places. We evaluate learned geospatial relations by comparing them to a reference ontology provided by GeoNames.org. We show that our approach achieves good performance and also learns useful information that does not appear in the reference ontology.</t>
+  </si>
+  <si>
+    <t>In order to sense and analyze disaster information from social media, microblogs as sources of social data have recently attracted attention. In this paper, we attempt to discover geolocation information from microblog messages to assess disasters. Since microblog services are more timely compared to other social media, understanding the geolocation information of each microblog message is useful for quickly responding to a sudden disasters. Some microblog services provide a function for adding geolocation information to messages from mobile device equipped with GPS detectors. However, few users use this function, so most messages do not have geolocation information. Therefore, we attempt to discover the location where a message was generated by using its textual content. The proposed method learns associations between a location and its relevant keywords from past messages, and guesses where a new message came from.</t>
+  </si>
+  <si>
+    <t>In recent disaster events, social media has proven to be an effective communication tool for affected people. The corpus of generated messages contains valuable information about the situation, needs, and locations of victims. We propose an approach to extract significant aspects of user discussions to better inform responders and enable an appropriate response. The methodology combines location based division of users together with standard text mining (term frequency inverse document frequency) to identify important topics of conversation in a dynamic geographic network. We further suggest that both topics and movement patterns change during a disaster, which requires identification of new trends. When applied to an area that has suffered a disaster, this approach can provide ‘sensemaking’ through insights into where people are located, where they are going and what they communicate when moving.</t>
+  </si>
+  <si>
+    <t>Geographically-grounded situational awareness (SA) is critical to crisis management and is essential in many other decision making domains that range from infectious disease monitoring, through regional planning, to political campaigning. Social media are becoming an important information input to support situational assessment (to produce awareness) in all domains. Here, we present a geovisual analytics approach to supporting SA for crisis events using one source of social media, Twitter. Specifically, we focus on leveraging explicit and implicit geographic information for tweets, on developing place-time-theme indexing schemes that support overview+detail methods and that scale analytical capabilities to relatively large tweet volumes, and on providing visual interface methods to enable understanding of place, time, and theme components of evolving situations. Our approach is user-centered, using scenario-based design methods that include formal scenarios to guide design and validate implementation as well as a systematic claims analysis to justify design choices and provide a framework for future testing. The work is informed by a structured survey of practitioners and the end product of Phase-I development is demonstrated / validated through implementation in SensePlace2, a map-based, web application initially focused on tweets but extensible to other media.</t>
+  </si>
+  <si>
+    <t>Using tweets extracted from Twitter during the Australian 2010-2011 floods, social network analysis techniques were used to generate and analyse the online networks that emerged at that time. The aim was to develop an understanding of the online communities for the Queensland, New South Wales and Victorian floods in order to identify active players and their effectiveness in disseminating critical information. A secondary goal was to identify important online resources disseminated by these communities. Important and effective players during the Queensland floods were found to be: local authorities (mainly the Queensland Police Services), political personalities (Queensland Premier, Prime Minister, Opposition Leader, Member of Parliament), social media volunteers, traditional media reporters, and people from not-for-profit, humanitarian, and community associations. A range of important resources were identified during the Queensland flood; however, they appeared to be of a more general information nature rather than vital information and updates on the disaster. Unlike Queensland, there was no evidence of Twitter activity from the part of local authorities and the government in the New South Wales and Victorian floods. Furthermore, the level of Twitter activity during the NSW floods was almost nil. Most of the active players during the NSW and Victorian floods were volunteers who were active during the Queensland floods. Given the positive results obtained by the active involvement of the local authorities and government officials in Queensland, and the increasing adoption of Twitter in other parts of the world for emergency situations, it seems reasonable to push for greater adoption of Twitter from local and federal authorities Australia-wide during periods of mass emergencies.</t>
+  </si>
+  <si>
+    <t>We developed an intelligent information visualization tool to enable public health officials to detect healthrelated trends in any geographic area of interest, based on Twitter data. Monitoring emergent events such as natural disasters, disease outbreaks, and terrorism is vital for protecting public health. Our goal is to support situation awareness (SA) for personnel responsible for early detection and response to public health threats. To achieve this goal, our application identifies the most frequently tweeted illnesses in a ranked chart and map for a selected geographic area. Automated processes mine and filter health-related tweets, visualize changes in rankings over time, and present other keywords frequently associated with each illness. User-centered visualization techniques of monitoring, inspecting, exploring, comparing and forecasting supports all the three stages of SA. An evaluation conducted with experts in health-related domains provided significant insights about awareness of localized health trends and their practical use in their daily work.</t>
+  </si>
+  <si>
+    <t>In this paper, we present Twitcident, a framework and Web-based system for filtering, searching and analyzing information about real-world incidents or crises. Twitcident connects to emergency broadcasting services and automatically starts tracking and filtering information from Social Web streams (Twitter) when a new incident occurs. It enriches the semantics of streamed Twitter messages to profile incidents and to continuously improve and adapt the information filtering to the current temporal context. Faceted search and analytical tools allow users to retrieve particular information fragments and overview and analyze the current situation as reported on the Social Web.</t>
+  </si>
+  <si>
+    <t>The proliferation of social media has led to the emergence of a new type of geospatial information that defies the conventions of authoritative or volunteered geographic information, yet can be harvested to reveal unique and dynamic information about people and their activities. In this paper we address the identification and mapping of global virtual communities formed around issues of specific national interest. We refer to these connected virtual communities formed around issues related to a specific state as the polycentric virtual equivalent of that state. Identifying, mapping, and analyzing these virtual communities is a novel challenge for our community, and this is the subject we pursue in this paper. We present these communities relative to established conventions of statehood, address the harvesting of relevant geographical information from social media feeds, and discuss the challenge of visualizing such information. In order to do so we use the current geopolitical situation in Syria as a demonstrative example.</t>
+  </si>
+  <si>
+    <t>City-scale mass gatherings attract hundreds of thousands of pedestrians. These pedestrians need to be monitored constantly to detect critical crowd situations at an early stage and to mitigate the risk that situations evolve towards dangerous incidents. Hereby, the crowd density is an important characteristic to assess the criticality of crowd situations. In this work, we consider location-aware smartphones for monitoring crowds during mass gatherings as an alternative to established video-based solutions. We follow a participatory sensing approach in which pedestrians share their locations on a voluntary basis. As participation is voluntarily, we can assume that only a fraction of all pedestrians shares location information. This raises a challenge when concluding about the crowd density. We present a methodology to infer the crowd density even if only a limited set of pedestrians share their locations. Our methodology is based on the assumption that the walking speed of pedestrians depends on the crowd density. By modeling this behavior, we can infer a crowd density estimation. We evaluate our methodology with a real-world data set collected during the Lord Mayor’s Show 2011 in London. This festival attracts around half a million spectators and we obtained the locations of 828 pedestrians. With this data set, we first verify that the walking speed of pedestrians depends on the crowd density. In particular, we identify a crowd density-dependent upper limit speed with which pedestrians move through urban spaces. We then evaluate the accuracy of our methodology by comparing our crowd density estimates to ground truth information obtained from video cameras used by the authorities. We achieve an average calibration error of 0.36 m–2 and confirm the appropriateness of our model. With a discussion of the limitations of our methodology, we identify the area of application and conclude that smartphones are a promising tool for crowd monitoring.</t>
+  </si>
+  <si>
+    <t>We investigate the extent to which social ties between people can be inferred from co-occurrence in time and space: Given that two people have been in approximately the same geographic locale at approximately the same time, on multiple occasions, how likely are they to know each other? Furthermore, how does this likelihood depend on the spatial and temporal proximity of the co-occurrences? Such issues arise in data originating in both online and offline domains as well as settings that capture interfaces between online and offline behavior. Here we develop a framework for quantifying the answers to such questions, and we apply this framework to publicly available data from a social media site, finding that even a very small number of co-occurrences can result in a high empirical likelihood of a social tie. We then present probabilistic models showing how such large probabilities can arise from a natural model of proximity and co-occurrence in the presence of social ties. In addition to providing a method for establishing some of the first quantifiable estimates of these measures, our findings have potential privacy implications, particularly for the ways in which social structures can be inferred from public online records that capture individuals’ physical locations over time.</t>
+  </si>
+  <si>
+    <t>In recent years, the large deployment of mobile devices has led to a massive increase in the volume of records of where people have been and when they were there. The analysis of these spatio-temporal data can supply high-level human behavior information valuable to urban planners, local authorities, and designer of location-based services. In this paper, we describe our approach to collect and analyze the history of physical presence of tourists from the digital footprints they publicly disclose on the web. Our work takes place in the Province of Florence in Italy, where the insights on the visitors’ flows and on the nationalities of the tourists who do not sleep in town has been limited to information from survey-based hotel and museums frequentation. In fact, most local authorities in the world must face this dearth of data on tourist dynamics. In this case study, we used a corpus of geographically referenced photos taken in the province by 4280 photographers over a period of 2 years. Based on the disclosure of the location of the photos, we design geovisualizations to reveal the tourist concentration and spatiotemporal flows. Our initial results provide insights on the density of tourists, the points of interests they visit as well as the most common trajectories they follow.</t>
+  </si>
+  <si>
+    <t>The remarkable success of online social media sites marks a shift in the way people connect and share information. Much of this information now contains some form of geographical content because of the proliferation of location-aware devices, thus fostering the emergence of geosocial media – a new type of user-generated geospatial information. Through geosocial media we are able, for the first time, to observe human activities in scales and resolutions that were so far unavailable. Furthermore, the wide spectrum of social media data and service types provides a multitude of perspectives on real-world activities and happenings, thus opening new frontiers in geosocial knowledge discovery. However, gleaning knowledge from geosocial media is a challenging task, as they tend to be unstructured and thematically diverse. To address these challenges, this article presents a system prototype for harvesting, processing, modeling, and integrating heterogeneous social media feeds towards the generation of geosocial knowledge. Our article addresses primarily two key components of this system prototype: a novel data model for heterogeneous social media feeds and a corresponding general system architecture. We present these key components and demonstrate their implementation in our system prototype, GeoSocial Gauge.</t>
+  </si>
+  <si>
+    <t>Several studies show the impacts of (geo)social media and Volunteered Geographic Information (VGI) during crisis events, and have found intrinsic value for rescue teams, relief workers and humanitarian assistance coordinators, as well as the affected population. The main challenge is how emergency management and the public can capitalize on the abundance of this new source of information by reducing the volume to credible and relevant content. In this paper, we present the GeoCONAVI (Geographic CONtext Analysis for Volunteered Information) approach and a prototype system, designed to retrieve, process, analyze and evaluate social media content on forest fires, producing relevant, credible and actionable VGI usable for crisis events. The novelty of the approach lies in the enrichment of the content with additional geographic context information, and use of spatio-temporal clustering to support scoring and validation. Thus, the system is focusing on integrating authoritative data sources with VGI. Evaluation in case studies shows that the prototype system can handle large amounts of data with common-off-the-shelf hardware, produces valuable results, and is adaptable to other types of crisis events.</t>
+  </si>
+  <si>
+    <t>An exploratory study of the potential of georeferenced Twitter data (using tweets from Seattle-area residents over a two-month period) extracts knowledge about people’s everyday life.</t>
+  </si>
+  <si>
+    <t>Social media is already a fixture for reporting for many journalists, especially around breaking news events where non-professionals may already be on the scene to share an eyewitness report, photo, or video of the event. At the same time, the huge amount of content posted in conjunction with such events serves as a challenge to finding interesting and trustworthy sources in the din of the stream. In this paper we develop and investigate new methods for filtering and assessing the verity of sources found through social media by journalists. We take a human centered design approach to developing a system, SRSR (“Seriously Rapid Source Review”), informed by journalistic practices and knowledge of information production in events. We then used the system, together with a realistic reporting scenario, to evaluate the filtering and visual cue features that we developed. Our evaluation offers insights into social media information sourcing practices and challenges, and highlights the role technology can play in the solution.</t>
+  </si>
+  <si>
+    <t>Social movements rely in large measure on networked communication technologies to organize and disseminate information relating to the movements’ objectives. In this work we seek to understand how the goals and needs of a protest movement are reflected in the geographic patterns of its communication network, and how these patterns differ from those of stable political communication. To this end, we examine an online communication network reconstructed from over 600,000 tweets from a thirty-six week period covering the birth and maturation of the American anticapitalist movement, Occupy Wall Street. We find that, compared to a network of stable domestic political communication, the Occupy Wall Street network exhibits higher levels of locality and a hub and spoke structure, in which the majority of non-local attention is allocated to high-profile locations such as New York, California, and Washington D.C. Moreover, we observe that information flows across state boundaries are more likely to contain framing language and references to the media, while communication among individuals in the same state is more likely to reference protest action and specific places and times. Tying these results to social movement theory, we propose that these features reflect the movement’s efforts to mobilize resources at the local level and to develop narrative frames that reinforce collective purpose at the national level.</t>
+  </si>
+  <si>
+    <t>Crowdsourcing has become a popular means to acquire data about the Earth and its environment inexpensively, but the data-sets obtained are typically imperfect and of unknown quality. Two common imperfections with crowdsourced data are the contributions from cheats or spammers and missing cases. The effect of the latter two imperfections on a method to evaluate the accuracy of crowdsourced data via a latent class model was explored. Using simulated and real data-sets, it was shown that the method is able to derive useful information on the accuracy of crowdsourced data even when the degree of imperfection was very high. The practical potential of this ability to obtain accuracy information within the geospatial sciences and the realm of Digital Earth applications was indicated with reference to an evaluation of building damage maps produced by multiple bodies after the 2010 earthquake in Haiti. Critically, the method allowed data-sets to be ranked in approximately the correct order of accuracy and this could help ensure that the most appropriate data-sets are used.</t>
+  </si>
+  <si>
+    <t>Geospatial technologies can be used in many intervention stages, from adaptation to disaster relief, and also in disaster response situations. These technological tools have been shown to have a transformative power on the quality and efficacy of response efforts. This paper focuses on the risk reduction phase. This phase is a continuous endeavor aimed at increasing resilience. For example, in the aftermath of the 2010 Haiti earthquake, groups of remotely stationed volunteers remapped Haiti using satellite imagery. Forces on the ground used this imagery to print maps using OpenStreetMap (OSM). Using cell-phone text messages, Short Message Service (SMS) response forces were able to locate and rescue citizens. The Ushahidi platform and OSM created a new paradigm for disaster response in which residents take the lead in operations. Unfortunately, this was able to happen only after the disaster hit. The following paper suggests a roadmap for the integration of crowd-sourcing tools and geospatial collaboration for the disaster preparedness phase. This multitiered proposal connects proper planning processes that engage the community, reduce risk, and ultimately provide for a more resilient community. The paper also aims to take the new disaster response paradigm and use it in the urban planning process. Rather than being a separate process, the disaster preparedness phase should enhance and strengthen communities, resulting in their becoming stronger and more resilient.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/15420353.2012.670084</t>
   </si>
 </sst>
 </file>
@@ -2453,10 +2549,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,8 +2561,8 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="73.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.140625" bestFit="1" customWidth="1"/>
@@ -2501,22 +2597,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -2525,13 +2621,13 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N1" t="s">
         <v>419</v>
       </c>
-      <c r="N1" t="s">
-        <v>420</v>
-      </c>
       <c r="O1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -2593,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -2602,25 +2698,25 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -2661,7 +2757,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -2670,10 +2766,10 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -2682,13 +2778,13 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2729,19 +2825,19 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H4" t="s">
         <v>521</v>
       </c>
-      <c r="H4" t="s">
-        <v>522</v>
-      </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
@@ -2750,16 +2846,16 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q4" t="s">
         <v>44</v>
@@ -2797,7 +2893,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -2805,11 +2901,14 @@
       <c r="G5" t="s">
         <v>49</v>
       </c>
+      <c r="H5" t="s">
+        <v>597</v>
+      </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -2818,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -2862,7 +2961,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -2870,11 +2969,14 @@
       <c r="G6" t="s">
         <v>59</v>
       </c>
+      <c r="H6" t="s">
+        <v>598</v>
+      </c>
       <c r="I6" t="s">
         <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K6" t="s">
         <v>62</v>
@@ -2883,7 +2985,7 @@
         <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2924,7 +3026,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2932,8 +3034,11 @@
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="H7" t="s">
+        <v>599</v>
+      </c>
       <c r="J7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K7" t="s">
         <v>74</v>
@@ -2942,10 +3047,10 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O7" t="s">
         <v>70</v>
@@ -2980,7 +3085,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2988,20 +3093,23 @@
       <c r="G8" t="s">
         <v>81</v>
       </c>
+      <c r="H8" t="s">
+        <v>600</v>
+      </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O8" t="s">
         <v>179</v>
@@ -3045,7 +3153,7 @@
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -3054,19 +3162,19 @@
         <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -3107,7 +3215,7 @@
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -3115,8 +3223,11 @@
       <c r="G10" t="s">
         <v>94</v>
       </c>
+      <c r="H10" t="s">
+        <v>601</v>
+      </c>
       <c r="J10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
@@ -3125,7 +3236,7 @@
         <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3134,10 +3245,10 @@
         <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R10" t="s">
         <v>45</v>
@@ -3172,7 +3283,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3180,26 +3291,29 @@
       <c r="G11" t="s">
         <v>106</v>
       </c>
+      <c r="H11" t="s">
+        <v>602</v>
+      </c>
       <c r="J11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O11" t="s">
         <v>178</v>
       </c>
       <c r="P11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
@@ -3234,7 +3348,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3242,8 +3356,11 @@
       <c r="G12" t="s">
         <v>106</v>
       </c>
+      <c r="H12" t="s">
+        <v>602</v>
+      </c>
       <c r="J12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
@@ -3252,16 +3369,16 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O12" t="s">
         <v>178</v>
       </c>
       <c r="P12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
@@ -3296,7 +3413,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F13" t="s">
         <v>107</v>
@@ -3304,26 +3421,29 @@
       <c r="G13" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H13" t="s">
+        <v>602</v>
+      </c>
       <c r="J13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O13" t="s">
         <v>178</v>
       </c>
       <c r="P13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q13" t="s">
         <v>30</v>
@@ -3349,7 +3469,7 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -3358,7 +3478,7 @@
         <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F14" t="s">
         <v>112</v>
@@ -3366,8 +3486,11 @@
       <c r="G14" t="s">
         <v>111</v>
       </c>
+      <c r="H14" t="s">
+        <v>603</v>
+      </c>
       <c r="J14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
@@ -3376,10 +3499,10 @@
         <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O14" t="s">
         <v>113</v>
@@ -3388,7 +3511,7 @@
         <v>61</v>
       </c>
       <c r="Q14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S14" t="s">
         <v>25</v>
@@ -3417,7 +3540,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" t="s">
         <v>119</v>
@@ -3425,11 +3548,14 @@
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="H15" t="s">
+        <v>604</v>
+      </c>
       <c r="I15" t="s">
         <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" t="s">
         <v>62</v>
@@ -3438,10 +3564,10 @@
         <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -3485,7 +3611,7 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F16" t="s">
         <v>119</v>
@@ -3493,11 +3619,14 @@
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="H16" t="s">
+        <v>604</v>
+      </c>
       <c r="I16" t="s">
         <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K16" t="s">
         <v>141</v>
@@ -3506,10 +3635,10 @@
         <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O16" t="s">
         <v>73</v>
@@ -3550,31 +3679,31 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O17" t="s">
         <v>125</v>
@@ -3615,19 +3744,19 @@
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F18" t="s">
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K18" t="s">
         <v>129</v>
@@ -3636,10 +3765,10 @@
         <v>130</v>
       </c>
       <c r="M18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O18" t="s">
         <v>125</v>
@@ -3680,31 +3809,31 @@
         <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O19" t="s">
         <v>125</v>
@@ -3742,7 +3871,7 @@
         <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
@@ -3751,10 +3880,10 @@
         <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K20" t="s">
         <v>129</v>
@@ -3763,10 +3892,10 @@
         <v>139</v>
       </c>
       <c r="M20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
@@ -3775,7 +3904,7 @@
         <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R20" t="s">
         <v>136</v>
@@ -3810,7 +3939,7 @@
         <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F21" t="s">
         <v>73</v>
@@ -3819,10 +3948,10 @@
         <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K21" t="s">
         <v>90</v>
@@ -3831,10 +3960,10 @@
         <v>153</v>
       </c>
       <c r="M21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
@@ -3843,7 +3972,7 @@
         <v>135</v>
       </c>
       <c r="Q21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R21" t="s">
         <v>136</v>
@@ -3875,7 +4004,7 @@
         <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" t="s">
         <v>149</v>
@@ -3883,8 +4012,11 @@
       <c r="G22" t="s">
         <v>147</v>
       </c>
+      <c r="H22" t="s">
+        <v>605</v>
+      </c>
       <c r="J22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K22" t="s">
         <v>90</v>
@@ -3893,16 +4025,16 @@
         <v>153</v>
       </c>
       <c r="M22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O22" t="s">
         <v>150</v>
       </c>
       <c r="P22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q22" t="s">
         <v>73</v>
@@ -3940,7 +4072,7 @@
         <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F23" t="s">
         <v>149</v>
@@ -3948,8 +4080,11 @@
       <c r="G23" t="s">
         <v>147</v>
       </c>
+      <c r="H23" t="s">
+        <v>605</v>
+      </c>
       <c r="J23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K23" t="s">
         <v>62</v>
@@ -3958,16 +4093,16 @@
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O23" t="s">
         <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q23" t="s">
         <v>73</v>
@@ -4005,22 +4140,22 @@
         <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I24" t="s">
         <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" t="s">
         <v>157</v>
@@ -4029,10 +4164,10 @@
         <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -4070,7 +4205,7 @@
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>163</v>
@@ -4078,8 +4213,11 @@
       <c r="G25" t="s">
         <v>164</v>
       </c>
+      <c r="H25" t="s">
+        <v>606</v>
+      </c>
       <c r="J25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K25" t="s">
         <v>90</v>
@@ -4088,7 +4226,7 @@
         <v>153</v>
       </c>
       <c r="M25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N25" t="s">
         <v>73</v>
@@ -4132,7 +4270,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F26" t="s">
         <v>170</v>
@@ -4140,11 +4278,14 @@
       <c r="G26" t="s">
         <v>169</v>
       </c>
+      <c r="H26" t="s">
+        <v>607</v>
+      </c>
       <c r="I26" t="s">
         <v>185</v>
       </c>
       <c r="J26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K26" t="s">
         <v>157</v>
@@ -4153,16 +4294,16 @@
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q26" t="s">
         <v>30</v>
@@ -4203,7 +4344,7 @@
         <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F27" t="s">
         <v>177</v>
@@ -4211,23 +4352,26 @@
       <c r="G27" t="s">
         <v>173</v>
       </c>
+      <c r="H27" t="s">
+        <v>608</v>
+      </c>
       <c r="J27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K27" t="s">
         <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M27" t="s">
+        <v>568</v>
+      </c>
+      <c r="N27" t="s">
+        <v>583</v>
+      </c>
+      <c r="O27" t="s">
         <v>569</v>
-      </c>
-      <c r="N27" t="s">
-        <v>584</v>
-      </c>
-      <c r="O27" t="s">
-        <v>570</v>
       </c>
       <c r="P27" t="s">
         <v>126</v>
@@ -4268,7 +4412,7 @@
         <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F28" t="s">
         <v>177</v>
@@ -4276,23 +4420,26 @@
       <c r="G28" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="H28" t="s">
+        <v>608</v>
+      </c>
       <c r="J28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K28" t="s">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M28" t="s">
+        <v>568</v>
+      </c>
+      <c r="N28" t="s">
+        <v>583</v>
+      </c>
+      <c r="O28" t="s">
         <v>569</v>
-      </c>
-      <c r="N28" t="s">
-        <v>584</v>
-      </c>
-      <c r="O28" t="s">
-        <v>570</v>
       </c>
       <c r="P28" t="s">
         <v>126</v>
@@ -4333,7 +4480,7 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F29" t="s">
         <v>190</v>
@@ -4341,11 +4488,14 @@
       <c r="G29" t="s">
         <v>191</v>
       </c>
+      <c r="H29" t="s">
+        <v>609</v>
+      </c>
       <c r="I29" t="s">
         <v>197</v>
       </c>
       <c r="J29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K29" t="s">
         <v>141</v>
@@ -4354,16 +4504,16 @@
         <v>192</v>
       </c>
       <c r="M29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
@@ -4404,7 +4554,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
         <v>201</v>
@@ -4412,8 +4562,11 @@
       <c r="G30" t="s">
         <v>199</v>
       </c>
+      <c r="H30" t="s">
+        <v>610</v>
+      </c>
       <c r="J30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K30" t="s">
         <v>129</v>
@@ -4422,7 +4575,7 @@
         <v>202</v>
       </c>
       <c r="M30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N30" t="s">
         <v>73</v>
@@ -4466,7 +4619,7 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
         <v>208</v>
@@ -4474,14 +4627,17 @@
       <c r="G31" t="s">
         <v>207</v>
       </c>
+      <c r="H31" t="s">
+        <v>611</v>
+      </c>
       <c r="J31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K31" t="s">
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M31" t="s">
         <v>73</v>
@@ -4534,7 +4690,7 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F32" t="s">
         <v>208</v>
@@ -4542,14 +4698,17 @@
       <c r="G32" t="s">
         <v>207</v>
       </c>
+      <c r="H32" t="s">
+        <v>611</v>
+      </c>
       <c r="J32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K32" t="s">
         <v>129</v>
       </c>
       <c r="L32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M32" t="s">
         <v>73</v>
@@ -4602,7 +4761,7 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F33" t="s">
         <v>218</v>
@@ -4610,17 +4769,20 @@
       <c r="G33" t="s">
         <v>217</v>
       </c>
+      <c r="H33" t="s">
+        <v>612</v>
+      </c>
       <c r="J33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K33" t="s">
         <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N33" t="s">
         <v>73</v>
@@ -4667,7 +4829,7 @@
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
         <v>218</v>
@@ -4675,17 +4837,20 @@
       <c r="G34" t="s">
         <v>217</v>
       </c>
+      <c r="H34" t="s">
+        <v>612</v>
+      </c>
       <c r="J34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K34" t="s">
         <v>129</v>
       </c>
       <c r="L34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N34" t="s">
         <v>73</v>
@@ -4732,16 +4897,19 @@
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G35" t="s">
         <v>226</v>
       </c>
+      <c r="H35" t="s">
+        <v>613</v>
+      </c>
       <c r="J35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K35" t="s">
         <v>224</v>
@@ -4750,7 +4918,7 @@
         <v>225</v>
       </c>
       <c r="M35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N35" t="s">
         <v>73</v>
@@ -4794,7 +4962,7 @@
         <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F36" t="s">
         <v>232</v>
@@ -4802,20 +4970,23 @@
       <c r="G36" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="H36" t="s">
+        <v>614</v>
+      </c>
       <c r="I36" t="s">
         <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K36" t="s">
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N36" t="s">
         <v>73</v>
@@ -4862,7 +5033,7 @@
         <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F37" t="s">
         <v>232</v>
@@ -4870,20 +5041,23 @@
       <c r="G37" t="s">
         <v>230</v>
       </c>
+      <c r="H37" t="s">
+        <v>614</v>
+      </c>
       <c r="I37" t="s">
         <v>233</v>
       </c>
       <c r="J37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K37" t="s">
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N37" t="s">
         <v>73</v>
@@ -4930,7 +5104,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F38" t="s">
         <v>232</v>
@@ -4938,11 +5112,14 @@
       <c r="G38" t="s">
         <v>230</v>
       </c>
+      <c r="H38" t="s">
+        <v>614</v>
+      </c>
       <c r="I38" t="s">
         <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K38" t="s">
         <v>129</v>
@@ -4951,7 +5128,7 @@
         <v>130</v>
       </c>
       <c r="M38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N38" t="s">
         <v>73</v>
@@ -4975,7 +5152,7 @@
         <v>32</v>
       </c>
       <c r="AB38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC38" t="s">
         <v>237</v>
@@ -4998,7 +5175,7 @@
         <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F39" t="s">
         <v>242</v>
@@ -5006,8 +5183,11 @@
       <c r="G39" t="s">
         <v>240</v>
       </c>
+      <c r="H39" t="s">
+        <v>615</v>
+      </c>
       <c r="J39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K39" t="s">
         <v>243</v>
@@ -5016,10 +5196,10 @@
         <v>244</v>
       </c>
       <c r="M39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O39" t="s">
         <v>245</v>
@@ -5060,7 +5240,7 @@
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F40" t="s">
         <v>251</v>
@@ -5068,17 +5248,20 @@
       <c r="G40" t="s">
         <v>250</v>
       </c>
+      <c r="H40" t="s">
+        <v>616</v>
+      </c>
       <c r="J40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
@@ -5125,7 +5308,7 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F41" t="s">
         <v>251</v>
@@ -5133,8 +5316,11 @@
       <c r="G41" t="s">
         <v>250</v>
       </c>
+      <c r="H41" t="s">
+        <v>616</v>
+      </c>
       <c r="J41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K41" t="s">
         <v>249</v>
@@ -5143,7 +5329,7 @@
         <v>252</v>
       </c>
       <c r="M41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
@@ -5190,7 +5376,7 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F42" t="s">
         <v>258</v>
@@ -5198,8 +5384,11 @@
       <c r="G42" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="H42" t="s">
+        <v>617</v>
+      </c>
       <c r="J42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s">
         <v>129</v>
@@ -5208,10 +5397,10 @@
         <v>202</v>
       </c>
       <c r="M42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O42" t="s">
         <v>73</v>
@@ -5249,31 +5438,34 @@
         <v>2012</v>
       </c>
       <c r="D43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H43" t="s">
+        <v>628</v>
+      </c>
+      <c r="J43" t="s">
+        <v>410</v>
+      </c>
+      <c r="K43" t="s">
         <v>264</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J43" t="s">
-        <v>411</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>265</v>
       </c>
-      <c r="L43" t="s">
-        <v>266</v>
-      </c>
       <c r="M43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O43" t="s">
         <v>73</v>
@@ -5282,7 +5474,7 @@
         <v>61</v>
       </c>
       <c r="Q43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S43" t="s">
         <v>25</v>
@@ -5299,46 +5491,49 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" t="s">
         <v>268</v>
-      </c>
-      <c r="B44" t="s">
-        <v>269</v>
       </c>
       <c r="C44">
         <v>2013</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" t="s">
         <v>270</v>
       </c>
-      <c r="G44" t="s">
-        <v>271</v>
+      <c r="H44" t="s">
+        <v>618</v>
       </c>
       <c r="J44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K44" t="s">
         <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q44" t="s">
         <v>30</v>
@@ -5353,7 +5548,7 @@
         <v>32</v>
       </c>
       <c r="Y44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC44" t="s">
         <v>47</v>
@@ -5364,28 +5559,31 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
         <v>268</v>
-      </c>
-      <c r="B45" t="s">
-        <v>269</v>
       </c>
       <c r="C45">
         <v>2013</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F45" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" t="s">
         <v>270</v>
       </c>
-      <c r="G45" t="s">
-        <v>271</v>
+      <c r="H45" t="s">
+        <v>618</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
         <v>243</v>
@@ -5394,16 +5592,16 @@
         <v>244</v>
       </c>
       <c r="M45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q45" t="s">
         <v>30</v>
@@ -5418,7 +5616,7 @@
         <v>32</v>
       </c>
       <c r="AB45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC45" t="s">
         <v>47</v>
@@ -5429,31 +5627,34 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s">
         <v>276</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
       </c>
       <c r="C46">
         <v>2013</v>
       </c>
       <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" t="s">
+        <v>408</v>
+      </c>
+      <c r="F46" t="s">
         <v>280</v>
       </c>
-      <c r="E46" t="s">
-        <v>409</v>
-      </c>
-      <c r="F46" t="s">
-        <v>281</v>
-      </c>
       <c r="G46" t="s">
+        <v>277</v>
+      </c>
+      <c r="H46" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" t="s">
         <v>278</v>
       </c>
-      <c r="I46" t="s">
-        <v>279</v>
-      </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
         <v>41</v>
@@ -5462,7 +5663,7 @@
         <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N46" t="s">
         <v>73</v>
@@ -5483,16 +5684,16 @@
         <v>25</v>
       </c>
       <c r="U46" t="s">
+        <v>281</v>
+      </c>
+      <c r="V46" t="s">
         <v>282</v>
       </c>
-      <c r="V46" t="s">
+      <c r="AA46" t="s">
         <v>283</v>
       </c>
-      <c r="AA46" t="s">
-        <v>284</v>
-      </c>
       <c r="AB46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC46" t="s">
         <v>47</v>
@@ -5503,31 +5704,31 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" t="s">
         <v>285</v>
-      </c>
-      <c r="B47" t="s">
-        <v>286</v>
       </c>
       <c r="C47">
         <v>2013</v>
       </c>
       <c r="D47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>
       </c>
       <c r="G47" t="s">
+        <v>527</v>
+      </c>
+      <c r="H47" t="s">
         <v>528</v>
       </c>
-      <c r="H47" t="s">
-        <v>529</v>
-      </c>
       <c r="J47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K47" t="s">
         <v>157</v>
@@ -5536,13 +5737,13 @@
         <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P47" t="s">
         <v>126</v>
@@ -5554,7 +5755,7 @@
         <v>26</v>
       </c>
       <c r="T47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U47" t="s">
         <v>234</v>
@@ -5563,7 +5764,7 @@
         <v>32</v>
       </c>
       <c r="AB47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC47" t="s">
         <v>47</v>
@@ -5574,49 +5775,49 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F48" t="s">
         <v>73</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
         <v>129</v>
       </c>
       <c r="L48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N48" t="s">
         <v>253</v>
       </c>
       <c r="O48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q48" t="s">
         <v>30</v>
@@ -5631,10 +5832,10 @@
         <v>32</v>
       </c>
       <c r="W48" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y48" t="s">
         <v>294</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>295</v>
       </c>
       <c r="AD48" t="s">
         <v>25</v>
@@ -5642,31 +5843,31 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="C49">
         <v>2011</v>
       </c>
       <c r="D49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F49" t="s">
         <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K49" t="s">
         <v>249</v>
@@ -5675,16 +5876,16 @@
         <v>252</v>
       </c>
       <c r="M49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
       </c>
       <c r="O49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q49" t="s">
         <v>30</v>
@@ -5699,10 +5900,10 @@
         <v>32</v>
       </c>
       <c r="W49" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y49" t="s">
         <v>294</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>295</v>
       </c>
       <c r="AD49" t="s">
         <v>25</v>
@@ -5710,46 +5911,46 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="C50">
         <v>2011</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F50" t="s">
         <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H50" t="s">
         <v>532</v>
       </c>
-      <c r="H50" t="s">
-        <v>533</v>
-      </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K50" t="s">
         <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P50" t="s">
         <v>73</v>
@@ -5767,13 +5968,13 @@
         <v>32</v>
       </c>
       <c r="W50" t="s">
+        <v>298</v>
+      </c>
+      <c r="X50" t="s">
         <v>299</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>300</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>301</v>
       </c>
       <c r="AC50" t="s">
         <v>47</v>
@@ -5784,34 +5985,37 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
         <v>302</v>
-      </c>
-      <c r="B51" t="s">
-        <v>303</v>
       </c>
       <c r="C51">
         <v>2011</v>
       </c>
       <c r="D51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" t="s">
+        <v>408</v>
+      </c>
+      <c r="F51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="E51" t="s">
-        <v>409</v>
-      </c>
-      <c r="F51" t="s">
-        <v>306</v>
-      </c>
-      <c r="G51" t="s">
-        <v>305</v>
+      <c r="H51" t="s">
+        <v>620</v>
       </c>
       <c r="J51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s">
         <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s">
         <v>73</v>
@@ -5829,13 +6033,13 @@
         <v>209</v>
       </c>
       <c r="R51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S51" t="s">
         <v>25</v>
       </c>
       <c r="U51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V51" t="s">
         <v>32</v>
@@ -5849,34 +6053,37 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
         <v>302</v>
-      </c>
-      <c r="B52" t="s">
-        <v>303</v>
       </c>
       <c r="C52">
         <v>2011</v>
       </c>
       <c r="D52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" t="s">
         <v>304</v>
       </c>
-      <c r="E52" t="s">
-        <v>409</v>
-      </c>
-      <c r="F52" t="s">
-        <v>306</v>
-      </c>
-      <c r="G52" t="s">
-        <v>305</v>
+      <c r="H52" t="s">
+        <v>620</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
         <v>224</v>
       </c>
       <c r="L52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s">
         <v>73</v>
@@ -5894,22 +6101,22 @@
         <v>209</v>
       </c>
       <c r="R52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S52" t="s">
         <v>25</v>
       </c>
       <c r="U52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V52" t="s">
         <v>32</v>
       </c>
       <c r="Z52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD52" t="s">
         <v>25</v>
@@ -5917,28 +6124,31 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" t="s">
         <v>311</v>
-      </c>
-      <c r="B53" t="s">
-        <v>312</v>
       </c>
       <c r="C53">
         <v>2008</v>
       </c>
       <c r="D53" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" t="s">
+        <v>408</v>
+      </c>
+      <c r="F53" t="s">
         <v>314</v>
       </c>
-      <c r="E53" t="s">
-        <v>409</v>
-      </c>
-      <c r="F53" t="s">
-        <v>315</v>
-      </c>
       <c r="G53" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="H53" t="s">
+        <v>621</v>
       </c>
       <c r="J53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
         <v>224</v>
@@ -5947,22 +6157,22 @@
         <v>225</v>
       </c>
       <c r="M53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N53" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O53" t="s">
+        <v>315</v>
+      </c>
+      <c r="P53" t="s">
         <v>316</v>
-      </c>
-      <c r="P53" t="s">
-        <v>317</v>
       </c>
       <c r="Q53" t="s">
         <v>209</v>
       </c>
       <c r="R53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S53" t="s">
         <v>25</v>
@@ -5974,10 +6184,10 @@
         <v>32</v>
       </c>
       <c r="Z53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD53" t="s">
         <v>25</v>
@@ -5985,28 +6195,31 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
         <v>311</v>
-      </c>
-      <c r="B54" t="s">
-        <v>312</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" t="s">
+        <v>408</v>
+      </c>
+      <c r="F54" t="s">
         <v>314</v>
       </c>
-      <c r="E54" t="s">
-        <v>409</v>
-      </c>
-      <c r="F54" t="s">
-        <v>315</v>
-      </c>
       <c r="G54" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="H54" t="s">
+        <v>621</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s">
         <v>41</v>
@@ -6015,22 +6228,22 @@
         <v>103</v>
       </c>
       <c r="M54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O54" t="s">
+        <v>315</v>
+      </c>
+      <c r="P54" t="s">
         <v>316</v>
-      </c>
-      <c r="P54" t="s">
-        <v>317</v>
       </c>
       <c r="Q54" t="s">
         <v>209</v>
       </c>
       <c r="R54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S54" t="s">
         <v>25</v>
@@ -6042,10 +6255,10 @@
         <v>32</v>
       </c>
       <c r="AB54" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC54" t="s">
         <v>319</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>320</v>
       </c>
       <c r="AD54" t="s">
         <v>25</v>
@@ -6053,28 +6266,31 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" t="s">
         <v>324</v>
-      </c>
-      <c r="B55" t="s">
-        <v>325</v>
       </c>
       <c r="C55">
         <v>2013</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
         <v>326</v>
       </c>
-      <c r="G55" t="s">
-        <v>327</v>
+      <c r="H55" t="s">
+        <v>622</v>
       </c>
       <c r="J55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s">
         <v>243</v>
@@ -6083,19 +6299,19 @@
         <v>244</v>
       </c>
       <c r="M55" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N55" t="s">
+        <v>572</v>
+      </c>
+      <c r="O55" t="s">
         <v>573</v>
       </c>
-      <c r="O55" t="s">
-        <v>574</v>
-      </c>
       <c r="P55" t="s">
         <v>73</v>
       </c>
       <c r="Q55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S55" t="s">
         <v>25</v>
@@ -6107,10 +6323,10 @@
         <v>32</v>
       </c>
       <c r="Z55" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB55" t="s">
         <v>328</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>329</v>
       </c>
       <c r="AC55" t="s">
         <v>47</v>
@@ -6121,10 +6337,10 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C56">
         <v>2013</v>
@@ -6133,31 +6349,34 @@
         <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F56" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" t="s">
         <v>338</v>
       </c>
-      <c r="G56" t="s">
-        <v>339</v>
+      <c r="H56" t="s">
+        <v>623</v>
       </c>
       <c r="I56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s">
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O56" t="s">
         <v>73</v>
@@ -6166,13 +6385,13 @@
         <v>61</v>
       </c>
       <c r="Q56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S56" t="s">
         <v>26</v>
       </c>
       <c r="T56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U56" t="s">
         <v>234</v>
@@ -6181,13 +6400,13 @@
         <v>32</v>
       </c>
       <c r="W56" t="s">
+        <v>333</v>
+      </c>
+      <c r="X56" t="s">
         <v>334</v>
       </c>
-      <c r="X56" t="s">
+      <c r="AB56" t="s">
         <v>335</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>336</v>
       </c>
       <c r="AC56" t="s">
         <v>47</v>
@@ -6198,10 +6417,10 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C57">
         <v>2013</v>
@@ -6210,19 +6429,22 @@
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" t="s">
         <v>338</v>
       </c>
-      <c r="G57" t="s">
-        <v>339</v>
+      <c r="H57" t="s">
+        <v>623</v>
       </c>
       <c r="I57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K57" t="s">
         <v>28</v>
@@ -6231,10 +6453,10 @@
         <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O57" t="s">
         <v>73</v>
@@ -6243,13 +6465,13 @@
         <v>61</v>
       </c>
       <c r="Q57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S57" t="s">
         <v>26</v>
       </c>
       <c r="T57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U57" t="s">
         <v>234</v>
@@ -6261,7 +6483,7 @@
         <v>97</v>
       </c>
       <c r="AB57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC57" t="s">
         <v>47</v>
@@ -6272,10 +6494,10 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C58">
         <v>2013</v>
@@ -6284,31 +6506,34 @@
         <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F58" t="s">
+        <v>337</v>
+      </c>
+      <c r="G58" t="s">
         <v>338</v>
       </c>
-      <c r="G58" t="s">
-        <v>339</v>
+      <c r="H58" t="s">
+        <v>623</v>
       </c>
       <c r="I58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s">
         <v>129</v>
       </c>
       <c r="L58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M58" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O58" t="s">
         <v>73</v>
@@ -6317,13 +6542,13 @@
         <v>61</v>
       </c>
       <c r="Q58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S58" t="s">
         <v>26</v>
       </c>
       <c r="T58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U58" t="s">
         <v>234</v>
@@ -6332,10 +6557,10 @@
         <v>32</v>
       </c>
       <c r="Y58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC58" t="s">
         <v>47</v>
@@ -6346,10 +6571,10 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C59">
         <v>2013</v>
@@ -6358,19 +6583,22 @@
         <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>339</v>
+      <c r="H59" t="s">
+        <v>623</v>
       </c>
       <c r="I59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K59" t="s">
         <v>141</v>
@@ -6379,10 +6607,10 @@
         <v>142</v>
       </c>
       <c r="M59" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O59" t="s">
         <v>73</v>
@@ -6391,13 +6619,13 @@
         <v>61</v>
       </c>
       <c r="Q59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S59" t="s">
         <v>26</v>
       </c>
       <c r="T59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U59" t="s">
         <v>234</v>
@@ -6406,10 +6634,10 @@
         <v>32</v>
       </c>
       <c r="Y59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC59" t="s">
         <v>47</v>
@@ -6420,10 +6648,10 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C60">
         <v>2013</v>
@@ -6432,34 +6660,37 @@
         <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G60" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="H60" t="s">
+        <v>624</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s">
         <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O60" t="s">
+        <v>343</v>
+      </c>
+      <c r="P60" t="s">
         <v>344</v>
-      </c>
-      <c r="P60" t="s">
-        <v>345</v>
       </c>
       <c r="Q60" t="s">
         <v>30</v>
@@ -6468,7 +6699,7 @@
         <v>26</v>
       </c>
       <c r="T60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U60" t="s">
         <v>234</v>
@@ -6477,13 +6708,13 @@
         <v>32</v>
       </c>
       <c r="W60" t="s">
+        <v>346</v>
+      </c>
+      <c r="X60" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC60" t="s">
         <v>347</v>
-      </c>
-      <c r="X60" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>348</v>
       </c>
       <c r="AD60" t="s">
         <v>25</v>
@@ -6491,10 +6722,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C61">
         <v>2013</v>
@@ -6503,16 +6734,19 @@
         <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G61" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="H61" t="s">
+        <v>624</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K61" t="s">
         <v>224</v>
@@ -6521,16 +6755,16 @@
         <v>225</v>
       </c>
       <c r="M61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O61" t="s">
+        <v>343</v>
+      </c>
+      <c r="P61" t="s">
         <v>344</v>
-      </c>
-      <c r="P61" t="s">
-        <v>345</v>
       </c>
       <c r="Q61" t="s">
         <v>30</v>
@@ -6539,7 +6773,7 @@
         <v>26</v>
       </c>
       <c r="T61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U61" t="s">
         <v>234</v>
@@ -6548,13 +6782,13 @@
         <v>32</v>
       </c>
       <c r="W61" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC61" t="s">
         <v>347</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>348</v>
       </c>
       <c r="AD61" t="s">
         <v>25</v>
@@ -6562,46 +6796,49 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C62">
         <v>2012</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F62" t="s">
+        <v>359</v>
+      </c>
+      <c r="G62" t="s">
         <v>360</v>
       </c>
-      <c r="G62" t="s">
-        <v>361</v>
+      <c r="H62" t="s">
+        <v>625</v>
       </c>
       <c r="J62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K62" t="s">
         <v>28</v>
       </c>
       <c r="L62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O62" t="s">
         <v>73</v>
       </c>
       <c r="P62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q62" t="s">
         <v>30</v>
@@ -6616,7 +6853,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC62" t="s">
         <v>47</v>
@@ -6627,46 +6864,49 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C63">
         <v>2012</v>
       </c>
       <c r="D63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F63" t="s">
+        <v>359</v>
+      </c>
+      <c r="G63" t="s">
         <v>360</v>
       </c>
-      <c r="G63" t="s">
-        <v>361</v>
+      <c r="H63" t="s">
+        <v>625</v>
       </c>
       <c r="J63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K63" t="s">
         <v>129</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O63" t="s">
         <v>73</v>
       </c>
       <c r="P63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q63" t="s">
         <v>30</v>
@@ -6681,7 +6921,7 @@
         <v>32</v>
       </c>
       <c r="Y63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC63" t="s">
         <v>47</v>
@@ -6692,28 +6932,31 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C64">
         <v>2012</v>
       </c>
       <c r="D64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G64" t="s">
         <v>360</v>
       </c>
-      <c r="G64" t="s">
-        <v>361</v>
+      <c r="H64" t="s">
+        <v>625</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K64" t="s">
         <v>141</v>
@@ -6722,16 +6965,16 @@
         <v>192</v>
       </c>
       <c r="M64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O64" t="s">
         <v>73</v>
       </c>
       <c r="P64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q64" t="s">
         <v>30</v>
@@ -6746,7 +6989,7 @@
         <v>32</v>
       </c>
       <c r="AB64" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC64" t="s">
         <v>47</v>
@@ -6757,43 +7000,43 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" t="s">
         <v>364</v>
-      </c>
-      <c r="B65" t="s">
-        <v>365</v>
       </c>
       <c r="C65">
         <v>2012</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F65" t="s">
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s">
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N65" t="s">
         <v>73</v>
@@ -6802,13 +7045,13 @@
         <v>73</v>
       </c>
       <c r="P65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S65" t="s">
         <v>25</v>
@@ -6817,10 +7060,10 @@
         <v>234</v>
       </c>
       <c r="V65" t="s">
+        <v>367</v>
+      </c>
+      <c r="X65" t="s">
         <v>368</v>
-      </c>
-      <c r="X65" t="s">
-        <v>369</v>
       </c>
       <c r="AD65" t="s">
         <v>26</v>
@@ -6828,34 +7071,34 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" t="s">
         <v>364</v>
-      </c>
-      <c r="B66" t="s">
-        <v>365</v>
       </c>
       <c r="C66">
         <v>2012</v>
       </c>
       <c r="D66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K66" t="s">
         <v>28</v>
@@ -6864,7 +7107,7 @@
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N66" t="s">
         <v>73</v>
@@ -6873,13 +7116,13 @@
         <v>73</v>
       </c>
       <c r="P66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S66" t="s">
         <v>25</v>
@@ -6888,10 +7131,10 @@
         <v>234</v>
       </c>
       <c r="V66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AD66" t="s">
         <v>26</v>
@@ -6899,43 +7142,43 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" t="s">
         <v>364</v>
-      </c>
-      <c r="B67" t="s">
-        <v>365</v>
       </c>
       <c r="C67">
         <v>2012</v>
       </c>
       <c r="D67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F67" t="s">
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H67" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N67" t="s">
         <v>73</v>
@@ -6944,13 +7187,13 @@
         <v>73</v>
       </c>
       <c r="P67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S67" t="s">
         <v>25</v>
@@ -6959,7 +7202,7 @@
         <v>234</v>
       </c>
       <c r="V67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD67" t="s">
         <v>26</v>
@@ -6967,43 +7210,43 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" t="s">
         <v>364</v>
-      </c>
-      <c r="B68" t="s">
-        <v>365</v>
       </c>
       <c r="C68">
         <v>2012</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K68" t="s">
         <v>157</v>
       </c>
       <c r="L68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M68" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N68" t="s">
         <v>73</v>
@@ -7012,13 +7255,13 @@
         <v>73</v>
       </c>
       <c r="P68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q68" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S68" t="s">
         <v>25</v>
@@ -7027,7 +7270,7 @@
         <v>234</v>
       </c>
       <c r="V68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD68" t="s">
         <v>26</v>
@@ -7035,64 +7278,64 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" t="s">
         <v>372</v>
-      </c>
-      <c r="B69" t="s">
-        <v>373</v>
       </c>
       <c r="C69">
         <v>2010</v>
       </c>
       <c r="D69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K69" t="s">
         <v>141</v>
       </c>
       <c r="L69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P69" t="s">
         <v>73</v>
       </c>
       <c r="Q69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S69" t="s">
         <v>26</v>
       </c>
       <c r="T69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U69" t="s">
         <v>234</v>
@@ -7101,10 +7344,10 @@
         <v>32</v>
       </c>
       <c r="AA69" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB69" t="s">
         <v>375</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>376</v>
       </c>
       <c r="AC69" t="s">
         <v>47</v>
@@ -7115,43 +7358,46 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" t="s">
         <v>380</v>
-      </c>
-      <c r="B70" t="s">
-        <v>381</v>
       </c>
       <c r="C70">
         <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F70" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>384</v>
+      <c r="H70" t="s">
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K70" t="s">
         <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O70" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P70" t="s">
         <v>73</v>
@@ -7169,7 +7415,7 @@
         <v>32</v>
       </c>
       <c r="Y70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC70" t="s">
         <v>47</v>
@@ -7180,43 +7426,46 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" t="s">
         <v>380</v>
-      </c>
-      <c r="B71" t="s">
-        <v>381</v>
       </c>
       <c r="C71">
         <v>2013</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F71" t="s">
+        <v>382</v>
+      </c>
+      <c r="G71" t="s">
         <v>383</v>
       </c>
-      <c r="G71" t="s">
-        <v>384</v>
+      <c r="H71" t="s">
+        <v>626</v>
       </c>
       <c r="J71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M71" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P71" t="s">
         <v>73</v>
@@ -7234,10 +7483,10 @@
         <v>32</v>
       </c>
       <c r="Z71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC71" t="s">
         <v>47</v>
@@ -7248,40 +7497,43 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C72">
         <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F72" t="s">
+        <v>394</v>
+      </c>
+      <c r="G72" t="s">
         <v>395</v>
       </c>
-      <c r="G72" t="s">
-        <v>396</v>
+      <c r="H72" t="s">
+        <v>627</v>
       </c>
       <c r="J72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K72" t="s">
         <v>141</v>
       </c>
       <c r="L72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N72" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O72" t="s">
         <v>43</v>
@@ -7296,13 +7548,13 @@
         <v>26</v>
       </c>
       <c r="T72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U72" t="s">
         <v>234</v>
       </c>
       <c r="AA72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AD72" t="s">
         <v>25</v>
@@ -7310,49 +7562,49 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C73">
         <v>2013</v>
       </c>
       <c r="D73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F73" t="s">
         <v>73</v>
       </c>
       <c r="G73" t="s">
+        <v>537</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="J73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K73" t="s">
         <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q73" t="s">
         <v>30</v>
@@ -7367,10 +7619,10 @@
         <v>32</v>
       </c>
       <c r="AA73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AB73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC73" t="s">
         <v>47</v>
@@ -7381,61 +7633,61 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" t="s">
         <v>451</v>
-      </c>
-      <c r="B74" t="s">
-        <v>452</v>
       </c>
       <c r="C74">
         <v>2010</v>
       </c>
       <c r="D74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" t="s">
+        <v>408</v>
+      </c>
+      <c r="F74" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>540</v>
+      </c>
+      <c r="H74" t="s">
+        <v>539</v>
+      </c>
+      <c r="J74" t="s">
         <v>453</v>
-      </c>
-      <c r="E74" t="s">
-        <v>409</v>
-      </c>
-      <c r="F74" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s">
-        <v>541</v>
-      </c>
-      <c r="H74" t="s">
-        <v>540</v>
-      </c>
-      <c r="J74" t="s">
-        <v>454</v>
       </c>
       <c r="K74" t="s">
         <v>82</v>
       </c>
       <c r="L74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P74" t="s">
         <v>61</v>
       </c>
       <c r="Q74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U74" t="s">
         <v>234</v>
       </c>
       <c r="Y74" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB74" t="s">
         <v>457</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>458</v>
       </c>
       <c r="AC74" t="s">
         <v>47</v>
@@ -7446,31 +7698,31 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>450</v>
+      </c>
+      <c r="B75" t="s">
         <v>451</v>
-      </c>
-      <c r="B75" t="s">
-        <v>452</v>
       </c>
       <c r="C75">
         <v>2010</v>
       </c>
       <c r="D75" t="s">
+        <v>452</v>
+      </c>
+      <c r="E75" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
+        <v>540</v>
+      </c>
+      <c r="H75" t="s">
+        <v>539</v>
+      </c>
+      <c r="J75" t="s">
         <v>453</v>
-      </c>
-      <c r="E75" t="s">
-        <v>409</v>
-      </c>
-      <c r="F75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s">
-        <v>541</v>
-      </c>
-      <c r="H75" t="s">
-        <v>540</v>
-      </c>
-      <c r="J75" t="s">
-        <v>454</v>
       </c>
       <c r="K75" t="s">
         <v>62</v>
@@ -7479,28 +7731,28 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P75" t="s">
         <v>61</v>
       </c>
       <c r="Q75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U75" t="s">
         <v>234</v>
       </c>
       <c r="Y75" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB75" t="s">
         <v>457</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>458</v>
       </c>
       <c r="AC75" t="s">
         <v>47</v>
@@ -7511,31 +7763,31 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C76">
         <v>2012</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F76" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
+        <v>541</v>
+      </c>
+      <c r="H76" t="s">
         <v>542</v>
       </c>
-      <c r="H76" t="s">
-        <v>543</v>
-      </c>
       <c r="J76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K76" t="s">
         <v>62</v>
@@ -7544,19 +7796,19 @@
         <v>63</v>
       </c>
       <c r="M76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O76" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P76" t="s">
         <v>135</v>
       </c>
       <c r="Q76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R76" t="s">
         <v>136</v>
@@ -7565,10 +7817,10 @@
         <v>26</v>
       </c>
       <c r="U76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AC76" t="s">
         <v>47</v>
@@ -7579,31 +7831,31 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C77">
         <v>2015</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F77" t="s">
         <v>73</v>
       </c>
       <c r="G77" t="s">
+        <v>543</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="J77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K77" t="s">
         <v>141</v>
@@ -7612,28 +7864,28 @@
         <v>192</v>
       </c>
       <c r="M77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P77" t="s">
         <v>73</v>
       </c>
       <c r="Q77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U77" t="s">
         <v>137</v>
       </c>
       <c r="W77" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB77" t="s">
         <v>469</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>470</v>
       </c>
       <c r="AC77" t="s">
         <v>47</v>
@@ -7644,67 +7896,67 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C78">
         <v>2013</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G78" t="s">
+        <v>545</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="J78" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K78" t="s">
         <v>141</v>
       </c>
       <c r="L78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P78" t="s">
         <v>61</v>
       </c>
       <c r="Q78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S78" t="s">
         <v>25</v>
       </c>
       <c r="U78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W78" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA78" t="s">
         <v>474</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>475</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>476</v>
       </c>
       <c r="AC78" t="s">
         <v>47</v>
@@ -7715,67 +7967,67 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C79">
         <v>2013</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F79" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="J79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K79" t="s">
         <v>224</v>
       </c>
       <c r="L79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P79" t="s">
         <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
       </c>
       <c r="U79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W79" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA79" t="s">
         <v>474</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AB79" t="s">
         <v>475</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>476</v>
       </c>
       <c r="AC79" t="s">
         <v>47</v>
@@ -7786,52 +8038,52 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C80">
         <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F80" t="s">
+        <v>549</v>
+      </c>
+      <c r="G80" t="s">
         <v>550</v>
       </c>
-      <c r="G80" t="s">
-        <v>551</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K80" t="s">
         <v>141</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P80" t="s">
         <v>135</v>
       </c>
       <c r="Q80" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R80" t="s">
         <v>136</v>
@@ -7843,13 +8095,13 @@
         <v>91</v>
       </c>
       <c r="W80" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z80" t="s">
         <v>482</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AC80" t="s">
         <v>483</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>484</v>
       </c>
       <c r="AD80" t="s">
         <v>25</v>
@@ -7857,31 +8109,31 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C81">
         <v>2015</v>
       </c>
       <c r="D81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G81" t="s">
+        <v>551</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="J81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K81" t="s">
         <v>141</v>
@@ -7890,16 +8142,16 @@
         <v>192</v>
       </c>
       <c r="M81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q81" t="s">
         <v>30</v>
@@ -7911,13 +8163,13 @@
         <v>91</v>
       </c>
       <c r="W81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y81" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB81" t="s">
         <v>488</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>489</v>
       </c>
       <c r="AC81" t="s">
         <v>47</v>
@@ -7928,31 +8180,31 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C82">
         <v>2015</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G82" t="s">
+        <v>551</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="J82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K82" t="s">
         <v>141</v>
@@ -7961,16 +8213,16 @@
         <v>142</v>
       </c>
       <c r="M82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N82" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q82" t="s">
         <v>30</v>
@@ -7982,13 +8234,13 @@
         <v>91</v>
       </c>
       <c r="W82" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y82" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB82" t="s">
         <v>488</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>489</v>
       </c>
       <c r="AC82" t="s">
         <v>47</v>
@@ -7999,49 +8251,49 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C83">
         <v>2015</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G83" t="s">
+        <v>551</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="J83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K83" t="s">
         <v>129</v>
       </c>
       <c r="L83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P83" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q83" t="s">
         <v>30</v>
@@ -8053,13 +8305,13 @@
         <v>91</v>
       </c>
       <c r="W83" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y83" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB83" t="s">
         <v>488</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>489</v>
       </c>
       <c r="AC83" t="s">
         <v>47</v>
@@ -8070,31 +8322,31 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C84">
         <v>2010</v>
       </c>
       <c r="D84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G84" t="s">
+        <v>557</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="J84" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K84" t="s">
         <v>141</v>
@@ -8129,37 +8381,37 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C85">
         <v>2010</v>
       </c>
       <c r="D85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F85" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G85" t="s">
+        <v>557</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="J85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K85" t="s">
         <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M85" t="s">
         <v>73</v>
@@ -8188,52 +8440,52 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C86">
         <v>2010</v>
       </c>
       <c r="D86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F86" t="s">
         <v>73</v>
       </c>
       <c r="G86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K86" t="s">
         <v>129</v>
       </c>
       <c r="L86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M86" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S86" t="s">
         <v>25</v>
@@ -8242,13 +8494,13 @@
         <v>137</v>
       </c>
       <c r="W86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y86" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB86" t="s">
         <v>495</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>496</v>
       </c>
       <c r="AC86" t="s">
         <v>47</v>
@@ -8259,52 +8511,52 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C87">
         <v>2010</v>
       </c>
       <c r="D87" t="s">
+        <v>452</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" t="s">
+        <v>560</v>
+      </c>
+      <c r="H87" t="s">
+        <v>593</v>
+      </c>
+      <c r="J87" t="s">
         <v>453</v>
-      </c>
-      <c r="E87" t="s">
-        <v>409</v>
-      </c>
-      <c r="F87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G87" t="s">
-        <v>561</v>
-      </c>
-      <c r="H87" t="s">
-        <v>594</v>
-      </c>
-      <c r="J87" t="s">
-        <v>454</v>
       </c>
       <c r="K87" t="s">
         <v>82</v>
       </c>
       <c r="L87" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N87" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S87" t="s">
         <v>25</v>
@@ -8313,13 +8565,13 @@
         <v>234</v>
       </c>
       <c r="W87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y87" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB87" t="s">
         <v>495</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>496</v>
       </c>
       <c r="AC87" t="s">
         <v>47</v>
@@ -8330,10 +8582,10 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B88" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C88">
         <v>2014</v>
@@ -8342,19 +8594,19 @@
         <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G88" t="s">
+        <v>561</v>
+      </c>
+      <c r="H88" t="s">
         <v>562</v>
       </c>
-      <c r="H88" t="s">
-        <v>563</v>
-      </c>
       <c r="J88" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K88" t="s">
         <v>62</v>
@@ -8363,19 +8615,19 @@
         <v>143</v>
       </c>
       <c r="M88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N88" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P88" t="s">
         <v>61</v>
       </c>
       <c r="Q88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S88" t="s">
         <v>25</v>
@@ -8384,16 +8636,16 @@
         <v>91</v>
       </c>
       <c r="W88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="X88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z88" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AC88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AD88" t="s">
         <v>25</v>
@@ -8401,40 +8653,40 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C89">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F89" t="s">
         <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K89" t="s">
         <v>129</v>
       </c>
       <c r="L89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N89" t="s">
         <v>73</v>
@@ -8446,7 +8698,7 @@
         <v>73</v>
       </c>
       <c r="Q89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S89" t="s">
         <v>25</v>
@@ -8455,10 +8707,10 @@
         <v>137</v>
       </c>
       <c r="Y89" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB89" t="s">
         <v>504</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>505</v>
       </c>
       <c r="AC89" t="s">
         <v>47</v>
@@ -8469,52 +8721,52 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C90">
         <v>2013</v>
       </c>
       <c r="D90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F90" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G90" t="s">
+        <v>554</v>
+      </c>
+      <c r="H90" t="s">
         <v>555</v>
       </c>
-      <c r="H90" t="s">
-        <v>556</v>
-      </c>
       <c r="J90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K90" t="s">
         <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S90" t="s">
         <v>26</v>
@@ -8523,16 +8775,16 @@
         <v>91</v>
       </c>
       <c r="W90" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AB90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AC90" t="s">
         <v>47</v>
@@ -8543,52 +8795,52 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C91">
         <v>2013</v>
       </c>
       <c r="D91" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F91" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G91" t="s">
+        <v>554</v>
+      </c>
+      <c r="H91" t="s">
         <v>555</v>
       </c>
-      <c r="H91" t="s">
-        <v>556</v>
-      </c>
       <c r="J91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K91" t="s">
         <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M91" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N91" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S91" t="s">
         <v>26</v>
@@ -8597,16 +8849,16 @@
         <v>91</v>
       </c>
       <c r="W91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AB91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AC91" t="s">
         <v>47</v>
@@ -8617,31 +8869,31 @@
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C92">
         <v>2015</v>
       </c>
       <c r="D92" t="s">
+        <v>423</v>
+      </c>
+      <c r="E92" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" t="s">
         <v>424</v>
       </c>
-      <c r="E92" t="s">
-        <v>409</v>
-      </c>
-      <c r="F92" t="s">
-        <v>425</v>
-      </c>
       <c r="G92" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K92" t="s">
         <v>129</v>
@@ -8650,43 +8902,43 @@
         <v>130</v>
       </c>
       <c r="M92" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S92" t="s">
         <v>26</v>
       </c>
       <c r="T92" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U92" t="s">
         <v>234</v>
       </c>
       <c r="V92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y92" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC92" t="s">
         <v>435</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>436</v>
       </c>
       <c r="AD92" t="s">
         <v>26</v>
@@ -8694,70 +8946,70 @@
     </row>
     <row r="93" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
+        <v>423</v>
+      </c>
+      <c r="E93" t="s">
+        <v>408</v>
+      </c>
+      <c r="F93" t="s">
         <v>424</v>
       </c>
-      <c r="E93" t="s">
-        <v>409</v>
-      </c>
-      <c r="F93" t="s">
-        <v>425</v>
-      </c>
       <c r="G93" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K93" t="s">
         <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N93" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O93" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q93" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S93" t="s">
         <v>26</v>
       </c>
       <c r="T93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U93" t="s">
         <v>234</v>
       </c>
       <c r="V93" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AC93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AD93" t="s">
         <v>26</v>
@@ -8765,10 +9017,10 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C94">
         <v>2014</v>
@@ -8777,40 +9029,40 @@
         <v>58</v>
       </c>
       <c r="E94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F94" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94" t="s">
         <v>429</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>430</v>
       </c>
-      <c r="H94" t="s">
-        <v>431</v>
-      </c>
       <c r="J94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K94" t="s">
         <v>28</v>
       </c>
       <c r="L94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N94" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O94" t="s">
         <v>73</v>
       </c>
       <c r="P94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q94" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S94" t="s">
         <v>25</v>
@@ -8819,7 +9071,7 @@
         <v>137</v>
       </c>
       <c r="W94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AD94" t="s">
         <v>25</v>
@@ -8827,10 +9079,10 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C95">
         <v>2014</v>
@@ -8839,40 +9091,40 @@
         <v>58</v>
       </c>
       <c r="E95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F95" t="s">
+        <v>428</v>
+      </c>
+      <c r="G95" t="s">
         <v>429</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>430</v>
       </c>
-      <c r="H95" t="s">
-        <v>431</v>
-      </c>
       <c r="J95" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K95" t="s">
         <v>157</v>
       </c>
       <c r="L95" t="s">
+        <v>438</v>
+      </c>
+      <c r="M95" t="s">
+        <v>566</v>
+      </c>
+      <c r="N95" t="s">
+        <v>576</v>
+      </c>
+      <c r="O95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" t="s">
         <v>439</v>
       </c>
-      <c r="M95" t="s">
-        <v>567</v>
-      </c>
-      <c r="N95" t="s">
-        <v>577</v>
-      </c>
-      <c r="O95" t="s">
-        <v>73</v>
-      </c>
-      <c r="P95" t="s">
-        <v>440</v>
-      </c>
       <c r="Q95" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S95" t="s">
         <v>25</v>
@@ -8886,31 +9138,31 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C96">
         <v>2013</v>
       </c>
       <c r="D96" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96" t="s">
+        <v>407</v>
+      </c>
+      <c r="F96" t="s">
+        <v>73</v>
+      </c>
+      <c r="G96" t="s">
         <v>442</v>
       </c>
-      <c r="E96" t="s">
-        <v>408</v>
-      </c>
-      <c r="F96" t="s">
-        <v>73</v>
-      </c>
-      <c r="G96" t="s">
-        <v>443</v>
-      </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K96" t="s">
         <v>62</v>
@@ -8919,10 +9171,10 @@
         <v>63</v>
       </c>
       <c r="M96" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N96" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O96" t="s">
         <v>43</v>
@@ -8931,19 +9183,19 @@
         <v>73</v>
       </c>
       <c r="Q96" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S96" t="s">
         <v>26</v>
       </c>
       <c r="T96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U96" t="s">
         <v>234</v>
       </c>
       <c r="AB96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC96" t="s">
         <v>47</v>
@@ -8954,31 +9206,31 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C97">
         <v>2015</v>
       </c>
       <c r="D97" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F97" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" t="s">
         <v>447</v>
       </c>
-      <c r="E97" t="s">
-        <v>409</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>449</v>
       </c>
-      <c r="G97" t="s">
-        <v>448</v>
-      </c>
-      <c r="H97" t="s">
-        <v>450</v>
-      </c>
       <c r="J97" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K97" t="s">
         <v>129</v>
@@ -8987,43 +9239,43 @@
         <v>202</v>
       </c>
       <c r="M97" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S97" t="s">
         <v>26</v>
       </c>
       <c r="T97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U97" t="s">
         <v>234</v>
       </c>
       <c r="V97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X97" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB97" t="s">
         <v>515</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>516</v>
       </c>
       <c r="AC97" t="s">
         <v>47</v>
@@ -9034,76 +9286,76 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98">
         <v>2015</v>
       </c>
       <c r="D98" t="s">
+        <v>446</v>
+      </c>
+      <c r="E98" t="s">
+        <v>408</v>
+      </c>
+      <c r="F98" t="s">
+        <v>448</v>
+      </c>
+      <c r="G98" t="s">
         <v>447</v>
       </c>
-      <c r="E98" t="s">
-        <v>409</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>449</v>
       </c>
-      <c r="G98" t="s">
-        <v>448</v>
-      </c>
-      <c r="H98" t="s">
-        <v>450</v>
-      </c>
       <c r="J98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K98" t="s">
         <v>28</v>
       </c>
       <c r="L98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M98" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P98" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S98" t="s">
         <v>26</v>
       </c>
       <c r="T98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U98" t="s">
         <v>234</v>
       </c>
       <c r="V98" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X98" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB98" t="s">
         <v>515</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>516</v>
       </c>
       <c r="AC98" t="s">
         <v>47</v>
@@ -9122,6 +9374,7 @@
       <c r="F101" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD98"/>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1"/>
     <hyperlink ref="G13" r:id="rId2"/>
@@ -9130,7 +9383,7 @@
     <hyperlink ref="G42" r:id="rId5"/>
     <hyperlink ref="G28" r:id="rId6"/>
     <hyperlink ref="G36" r:id="rId7"/>
-    <hyperlink ref="G43" r:id="rId8" location=".U7ufcvl_tUU"/>
+    <hyperlink ref="G43" r:id="rId8"/>
     <hyperlink ref="G70" r:id="rId9"/>
     <hyperlink ref="G59" r:id="rId10"/>
     <hyperlink ref="F97" r:id="rId11" display="http://www.tandfonline.com/keyword/volunteered geographic information /(VGI/)"/>
